--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48177B17-8431-4F5F-A566-A147106300AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D0E58-0A82-47DE-8077-476F3AEBD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1913,7 +1913,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2002,8 +2002,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2032,17 +2030,14 @@
     <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2053,6 +2048,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2068,21 +2074,8 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2178,22 +2171,22 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2606,7 +2599,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9867D804-B564-4097-BC7C-27756DD55E4E}" name="Сводная таблица2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9867D804-B564-4097-BC7C-27756DD55E4E}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2993,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,7 +3066,7 @@
       <c r="S1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="56" t="s">
         <v>83</v>
       </c>
       <c r="U1" s="47" t="s">
@@ -3087,16 +3080,16 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="76">
         <v>1</v>
       </c>
-      <c r="D2" s="83">
+      <c r="D2" s="78">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3129,11 +3122,12 @@
         <v>1.9</v>
       </c>
       <c r="O2" s="35">
-        <v>35</v>
+        <f>5*6</f>
+        <v>30</v>
       </c>
       <c r="P2" s="36">
         <f>N2+O2</f>
-        <v>36.9</v>
+        <v>31.9</v>
       </c>
       <c r="Q2" s="25">
         <v>101</v>
@@ -3145,14 +3139,14 @@
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="59">
+      <c r="T2" s="57">
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="48">
+      <c r="U2" s="96">
         <v>20</v>
       </c>
-      <c r="V2" s="49">
+      <c r="V2" s="97">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
@@ -3169,33 +3163,33 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="76">
         <v>1</v>
       </c>
-      <c r="D3" s="83">
-        <f t="shared" ref="D3:D30" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
+      <c r="D3" s="78">
+        <f t="shared" ref="D3:D8" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E30" si="2">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E3:E8" si="2">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F30" si="3">60/E3*C3</f>
+        <f t="shared" ref="F3:F8" si="3">60/E3*C3</f>
         <v>0.59405940594059403</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G30" si="4">VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G3:G8" si="4">VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H30" si="5">D3*F3*G3</f>
+        <f t="shared" ref="H3:H8" si="5">D3*F3*G3</f>
         <v>23.762376237623762</v>
       </c>
       <c r="I3" s="16" t="s">
@@ -3211,6 +3205,7 @@
         <v>1.5</v>
       </c>
       <c r="O3" s="35">
+        <f>2*10</f>
         <v>20</v>
       </c>
       <c r="P3" s="36">
@@ -3227,14 +3222,14 @@
         <f t="shared" ref="S3:S6" si="7">R3/W$2</f>
         <v>0.1</v>
       </c>
-      <c r="T3" s="59">
+      <c r="T3" s="57">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="48">
+      <c r="U3" s="96">
         <v>20</v>
       </c>
-      <c r="V3" s="49">
+      <c r="V3" s="97">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
@@ -3248,16 +3243,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="76">
         <v>1</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3290,11 +3285,12 @@
         <v>1</v>
       </c>
       <c r="O4" s="35">
-        <v>20</v>
+        <f>4*4</f>
+        <v>16</v>
       </c>
       <c r="P4" s="36">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="25">
         <v>36</v>
@@ -3306,14 +3302,14 @@
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="59">
+      <c r="T4" s="57">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="48">
+      <c r="U4" s="96">
         <v>20</v>
       </c>
-      <c r="V4" s="49">
+      <c r="V4" s="97">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
@@ -3327,16 +3323,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="76">
         <v>1</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3365,34 +3361,35 @@
       <c r="M5" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="66">
-        <v>1.3</v>
-      </c>
-      <c r="O5" s="67">
+      <c r="N5" s="19">
+        <v>1.7</v>
+      </c>
+      <c r="O5" s="64">
+        <f>5*5</f>
         <v>25</v>
       </c>
-      <c r="P5" s="68">
+      <c r="P5" s="65">
         <f>N5+O5</f>
-        <v>26.3</v>
-      </c>
-      <c r="Q5" s="69">
+        <v>26.7</v>
+      </c>
+      <c r="Q5" s="66">
         <v>80</v>
       </c>
-      <c r="R5" s="70">
+      <c r="R5" s="67">
         <v>2</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="57">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="48">
+      <c r="U5" s="96">
         <v>20</v>
       </c>
-      <c r="V5" s="49">
+      <c r="V5" s="97">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
@@ -3406,16 +3403,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="76">
         <v>1</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3441,37 +3438,38 @@
       <c r="J6" s="17">
         <v>58.048090523338047</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="19">
         <v>0.9</v>
       </c>
       <c r="O6" s="35">
-        <v>15</v>
+        <f>4*7</f>
+        <v>28</v>
       </c>
       <c r="P6" s="36">
         <f>N6+O6</f>
-        <v>15.9</v>
+        <v>28.9</v>
       </c>
       <c r="Q6" s="25">
         <v>70</v>
       </c>
-      <c r="R6" s="77">
+      <c r="R6" s="72">
         <v>2</v>
       </c>
       <c r="S6" s="45">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="59">
+      <c r="T6" s="57">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="96">
         <v>20</v>
       </c>
-      <c r="V6" s="49">
+      <c r="V6" s="97">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
@@ -3485,16 +3483,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="76">
         <v>1</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3523,34 +3521,35 @@
       <c r="M7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="19">
         <v>0.9</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="68">
+        <f>5*2</f>
         <v>10</v>
       </c>
-      <c r="P7" s="73">
+      <c r="P7" s="69">
         <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
-      <c r="Q7" s="74">
+      <c r="Q7" s="70">
         <v>60</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="71">
         <v>2</v>
       </c>
       <c r="S7" s="45">
         <f>R7/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T7" s="59">
+      <c r="T7" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="48">
+      <c r="U7" s="96">
         <v>20</v>
       </c>
-      <c r="V7" s="49">
+      <c r="V7" s="97">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
@@ -3564,16 +3563,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="86">
         <v>1</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3593,7 +3592,7 @@
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="74" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="17">
@@ -3605,43 +3604,43 @@
       <c r="P8" s="43"/>
       <c r="Q8" s="43"/>
       <c r="R8" s="43"/>
-      <c r="S8" s="50">
+      <c r="S8" s="48">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="57"/>
+      <c r="T8" s="55"/>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
       <c r="W8" s="31"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="79" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="88">
         <v>1</v>
       </c>
-      <c r="D9" s="97">
-        <f>VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
+      <c r="D9" s="83">
+        <f t="shared" ref="D9:D21" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E9:E20" si="10">VLOOKUP(A9,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
       <c r="F9" s="18">
-        <f>60/E9*C9</f>
+        <f t="shared" ref="F9:F20" si="11">60/E9*C9</f>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(A9,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G9:G20" si="12">VLOOKUP(A9,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H9" s="17">
-        <f>D9*F9*G9</f>
+        <f t="shared" ref="H9:H21" si="13">D9*F9*G9</f>
         <v>40</v>
       </c>
       <c r="I9" s="16" t="s">
@@ -3652,33 +3651,33 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
+      <c r="A10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="87">
         <v>1</v>
       </c>
-      <c r="D10" s="97">
-        <f>VLOOKUP(A10,$M$1:$X$8,6,FALSE)</f>
+      <c r="D10" s="83">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(A10,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="F10" s="18">
-        <f>60/E10*C10</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(A10,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H10" s="17">
-        <f>D10*F10*G10</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="I10" s="16" t="s">
@@ -3690,33 +3689,33 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="87">
         <v>1</v>
       </c>
-      <c r="D11" s="97">
-        <f>VLOOKUP(A11,$M$1:$X$8,6,FALSE)</f>
+      <c r="D11" s="83">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(A11,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="F11" s="18">
-        <f>60/E11*C11</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(A11,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H11" s="17">
-        <f>D11*F11*G11</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -3728,33 +3727,33 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="60" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="88">
         <v>1</v>
       </c>
-      <c r="D12" s="97">
-        <f>VLOOKUP(A12,$M$1:$X$8,6,FALSE)</f>
+      <c r="D12" s="83">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(A12,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F12" s="18">
-        <f>60/E12*C12</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(A12,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H12" s="17">
-        <f>D12*F12*G12</f>
+        <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I12" s="16" t="s">
@@ -3766,33 +3765,33 @@
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="98">
+      <c r="C13" s="84">
         <v>1</v>
       </c>
-      <c r="D13" s="99">
-        <f>VLOOKUP(A13,$M$1:$X$8,6,FALSE)</f>
+      <c r="D13" s="85">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(A13,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F13" s="18">
-        <f>60/E13*C13</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(A13,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H13" s="17">
-        <f>D13*F13*G13</f>
+        <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I13" s="16" t="s">
@@ -3804,33 +3803,33 @@
       <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="76">
         <v>1</v>
       </c>
-      <c r="D14" s="83">
-        <f>VLOOKUP(A14,$M$1:$X$8,6,FALSE)</f>
+      <c r="D14" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(A14,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F14" s="18">
-        <f>60/E14*C14</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(A14,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H14" s="17">
-        <f>D14*F14*G14</f>
+        <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
       <c r="I14" s="16" t="s">
@@ -3842,712 +3841,663 @@
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="76">
         <v>1</v>
       </c>
-      <c r="D15" s="83">
-        <f>VLOOKUP(A15,$M$1:$X$8,6,FALSE)</f>
+      <c r="D15" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(A15,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F15" s="18">
-        <f>60/E15*C15</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(A15,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H15" s="17">
-        <f>D15*F15*G15</f>
+        <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
       <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="96">
+      <c r="C16" s="82">
         <v>1</v>
       </c>
-      <c r="D16" s="97">
-        <f>VLOOKUP(A16,$M$1:$X$8,6,FALSE)</f>
+      <c r="D16" s="83">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(A16,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="F16" s="18">
-        <f>60/E16*C16</f>
+        <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(A16,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H16" s="17">
-        <f>D16*F16*G16</f>
+        <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
+      <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="61" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="76">
         <v>1</v>
       </c>
-      <c r="D17" s="83">
-        <f>VLOOKUP(A17,$M$1:$X$8,6,FALSE)</f>
+      <c r="D17" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(A17,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="F17" s="18">
-        <f>60/E17*C17</f>
+        <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(A17,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H17" s="17">
-        <f>D17*F17*G17</f>
+        <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="76">
         <v>1</v>
       </c>
-      <c r="D18" s="83">
-        <f>VLOOKUP(A18,$M$1:$X$8,6,FALSE)</f>
+      <c r="D18" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(A18,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="F18" s="18">
-        <f>60/E18*C18</f>
+        <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G18">
-        <f>VLOOKUP(A18,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H18" s="17">
-        <f>D18*F18*G18</f>
+        <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="76">
         <v>1</v>
       </c>
-      <c r="D19" s="83">
-        <f>VLOOKUP(A19,$M$1:$X$8,6,FALSE)</f>
+      <c r="D19" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(A19,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="F19" s="18">
-        <f>60/E19*C19</f>
+        <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(A19,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H19" s="17">
-        <f>D19*F19*G19</f>
+        <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
+      <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="76">
         <v>1</v>
       </c>
-      <c r="D20" s="83">
-        <f>VLOOKUP(A20,$M$1:$X$8,6,FALSE)</f>
+      <c r="D20" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(A20,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="F20" s="18">
-        <f>60/E20*C20</f>
+        <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G20">
-        <f>VLOOKUP(A20,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="H20" s="17">
-        <f>D20*F20*G20</f>
+        <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
+      <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="76">
         <v>4</v>
       </c>
-      <c r="D21" s="83">
-        <f>VLOOKUP(A21,$M$1:$X$8,6,FALSE)</f>
+      <c r="D21" s="78">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21" si="9">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E21" si="14">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
       <c r="F21" s="18">
-        <f t="shared" ref="F21" si="10">60/E21*C21</f>
+        <f t="shared" ref="F21" si="15">60/E21*C21</f>
         <v>1.7142857142857142</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21" si="11">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G21" si="16">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H21" s="17">
-        <f>D21*F21*G21</f>
+        <f t="shared" si="13"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="76">
         <v>3</v>
       </c>
-      <c r="D22" s="83">
-        <f t="shared" ref="D22" si="12">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
+      <c r="D22" s="78">
+        <f t="shared" ref="D22" si="17">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="13">VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E22" si="18">VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
       <c r="F22" s="18">
-        <f t="shared" ref="F22" si="14">60/E22*C22</f>
+        <f t="shared" ref="F22" si="19">60/E22*C22</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22" si="15">VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G22" si="20">VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H22" s="17">
-        <f t="shared" ref="H22" si="16">D22*F22*G22</f>
+        <f t="shared" ref="H22" si="21">D22*F22*G22</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="60" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="76">
         <v>1</v>
       </c>
-      <c r="D23" s="83">
-        <f>VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
+      <c r="D23" s="78">
+        <f t="shared" ref="D23:D33" si="22">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E23:E35" si="23">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
         <v>80</v>
       </c>
       <c r="F23" s="18">
-        <f>60/E23*C23</f>
+        <f t="shared" ref="F23:F33" si="24">60/E23*C23</f>
         <v>0.75</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G23:G35" si="25">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H23" s="17">
-        <f>D23*F23*G23</f>
+        <f t="shared" ref="H23:H35" si="26">D23*F23*G23</f>
         <v>30</v>
       </c>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="76">
         <v>1</v>
       </c>
-      <c r="D24" s="83">
-        <f>VLOOKUP(A24,$M$1:$X$8,6,FALSE)</f>
+      <c r="D24" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(A24,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="F24" s="18">
-        <f>60/E24*C24</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G24">
-        <f>VLOOKUP(A24,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H24" s="17">
-        <f>D24*F24*G24</f>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="61" t="s">
         <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="76">
         <v>1</v>
       </c>
-      <c r="D25" s="83">
-        <f>VLOOKUP(A25,$M$1:$X$8,6,FALSE)</f>
+      <c r="D25" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(A25,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="F25" s="18">
-        <f>60/E25*C25</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(A25,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H25" s="17">
-        <f>D25*F25*G25</f>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="I25" s="80"/>
+      <c r="I25" s="75"/>
       <c r="N25" s="18"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="76">
         <v>1</v>
       </c>
-      <c r="D26" s="83">
-        <f>VLOOKUP(A26,$M$1:$X$8,6,FALSE)</f>
+      <c r="D26" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(A26,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="F26" s="18">
-        <f>60/E26*C26</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(A26,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H26" s="17">
-        <f>D26*F26*G26</f>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="76">
         <v>1</v>
       </c>
-      <c r="D27" s="83">
-        <f>VLOOKUP(A27,$M$1:$X$8,6,FALSE)</f>
+      <c r="D27" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(A27,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="F27" s="18">
-        <f>60/E27*C27</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G27">
-        <f>VLOOKUP(A27,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H27" s="17">
-        <f>D27*F27*G27</f>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="76">
         <v>1</v>
       </c>
-      <c r="D28" s="83">
-        <f>VLOOKUP(A28,$M$1:$X$8,6,FALSE)</f>
+      <c r="D28" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(A28,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="F28" s="18">
-        <f>60/E28*C28</f>
+        <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
       <c r="G28">
-        <f>VLOOKUP(A28,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H28" s="17">
-        <f>D28*F28*G28</f>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="76">
         <v>1</v>
       </c>
-      <c r="D29" s="83">
-        <f>VLOOKUP(A29,$M$1:$X$8,6,FALSE)</f>
+      <c r="D29" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(A29,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F29" s="18">
-        <f>60/E29*C29</f>
+        <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G29">
-        <f>VLOOKUP(A29,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H29" s="17">
-        <f>D29*F29*G29</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="76">
         <v>1</v>
       </c>
-      <c r="D30" s="83">
-        <f>VLOOKUP(A30,$M$1:$X$8,6,FALSE)</f>
+      <c r="D30" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(A30,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F30" s="18">
-        <f>60/E30*C30</f>
+        <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G30">
-        <f>VLOOKUP(A30,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H30" s="17">
-        <f>D30*F30*G30</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="76">
         <v>1</v>
       </c>
-      <c r="D31" s="83">
-        <f>VLOOKUP(A31,$M$1:$X$8,6,FALSE)</f>
+      <c r="D31" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(A31,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F31" s="18">
-        <f>60/E31*C31</f>
+        <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(A31,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H31" s="17">
-        <f>D31*F31*G31</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P31" s="17"/>
       <c r="T31" s="17"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="76">
         <v>1</v>
       </c>
-      <c r="D32" s="83">
-        <f>VLOOKUP(A32,$M$1:$X$8,6,FALSE)</f>
+      <c r="D32" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(A32,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F32" s="18">
-        <f>60/E32*C32</f>
+        <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G32">
-        <f>VLOOKUP(A32,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H32" s="17">
-        <f>D32*F32*G32</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P32" s="17"/>
       <c r="T32" s="17"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="76">
         <v>1</v>
       </c>
-      <c r="D33" s="83">
-        <f>VLOOKUP(A33,$M$1:$X$8,6,FALSE)</f>
+      <c r="D33" s="78">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(A33,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F33" s="18">
-        <f>60/E33*C33</f>
+        <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G33">
-        <f>VLOOKUP(A33,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H33" s="17">
-        <f>D33*F33*G33</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P33" s="17"/>
       <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="76">
         <v>1</v>
       </c>
-      <c r="D34" s="83">
-        <f t="shared" ref="D34" si="17">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
+      <c r="D34" s="78">
+        <f t="shared" ref="D34" si="27">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(A34,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F34" s="18">
-        <f t="shared" ref="F34" si="18">60/E34*C34</f>
+        <f t="shared" ref="F34" si="28">60/E34*C34</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="G34">
-        <f>VLOOKUP(A34,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H34" s="17">
-        <f>D34*F34*G34</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P34" s="17"/>
       <c r="T34" s="17"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="96">
+      <c r="C35" s="82">
         <v>1</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="83">
         <f>VLOOKUP(A35,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(A35,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>70</v>
       </c>
       <c r="F35" s="18">
@@ -4555,31 +4505,22 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G35">
-        <f>VLOOKUP(A35,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="H35" s="17">
-        <f>D35*F35*G35</f>
+        <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P35" s="17"/>
       <c r="T35" s="17"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="75"/>
       <c r="F36" s="18"/>
       <c r="H36" s="17"/>
       <c r="T36" s="17"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-    </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q44">
         <v>4</v>
@@ -4587,20 +4528,20 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87" t="s">
+      <c r="B53" s="92"/>
+      <c r="C53" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="88"/>
+      <c r="D53" s="94"/>
     </row>
     <row r="54" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -4609,8 +4550,8 @@
       <c r="D54" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="55" t="s">
+      <c r="E54" s="58"/>
+      <c r="F54" s="53" t="s">
         <v>79</v>
       </c>
       <c r="G54" s="22" t="s">
@@ -4627,19 +4568,19 @@
       <c r="A55" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="52">
+      <c r="B55" s="50">
         <v>520</v>
       </c>
       <c r="C55" s="36">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
         <v>509.85855728429988</v>
       </c>
-      <c r="D55" s="78">
+      <c r="D55" s="73">
         <f>1-B55/C55</f>
         <v>-1.9890698255055961E-2</v>
       </c>
       <c r="E55" s="37"/>
-      <c r="F55" s="56" t="str">
+      <c r="F55" s="54" t="str">
         <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
         <v>open_home_page</v>
       </c>
@@ -4660,24 +4601,24 @@
       <c r="A56" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="50">
         <v>422</v>
       </c>
       <c r="C56" s="36">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
         <v>409.85855728429988</v>
       </c>
-      <c r="D56" s="78">
+      <c r="D56" s="73">
         <f>1-B56/C56</f>
         <v>-2.9623494495634395E-2</v>
       </c>
       <c r="E56" s="37"/>
-      <c r="F56" s="56" t="str">
+      <c r="F56" s="54" t="str">
         <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
       <c r="G56" s="33">
-        <f t="shared" ref="G56:G66" si="19">C56/3</f>
+        <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
       <c r="H56" s="23">
@@ -4685,7 +4626,7 @@
         <v>156</v>
       </c>
       <c r="I56" s="21">
-        <f t="shared" ref="I56:I66" si="20">1-G56/H56</f>
+        <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
         <v>0.12423385195662429</v>
       </c>
     </row>
@@ -4693,24 +4634,24 @@
       <c r="A57" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="50">
         <v>305</v>
       </c>
       <c r="C57" s="36">
-        <f t="shared" ref="C57:C66" si="21">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
+        <f t="shared" ref="C57:C66" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>289.85855728429988</v>
       </c>
-      <c r="D57" s="78">
+      <c r="D57" s="73">
         <f>1-B57/C57</f>
         <v>-5.2237349338798644E-2</v>
       </c>
       <c r="E57" s="37"/>
-      <c r="F57" s="56" t="str">
+      <c r="F57" s="54" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
         <v>go_to_flights</v>
       </c>
       <c r="G57" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
       <c r="H57" s="23">
@@ -4718,7 +4659,7 @@
         <v>107</v>
       </c>
       <c r="I57" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>9.7013840235825932E-2</v>
       </c>
     </row>
@@ -4726,24 +4667,24 @@
       <c r="A58" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="52">
+      <c r="B58" s="50">
         <v>282</v>
       </c>
       <c r="C58" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>289.85855728429988</v>
       </c>
-      <c r="D58" s="78">
-        <f t="shared" ref="D58:D67" si="22">1-B58/C58</f>
+      <c r="D58" s="73">
+        <f t="shared" ref="D58:D67" si="32">1-B58/C58</f>
         <v>2.7111696676914154E-2</v>
       </c>
       <c r="E58" s="37"/>
-      <c r="F58" s="56" t="str">
+      <c r="F58" s="54" t="str">
         <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
         <v>input_data_to_find_tickets</v>
       </c>
       <c r="G58" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
       <c r="H58" s="23">
@@ -4751,7 +4692,7 @@
         <v>91</v>
       </c>
       <c r="I58" s="21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>-6.1752957085347671E-2</v>
       </c>
     </row>
@@ -4759,24 +4700,24 @@
       <c r="A59" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="50">
         <v>270</v>
       </c>
       <c r="C59" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>264.14427157001415</v>
       </c>
-      <c r="D59" s="78">
-        <f t="shared" si="22"/>
+      <c r="D59" s="73">
+        <f t="shared" si="32"/>
         <v>-2.2168674698795243E-2</v>
       </c>
       <c r="E59" s="37"/>
-      <c r="F59" s="56">
+      <c r="F59" s="54">
         <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G59" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
       <c r="H59" s="23" t="e">
@@ -4784,7 +4725,7 @@
         <v>#N/A</v>
       </c>
       <c r="I59" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4792,24 +4733,24 @@
       <c r="A60" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="52">
+      <c r="B60" s="50">
         <v>175</v>
       </c>
       <c r="C60" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>174.14427157001415</v>
       </c>
-      <c r="D60" s="78">
-        <f t="shared" si="22"/>
+      <c r="D60" s="73">
+        <f t="shared" si="32"/>
         <v>-4.9139051332032224E-3</v>
       </c>
       <c r="E60" s="37"/>
-      <c r="F60" s="56">
+      <c r="F60" s="54">
         <f>VLOOKUP(A60,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G60" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
       <c r="H60" s="23" t="e">
@@ -4817,7 +4758,7 @@
         <v>#N/A</v>
       </c>
       <c r="I60" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4825,24 +4766,24 @@
       <c r="A61" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="52">
+      <c r="B61" s="50">
         <v>280</v>
       </c>
       <c r="C61" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>277.00141442715699</v>
       </c>
-      <c r="D61" s="78">
-        <f t="shared" si="22"/>
+      <c r="D61" s="73">
+        <f t="shared" si="32"/>
         <v>-1.0825163398692883E-2</v>
       </c>
       <c r="E61" s="37"/>
-      <c r="F61" s="56">
+      <c r="F61" s="54">
         <f>VLOOKUP(A61,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G61" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>92.333804809052324</v>
       </c>
       <c r="H61" s="23" t="e">
@@ -4850,7 +4791,7 @@
         <v>#N/A</v>
       </c>
       <c r="I61" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4858,24 +4799,24 @@
       <c r="A62" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="50">
         <v>73</v>
       </c>
       <c r="C62" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>77.142857142857139</v>
       </c>
-      <c r="D62" s="78">
-        <f t="shared" si="22"/>
+      <c r="D62" s="73">
+        <f t="shared" si="32"/>
         <v>5.3703703703703698E-2</v>
       </c>
       <c r="E62" s="37"/>
-      <c r="F62" s="56">
+      <c r="F62" s="54">
         <f>VLOOKUP(A62,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G62" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
       <c r="H62" s="23" t="e">
@@ -4883,7 +4824,7 @@
         <v>#N/A</v>
       </c>
       <c r="I62" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4891,24 +4832,24 @@
       <c r="A63" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="52">
+      <c r="B63" s="50">
         <v>326</v>
       </c>
       <c r="C63" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>310</v>
       </c>
-      <c r="D63" s="78">
-        <f t="shared" si="22"/>
+      <c r="D63" s="73">
+        <f t="shared" si="32"/>
         <v>-5.1612903225806361E-2</v>
       </c>
       <c r="E63" s="37"/>
-      <c r="F63" s="56">
+      <c r="F63" s="54">
         <f>VLOOKUP(A63,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G63" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>103.33333333333333</v>
       </c>
       <c r="H63" s="23" t="e">
@@ -4916,7 +4857,7 @@
         <v>#N/A</v>
       </c>
       <c r="I63" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4924,29 +4865,29 @@
       <c r="A64" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="50">
         <v>97</v>
       </c>
       <c r="C64" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D64" s="78">
-        <f t="shared" si="22"/>
+      <c r="D64" s="73">
+        <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="E64" s="37"/>
-      <c r="F64" s="56">
+      <c r="F64" s="54">
         <f>VLOOKUP(A64,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G64" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4954,29 +4895,29 @@
       <c r="A65" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="52">
+      <c r="B65" s="50">
         <v>97</v>
       </c>
       <c r="C65" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D65" s="78">
-        <f t="shared" si="22"/>
+      <c r="D65" s="73">
+        <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="E65" s="37"/>
-      <c r="F65" s="56">
+      <c r="F65" s="54">
         <f>VLOOKUP(A65,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G65" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4984,29 +4925,29 @@
       <c r="A66" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="50">
         <v>97</v>
       </c>
       <c r="C66" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D66" s="78">
-        <f t="shared" si="22"/>
+      <c r="D66" s="73">
+        <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="E66" s="37"/>
-      <c r="F66" s="56">
+      <c r="F66" s="54">
         <f>VLOOKUP(A66,Соответствие!A:B,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G66" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="21" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5014,16 +4955,16 @@
       <c r="A67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="51">
         <f>SUM(B55:B66)</f>
         <v>2944</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="52">
         <f>SUM(C55:C66)</f>
         <v>2901.8670438472423</v>
       </c>
       <c r="D67" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>-1.4519257952252174E-2</v>
       </c>
     </row>
@@ -5077,96 +5018,96 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="str">
+      <c r="A2" s="54" t="str">
         <f>'Автоматизированный расчет'!A55</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="54" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="str">
+      <c r="A3" s="54" t="str">
         <f>'Автоматизированный расчет'!A56</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="str">
+      <c r="A4" s="54" t="str">
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="str">
+      <c r="A5" s="54" t="str">
         <f>'Автоматизированный расчет'!A58</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="str">
+      <c r="A6" s="54" t="str">
         <f>'Автоматизированный расчет'!A59</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="54"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="str">
+      <c r="A7" s="54" t="str">
         <f>'Автоматизированный расчет'!A60</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="54"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="str">
+      <c r="A8" s="54" t="str">
         <f>'Автоматизированный расчет'!A61</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="54"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="str">
+      <c r="A9" s="54" t="str">
         <f>'Автоматизированный расчет'!A62</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="54"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="str">
+      <c r="A10" s="54" t="str">
         <f>'Автоматизированный расчет'!A63</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="56"/>
+      <c r="B10" s="54"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="str">
+      <c r="A11" s="54" t="str">
         <f>'Автоматизированный расчет'!A64</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="56"/>
+      <c r="B11" s="54"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="str">
+      <c r="A12" s="54" t="str">
         <f>'Автоматизированный расчет'!A65</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="56"/>
+      <c r="B12" s="54"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="str">
+      <c r="A13" s="54" t="str">
         <f>'Автоматизированный расчет'!A66</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="56"/>
+      <c r="B13" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5187,642 +5128,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>1.9690000000000001</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="59">
         <v>3.1269999999999998</v>
       </c>
-      <c r="E2" s="61">
+      <c r="E2" s="59">
         <v>5.61</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="59">
         <v>0.82099999999999995</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="59">
         <v>4.2229999999999999</v>
       </c>
-      <c r="H2" s="61">
+      <c r="H2" s="59">
         <v>180</v>
       </c>
-      <c r="I2" s="61">
+      <c r="I2" s="59">
         <v>6</v>
       </c>
-      <c r="J2" s="61">
+      <c r="J2" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="59">
         <v>0.23300000000000001</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="59">
         <v>0.32300000000000001</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="59">
         <v>0.83299999999999996</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="59">
         <v>0.46100000000000002</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="59">
         <v>91</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="59">
         <v>0</v>
       </c>
-      <c r="J3" s="61">
+      <c r="J3" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <v>0.46</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="59">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="59">
         <v>1.5209999999999999</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="59">
         <v>0.20300000000000001</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="59">
         <v>1.083</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="59">
         <v>107</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="59">
         <v>0</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="59">
         <v>0.46600000000000003</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="59">
         <v>0.56399999999999995</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>0.90600000000000003</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="59">
         <v>0.121</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="59">
         <v>0.72099999999999997</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="59">
         <v>30</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="59">
         <v>0</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <v>0.46600000000000003</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="59">
         <v>0.66800000000000004</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="59">
         <v>1.5449999999999999</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="59">
         <v>0.21099999999999999</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="59">
         <v>0.98</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="59">
         <v>89</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="59">
         <v>0</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="59">
         <v>0.24</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="59">
         <v>0.29899999999999999</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="59">
         <v>0.46899999999999997</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="59">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="59">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="59">
         <v>31</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="59">
         <v>0</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="59">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>0.63</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="59">
         <v>1.1060000000000001</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="59">
         <v>0.156</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="59">
         <v>0.877</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="59">
         <v>186</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="59">
         <v>0</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="59">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D9" s="61">
+      <c r="D9" s="59">
         <v>0.33800000000000002</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="59">
         <v>0.60399999999999998</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="59">
         <v>0.1</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="59">
         <v>0.53100000000000003</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="59">
         <v>91</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="59">
         <v>6</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="59">
         <v>0.496</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="59">
         <v>0.81699999999999995</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="59">
         <v>1.631</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="59">
         <v>0.252</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="59">
         <v>1.1479999999999999</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="59">
         <v>156</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="59">
         <v>0</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="59">
         <v>0.57599999999999996</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="59">
         <v>0.92800000000000005</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="59">
         <v>0.12</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="59">
         <v>0.78300000000000003</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="59">
         <v>105</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="59">
         <v>0</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="59">
         <v>0.252</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="59">
         <v>0.34699999999999998</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="59">
         <v>0.54900000000000004</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="59">
         <v>0.08</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="59">
         <v>0.51500000000000001</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="59">
         <v>57</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="59">
         <v>0</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="59">
         <v>0.245</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="59">
         <v>0.27700000000000002</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="59">
         <v>0.58699999999999997</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="59">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="59">
         <v>0.29899999999999999</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="59">
         <v>30</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="59">
         <v>0</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="59">
         <v>0.34699999999999998</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="59">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="59">
         <v>0.68600000000000005</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="59">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="59">
         <v>0.57599999999999996</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="59">
         <v>23</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="59">
         <v>0</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J14" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="59">
         <v>1.9690000000000001</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="59">
         <v>2.3410000000000002</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="59">
         <v>3.45</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="59">
         <v>0.32</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="59">
         <v>2.806</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="59">
         <v>31</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="59">
         <v>0</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="59">
         <v>1.994</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="59">
         <v>2.5310000000000001</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="59">
         <v>3.798</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="59">
         <v>0.47199999999999998</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="59">
         <v>3.3660000000000001</v>
       </c>
-      <c r="H16" s="61">
+      <c r="H16" s="59">
         <v>25</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="59">
         <v>0</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="59">
         <v>2.3759999999999999</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="59">
         <v>2.8780000000000001</v>
       </c>
-      <c r="E17" s="61">
+      <c r="E17" s="59">
         <v>4.5129999999999999</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="59">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="59">
         <v>3.222</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="59">
         <v>23</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="59">
         <v>0</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="59">
         <v>2.3380000000000001</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="59">
         <v>3.0390000000000001</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="59">
         <v>4.7709999999999999</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="59">
         <v>0.57099999999999995</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18" s="59">
         <v>3.6869999999999998</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="59">
         <v>34</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="59">
         <v>6</v>
       </c>
-      <c r="J18" s="61">
+      <c r="J18" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="59">
         <v>3.012</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="59">
         <v>4.0720000000000001</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="59">
         <v>5.61</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="59">
         <v>0.45100000000000001</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="59">
         <v>4.633</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="59">
         <v>57</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="59">
         <v>0</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="59">
         <v>2.0299999999999998</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="59">
         <v>2.5419999999999998</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="59">
         <v>3.1019999999999999</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="59">
         <v>0.33400000000000002</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="59">
         <v>2.9420000000000002</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="59">
         <v>10</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="59">
         <v>0</v>
       </c>
-      <c r="J20" s="61">
+      <c r="J20" s="59">
         <v>0</v>
       </c>
     </row>
@@ -5858,13 +5799,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -6017,13 +5958,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="89" t="s">
+      <c r="E23" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -6183,13 +6124,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="89" t="s">
+      <c r="E35" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D0E58-0A82-47DE-8077-476F3AEBD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B0F63-DC76-4A99-8CEC-159C80AF054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -727,58 +727,88 @@
     <t>Jmeter, throughput per minute</t>
   </si>
   <si>
-    <t>choose_ticket</t>
-  </si>
-  <si>
     <t>go_to_flights</t>
   </si>
   <si>
-    <t>go_to_menu</t>
-  </si>
-  <si>
-    <t>go_to_my_tickets</t>
-  </si>
-  <si>
-    <t>go_to_registrating_menu</t>
-  </si>
-  <si>
-    <t>go_to_welcome_page</t>
-  </si>
-  <si>
     <t>input_data_to_find_tickets</t>
   </si>
   <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>registrating</t>
-  </si>
-  <si>
-    <t>removing_ticket</t>
-  </si>
-  <si>
-    <t>UC1_RegisterUser</t>
-  </si>
-  <si>
-    <t>UC2_CheckMyTickets</t>
-  </si>
-  <si>
-    <t>UC3_RemoveTicket</t>
-  </si>
-  <si>
-    <t>UC4_SearchTickets</t>
-  </si>
-  <si>
-    <t>UC5_BuyTicket</t>
-  </si>
-  <si>
-    <t>UC6_Login</t>
-  </si>
-  <si>
     <t>Названия строк</t>
   </si>
   <si>
     <t>Общий итог</t>
+  </si>
+  <si>
+    <t>2 660</t>
+  </si>
+  <si>
+    <t>BuyingTicket</t>
+  </si>
+  <si>
+    <t>DeleteTicket</t>
+  </si>
+  <si>
+    <t>Litinerary</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>2 187</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>OpenLandingPage</t>
+  </si>
+  <si>
+    <t>2 704</t>
+  </si>
+  <si>
+    <t>OpenPage_FindFlight</t>
+  </si>
+  <si>
+    <t>1 052</t>
+  </si>
+  <si>
+    <t>OpenPage_FindFlights</t>
+  </si>
+  <si>
+    <t>OpenRegistrationPage</t>
+  </si>
+  <si>
+    <t>press continue</t>
+  </si>
+  <si>
+    <t>SignOff</t>
+  </si>
+  <si>
+    <t>1 500</t>
+  </si>
+  <si>
+    <t>SubmitFlight</t>
+  </si>
+  <si>
+    <t>1 518</t>
+  </si>
+  <si>
+    <t>UC1_LoginLogout</t>
+  </si>
+  <si>
+    <t>UC2_SearchTicket</t>
+  </si>
+  <si>
+    <t>UC3_BuyingTicket</t>
+  </si>
+  <si>
+    <t>UC4_ViewTicketList</t>
+  </si>
+  <si>
+    <t>UC5_DeleteTicket</t>
+  </si>
+  <si>
+    <t>UC7_RandomUserRegistrtion</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1943,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2059,6 +2089,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2074,8 +2106,10 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2986,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,9 +3031,9 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
@@ -3040,7 +3074,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -3143,10 +3177,10 @@
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="96">
+      <c r="U2" s="91">
         <v>20</v>
       </c>
-      <c r="V2" s="97">
+      <c r="V2" s="92">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
@@ -3226,10 +3260,10 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="96">
+      <c r="U3" s="91">
         <v>20</v>
       </c>
-      <c r="V3" s="97">
+      <c r="V3" s="92">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
@@ -3306,10 +3340,10 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="96">
+      <c r="U4" s="91">
         <v>20</v>
       </c>
-      <c r="V4" s="97">
+      <c r="V4" s="92">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
@@ -3386,10 +3420,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="96">
+      <c r="U5" s="91">
         <v>20</v>
       </c>
-      <c r="V5" s="97">
+      <c r="V5" s="92">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
@@ -3466,10 +3500,10 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="96">
+      <c r="U6" s="91">
         <v>20</v>
       </c>
-      <c r="V6" s="97">
+      <c r="V6" s="92">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
@@ -3546,10 +3580,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="96">
+      <c r="U7" s="91">
         <v>20</v>
       </c>
-      <c r="V7" s="97">
+      <c r="V7" s="92">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
@@ -3833,7 +3867,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="J14" s="17">
         <v>967.28901461574731</v>
@@ -4528,14 +4562,14 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93" t="s">
+      <c r="B53" s="94"/>
+      <c r="C53" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="94"/>
+      <c r="D53" s="96"/>
     </row>
     <row r="54" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
@@ -4621,13 +4655,13 @@
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="23" t="str">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
-        <v>156</v>
-      </c>
-      <c r="I56" s="21">
+        <v>2 187</v>
+      </c>
+      <c r="I56" s="21" t="e">
         <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
-        <v>0.12423385195662429</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4654,13 +4688,13 @@
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="23" t="e">
         <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
-        <v>107</v>
-      </c>
-      <c r="I57" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="I57" s="21" t="e">
         <f t="shared" si="30"/>
-        <v>9.7013840235825932E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4687,13 +4721,13 @@
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="23" t="e">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
-        <v>91</v>
-      </c>
-      <c r="I58" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="I58" s="21" t="e">
         <f t="shared" si="30"/>
-        <v>-6.1752957085347671E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -5041,7 +5075,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5050,7 +5084,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5118,13 +5152,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5163,607 +5202,607 @@
       <c r="A2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="59">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="D2" s="59">
-        <v>3.1269999999999998</v>
-      </c>
-      <c r="E2" s="59">
-        <v>5.61</v>
-      </c>
-      <c r="F2" s="59">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="G2" s="59">
-        <v>4.2229999999999999</v>
-      </c>
-      <c r="H2" s="59">
-        <v>180</v>
-      </c>
-      <c r="I2" s="59">
-        <v>6</v>
-      </c>
-      <c r="J2" s="59">
+      <c r="B2" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="99">
+        <v>10.308999999999999</v>
+      </c>
+      <c r="D2" s="99">
+        <v>39.707000000000001</v>
+      </c>
+      <c r="E2" s="99">
+        <v>121.568</v>
+      </c>
+      <c r="F2" s="99">
+        <v>26.754000000000001</v>
+      </c>
+      <c r="G2" s="99">
+        <v>80.39</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="99">
+        <v>11</v>
+      </c>
+      <c r="J2" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="59">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D3" s="59">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="E3" s="59">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="F3" s="59">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G3" s="59">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="H3" s="59">
-        <v>91</v>
-      </c>
-      <c r="I3" s="59">
+      <c r="C3" s="99">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D3" s="99">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="E3" s="99">
+        <v>8.9960000000000004</v>
+      </c>
+      <c r="F3" s="99">
+        <v>2.65</v>
+      </c>
+      <c r="G3" s="99">
+        <v>6.1580000000000004</v>
+      </c>
+      <c r="H3" s="99">
+        <v>907</v>
+      </c>
+      <c r="I3" s="99">
         <v>0</v>
       </c>
-      <c r="J3" s="59">
+      <c r="J3" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="59">
-        <v>0.46</v>
-      </c>
-      <c r="D4" s="59">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="E4" s="59">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="F4" s="59">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="G4" s="59">
-        <v>1.083</v>
-      </c>
-      <c r="H4" s="59">
-        <v>107</v>
-      </c>
-      <c r="I4" s="59">
+      <c r="C4" s="99">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D4" s="99">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E4" s="99">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="F4" s="99">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="G4" s="99">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H4" s="99">
+        <v>427</v>
+      </c>
+      <c r="I4" s="99">
         <v>0</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="59">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D5" s="59">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="E5" s="59">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="F5" s="59">
-        <v>0.121</v>
-      </c>
-      <c r="G5" s="59">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="H5" s="59">
-        <v>30</v>
-      </c>
-      <c r="I5" s="59">
+      <c r="C5" s="99">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="99">
+        <v>2.0369999999999999</v>
+      </c>
+      <c r="E5" s="99">
+        <v>17.779</v>
+      </c>
+      <c r="F5" s="99">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="G5" s="99">
+        <v>6.633</v>
+      </c>
+      <c r="H5" s="99">
+        <v>569</v>
+      </c>
+      <c r="I5" s="99">
         <v>0</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="59">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="D6" s="59">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="E6" s="59">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="F6" s="59">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="G6" s="59">
-        <v>0.98</v>
-      </c>
-      <c r="H6" s="59">
-        <v>89</v>
-      </c>
-      <c r="I6" s="59">
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
+      <c r="C6" s="99">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D6" s="99">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="E6" s="99">
+        <v>22.98</v>
+      </c>
+      <c r="F6" s="99">
+        <v>6.0119999999999996</v>
+      </c>
+      <c r="G6" s="99">
+        <v>13.557</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="99">
+        <v>2</v>
+      </c>
+      <c r="J6" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="59">
-        <v>0.24</v>
-      </c>
-      <c r="D7" s="59">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="E7" s="59">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="F7" s="59">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="G7" s="59">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="H7" s="59">
-        <v>31</v>
-      </c>
-      <c r="I7" s="59">
+      <c r="C7" s="99">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D7" s="99">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="E7" s="99">
+        <v>15.465</v>
+      </c>
+      <c r="F7" s="99">
+        <v>4.7839999999999998</v>
+      </c>
+      <c r="G7" s="99">
+        <v>11.862</v>
+      </c>
+      <c r="H7" s="99">
+        <v>650</v>
+      </c>
+      <c r="I7" s="99">
         <v>0</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="59">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="D8" s="59">
-        <v>0.63</v>
-      </c>
-      <c r="E8" s="59">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="F8" s="59">
-        <v>0.156</v>
-      </c>
-      <c r="G8" s="59">
-        <v>0.877</v>
-      </c>
-      <c r="H8" s="59">
-        <v>186</v>
-      </c>
-      <c r="I8" s="59">
-        <v>0</v>
-      </c>
-      <c r="J8" s="59">
+      <c r="C8" s="99">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D8" s="99">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="E8" s="99">
+        <v>38.386000000000003</v>
+      </c>
+      <c r="F8" s="99">
+        <v>8.8919999999999995</v>
+      </c>
+      <c r="G8" s="99">
+        <v>20.939</v>
+      </c>
+      <c r="H8" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="99">
+        <v>2</v>
+      </c>
+      <c r="J8" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="59">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D9" s="59">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E9" s="59">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F9" s="59">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="59">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="H9" s="59">
-        <v>91</v>
-      </c>
-      <c r="I9" s="59">
-        <v>6</v>
-      </c>
-      <c r="J9" s="59">
+      <c r="C9" s="99">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D9" s="99">
+        <v>3.8980000000000001</v>
+      </c>
+      <c r="E9" s="99">
+        <v>23.033000000000001</v>
+      </c>
+      <c r="F9" s="99">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="G9" s="99">
+        <v>13.621</v>
+      </c>
+      <c r="H9" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="99">
+        <v>2</v>
+      </c>
+      <c r="J9" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="59">
-        <v>0.496</v>
-      </c>
-      <c r="D10" s="59">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="E10" s="59">
-        <v>1.631</v>
-      </c>
-      <c r="F10" s="59">
-        <v>0.252</v>
-      </c>
-      <c r="G10" s="59">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="H10" s="59">
-        <v>156</v>
-      </c>
-      <c r="I10" s="59">
+      <c r="C10" s="99">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D10" s="99">
+        <v>6.1139999999999999</v>
+      </c>
+      <c r="E10" s="99">
+        <v>23.097999999999999</v>
+      </c>
+      <c r="F10" s="99">
+        <v>8.0419999999999998</v>
+      </c>
+      <c r="G10" s="99">
+        <v>19.14</v>
+      </c>
+      <c r="H10" s="99">
+        <v>471</v>
+      </c>
+      <c r="I10" s="99">
         <v>0</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="59">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="D11" s="59">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E11" s="59">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="F11" s="59">
-        <v>0.12</v>
-      </c>
-      <c r="G11" s="59">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="H11" s="59">
-        <v>105</v>
-      </c>
-      <c r="I11" s="59">
+      <c r="C11" s="99">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D11" s="99">
+        <v>0.189</v>
+      </c>
+      <c r="E11" s="99">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="F11" s="99">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="G11" s="99">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H11" s="99">
+        <v>503</v>
+      </c>
+      <c r="I11" s="99">
         <v>0</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="59">
-        <v>0.252</v>
-      </c>
-      <c r="D12" s="59">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="E12" s="59">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="F12" s="59">
-        <v>0.08</v>
-      </c>
-      <c r="G12" s="59">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="H12" s="59">
-        <v>57</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="C12" s="99">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D12" s="99">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="E12" s="99">
+        <v>16.645</v>
+      </c>
+      <c r="F12" s="99">
+        <v>5.3070000000000004</v>
+      </c>
+      <c r="G12" s="99">
+        <v>12.878</v>
+      </c>
+      <c r="H12" s="99">
+        <v>499</v>
+      </c>
+      <c r="I12" s="99">
         <v>0</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="59">
-        <v>0.245</v>
-      </c>
-      <c r="D13" s="59">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="E13" s="59">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="F13" s="59">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G13" s="59">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H13" s="59">
-        <v>30</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="C13" s="99">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D13" s="99">
+        <v>1.054</v>
+      </c>
+      <c r="E13" s="99">
+        <v>16.196000000000002</v>
+      </c>
+      <c r="F13" s="99">
+        <v>2.36</v>
+      </c>
+      <c r="G13" s="99">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="H13" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="99">
         <v>0</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="59">
-        <v>0.34699999999999998</v>
-      </c>
-      <c r="D14" s="59">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E14" s="59">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F14" s="59">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="G14" s="59">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="H14" s="59">
-        <v>23</v>
-      </c>
-      <c r="I14" s="59">
+      <c r="C14" s="99">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D14" s="99">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E14" s="99">
+        <v>8.9529999999999994</v>
+      </c>
+      <c r="F14" s="99">
+        <v>2.2440000000000002</v>
+      </c>
+      <c r="G14" s="99">
+        <v>4.5949999999999998</v>
+      </c>
+      <c r="H14" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="99">
         <v>0</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="59">
-        <v>1.9690000000000001</v>
-      </c>
-      <c r="D15" s="59">
-        <v>2.3410000000000002</v>
-      </c>
-      <c r="E15" s="59">
-        <v>3.45</v>
-      </c>
-      <c r="F15" s="59">
-        <v>0.32</v>
-      </c>
-      <c r="G15" s="59">
-        <v>2.806</v>
-      </c>
-      <c r="H15" s="59">
-        <v>31</v>
-      </c>
-      <c r="I15" s="59">
-        <v>0</v>
-      </c>
-      <c r="J15" s="59">
+        <v>106</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="99">
+        <v>10.308999999999999</v>
+      </c>
+      <c r="D15" s="99">
+        <v>26.855</v>
+      </c>
+      <c r="E15" s="99">
+        <v>74.361000000000004</v>
+      </c>
+      <c r="F15" s="99">
+        <v>18.050999999999998</v>
+      </c>
+      <c r="G15" s="99">
+        <v>53.795999999999999</v>
+      </c>
+      <c r="H15" s="99">
+        <v>650</v>
+      </c>
+      <c r="I15" s="99">
+        <v>2</v>
+      </c>
+      <c r="J15" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="59">
-        <v>1.994</v>
-      </c>
-      <c r="D16" s="59">
-        <v>2.5310000000000001</v>
-      </c>
-      <c r="E16" s="59">
-        <v>3.798</v>
-      </c>
-      <c r="F16" s="59">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="G16" s="59">
-        <v>3.3660000000000001</v>
-      </c>
-      <c r="H16" s="59">
-        <v>25</v>
-      </c>
-      <c r="I16" s="59">
-        <v>0</v>
-      </c>
-      <c r="J16" s="59">
+        <v>107</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="99">
+        <v>25.381</v>
+      </c>
+      <c r="D16" s="99">
+        <v>47.576000000000001</v>
+      </c>
+      <c r="E16" s="99">
+        <v>97.665999999999997</v>
+      </c>
+      <c r="F16" s="99">
+        <v>28.506</v>
+      </c>
+      <c r="G16" s="99">
+        <v>93.084000000000003</v>
+      </c>
+      <c r="H16" s="99">
+        <v>469</v>
+      </c>
+      <c r="I16" s="99">
+        <v>1</v>
+      </c>
+      <c r="J16" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="59">
-        <v>2.3759999999999999</v>
-      </c>
-      <c r="D17" s="59">
-        <v>2.8780000000000001</v>
-      </c>
-      <c r="E17" s="59">
-        <v>4.5129999999999999</v>
-      </c>
-      <c r="F17" s="59">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="G17" s="59">
-        <v>3.222</v>
-      </c>
-      <c r="H17" s="59">
-        <v>23</v>
-      </c>
-      <c r="I17" s="59">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59">
+        <v>108</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="99">
+        <v>30.494</v>
+      </c>
+      <c r="D17" s="99">
+        <v>59.384</v>
+      </c>
+      <c r="E17" s="99">
+        <v>121.568</v>
+      </c>
+      <c r="F17" s="99">
+        <v>35.664999999999999</v>
+      </c>
+      <c r="G17" s="99">
+        <v>117.423</v>
+      </c>
+      <c r="H17" s="99">
+        <v>370</v>
+      </c>
+      <c r="I17" s="99">
+        <v>1</v>
+      </c>
+      <c r="J17" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="59">
-        <v>2.3380000000000001</v>
-      </c>
-      <c r="D18" s="59">
-        <v>3.0390000000000001</v>
-      </c>
-      <c r="E18" s="59">
-        <v>4.7709999999999999</v>
-      </c>
-      <c r="F18" s="59">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="G18" s="59">
-        <v>3.6869999999999998</v>
-      </c>
-      <c r="H18" s="59">
-        <v>34</v>
-      </c>
-      <c r="I18" s="59">
-        <v>6</v>
-      </c>
-      <c r="J18" s="59">
+        <v>109</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="99">
+        <v>28.556000000000001</v>
+      </c>
+      <c r="D18" s="99">
+        <v>46.448999999999998</v>
+      </c>
+      <c r="E18" s="99">
+        <v>92.231999999999999</v>
+      </c>
+      <c r="F18" s="99">
+        <v>22.013999999999999</v>
+      </c>
+      <c r="G18" s="99">
+        <v>81.918999999999997</v>
+      </c>
+      <c r="H18" s="99">
+        <v>534</v>
+      </c>
+      <c r="I18" s="99">
+        <v>3</v>
+      </c>
+      <c r="J18" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="59">
-        <v>3.012</v>
-      </c>
-      <c r="D19" s="59">
-        <v>4.0720000000000001</v>
-      </c>
-      <c r="E19" s="59">
-        <v>5.61</v>
-      </c>
-      <c r="F19" s="59">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="G19" s="59">
-        <v>4.633</v>
-      </c>
-      <c r="H19" s="59">
-        <v>57</v>
-      </c>
-      <c r="I19" s="59">
-        <v>0</v>
-      </c>
-      <c r="J19" s="59">
+        <v>110</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="99">
+        <v>20.91</v>
+      </c>
+      <c r="D19" s="99">
+        <v>41.601999999999997</v>
+      </c>
+      <c r="E19" s="99">
+        <v>92.021000000000001</v>
+      </c>
+      <c r="F19" s="99">
+        <v>27.119</v>
+      </c>
+      <c r="G19" s="99">
+        <v>86.164000000000001</v>
+      </c>
+      <c r="H19" s="99">
+        <v>140</v>
+      </c>
+      <c r="I19" s="99">
+        <v>1</v>
+      </c>
+      <c r="J19" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="59">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="D20" s="59">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="E20" s="59">
-        <v>3.1019999999999999</v>
-      </c>
-      <c r="F20" s="59">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="G20" s="59">
-        <v>2.9420000000000002</v>
-      </c>
-      <c r="H20" s="59">
-        <v>10</v>
-      </c>
-      <c r="I20" s="59">
-        <v>0</v>
-      </c>
-      <c r="J20" s="59">
+        <v>111</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="99">
+        <v>16.37</v>
+      </c>
+      <c r="D20" s="99">
+        <v>26.646000000000001</v>
+      </c>
+      <c r="E20" s="99">
+        <v>60.991</v>
+      </c>
+      <c r="F20" s="99">
+        <v>13.395</v>
+      </c>
+      <c r="G20" s="99">
+        <v>48.462000000000003</v>
+      </c>
+      <c r="H20" s="99">
+        <v>497</v>
+      </c>
+      <c r="I20" s="99">
+        <v>3</v>
+      </c>
+      <c r="J20" s="99">
         <v>0</v>
       </c>
     </row>
@@ -5799,13 +5838,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5958,13 +5997,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -6124,13 +6163,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B0F63-DC76-4A99-8CEC-159C80AF054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC26CDA-EC72-4790-94F2-13713FC4A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="105">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -691,9 +691,6 @@
     <t>Имя в скрипте</t>
   </si>
   <si>
-    <t>open_home_page</t>
-  </si>
-  <si>
     <t>SLA Status</t>
   </si>
   <si>
@@ -727,72 +724,39 @@
     <t>Jmeter, throughput per minute</t>
   </si>
   <si>
-    <t>go_to_flights</t>
-  </si>
-  <si>
-    <t>input_data_to_find_tickets</t>
-  </si>
-  <si>
     <t>Названия строк</t>
   </si>
   <si>
     <t>Общий итог</t>
   </si>
   <si>
-    <t>2 660</t>
-  </si>
-  <si>
     <t>BuyingTicket</t>
   </si>
   <si>
     <t>DeleteTicket</t>
   </si>
   <si>
-    <t>Litinerary</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>2 187</t>
-  </si>
-  <si>
     <t>Logout</t>
   </si>
   <si>
     <t>OpenLandingPage</t>
   </si>
   <si>
-    <t>2 704</t>
-  </si>
-  <si>
     <t>OpenPage_FindFlight</t>
   </si>
   <si>
-    <t>1 052</t>
-  </si>
-  <si>
-    <t>OpenPage_FindFlights</t>
-  </si>
-  <si>
     <t>OpenRegistrationPage</t>
   </si>
   <si>
     <t>press continue</t>
   </si>
   <si>
-    <t>SignOff</t>
-  </si>
-  <si>
-    <t>1 500</t>
-  </si>
-  <si>
     <t>SubmitFlight</t>
   </si>
   <si>
-    <t>1 518</t>
-  </si>
-  <si>
     <t>UC1_LoginLogout</t>
   </si>
   <si>
@@ -809,6 +773,21 @@
   </si>
   <si>
     <t>UC7_RandomUserRegistrtion</t>
+  </si>
+  <si>
+    <t>СhooseDepartureTime</t>
+  </si>
+  <si>
+    <t>UserRegistered</t>
+  </si>
+  <si>
+    <t>ViewTicketList</t>
+  </si>
+  <si>
+    <t>vuser_end_Transaction</t>
+  </si>
+  <si>
+    <t>vuser_init_Transaction</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1922,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2091,6 +2070,7 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2104,10 +2084,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3020,8 +2996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3074,7 +3050,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -3089,7 +3065,7 @@
         <v>43</v>
       </c>
       <c r="P1" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="39" t="s">
         <v>44</v>
@@ -3101,7 +3077,7 @@
         <v>47</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U1" s="47" t="s">
         <v>45</v>
@@ -3867,7 +3843,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J14" s="17">
         <v>967.28901461574731</v>
@@ -4562,16 +4538,16 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="96"/>
-    </row>
-    <row r="54" spans="1:9" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="95"/>
+      <c r="C53" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="97"/>
+    </row>
+    <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>68</v>
       </c>
@@ -4586,7 +4562,7 @@
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>53</v>
@@ -4616,19 +4592,19 @@
       <c r="E55" s="37"/>
       <c r="F55" s="54" t="str">
         <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
-        <v>open_home_page</v>
+        <v>OpenLandingPage</v>
       </c>
       <c r="G55" s="33">
         <f>C55/3</f>
         <v>169.95285242809996</v>
       </c>
-      <c r="H55" s="23" t="e">
-        <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I55" s="21" t="e">
+      <c r="H55" s="23">
+        <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F55,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>171</v>
+      </c>
+      <c r="I55" s="21">
         <f>1-G55/H55</f>
-        <v>#N/A</v>
+        <v>6.1236700111113596E-3</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4649,19 +4625,19 @@
       <c r="E56" s="37"/>
       <c r="F56" s="54" t="str">
         <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
-        <v>login</v>
+        <v>Login</v>
       </c>
       <c r="G56" s="33">
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="23" t="str">
-        <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
-        <v>2 187</v>
-      </c>
-      <c r="I56" s="21" t="e">
+      <c r="H56" s="23">
+        <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F56,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>137.69999999999999</v>
+      </c>
+      <c r="I56" s="21">
         <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
-        <v>#VALUE!</v>
+        <v>7.8466296676352743E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4682,19 +4658,19 @@
       <c r="E57" s="37"/>
       <c r="F57" s="54" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
-        <v>go_to_flights</v>
+        <v>OpenPage_FindFlight</v>
       </c>
       <c r="G57" s="33">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="23" t="e">
-        <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I57" s="21" t="e">
+      <c r="H57" s="23">
+        <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F57,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>99</v>
+      </c>
+      <c r="I57" s="21">
         <f t="shared" si="30"/>
-        <v>#N/A</v>
+        <v>2.4045261669023987E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4715,19 +4691,19 @@
       <c r="E58" s="37"/>
       <c r="F58" s="54" t="str">
         <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
-        <v>input_data_to_find_tickets</v>
+        <v>SubmitFlight</v>
       </c>
       <c r="G58" s="33">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="23" t="e">
-        <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I58" s="21" t="e">
+      <c r="H58" s="23">
+        <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F58,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>99</v>
+      </c>
+      <c r="I58" s="21">
         <f t="shared" si="30"/>
-        <v>#N/A</v>
+        <v>2.4045261669023987E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4746,21 +4722,21 @@
         <v>-2.2168674698795243E-2</v>
       </c>
       <c r="E59" s="37"/>
-      <c r="F59" s="54">
+      <c r="F59" s="54" t="str">
         <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>СhooseDepartureTime</v>
       </c>
       <c r="G59" s="33">
         <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
-      <c r="H59" s="23" t="e">
-        <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" s="21" t="e">
+      <c r="H59" s="23">
+        <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F59,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>90</v>
+      </c>
+      <c r="I59" s="21">
         <f t="shared" si="30"/>
-        <v>#N/A</v>
+        <v>2.1687883074021697E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4779,21 +4755,21 @@
         <v>-4.9139051332032224E-3</v>
       </c>
       <c r="E60" s="37"/>
-      <c r="F60" s="54">
+      <c r="F60" s="54" t="str">
         <f>VLOOKUP(A60,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>BuyingTicket</v>
       </c>
       <c r="G60" s="33">
         <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
-      <c r="H60" s="23" t="e">
-        <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I60" s="21" t="e">
+      <c r="H60" s="23">
+        <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F60,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>59.4</v>
+      </c>
+      <c r="I60" s="21">
         <f t="shared" si="30"/>
-        <v>#N/A</v>
+        <v>2.2759418799022657E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4812,21 +4788,21 @@
         <v>-1.0825163398692883E-2</v>
       </c>
       <c r="E61" s="37"/>
-      <c r="F61" s="54">
+      <c r="F61" s="54" t="str">
         <f>VLOOKUP(A61,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>ViewTicketList</v>
       </c>
       <c r="G61" s="33">
-        <f t="shared" si="29"/>
+        <f>C61/3</f>
         <v>92.333804809052324</v>
       </c>
-      <c r="H61" s="23" t="e">
-        <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I61" s="21" t="e">
+      <c r="H61" s="23">
+        <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F61,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>95.4</v>
+      </c>
+      <c r="I61" s="21">
         <f t="shared" si="30"/>
-        <v>#N/A</v>
+        <v>3.2140410806579478E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4845,21 +4821,21 @@
         <v>5.3703703703703698E-2</v>
       </c>
       <c r="E62" s="37"/>
-      <c r="F62" s="54">
+      <c r="F62" s="54" t="str">
         <f>VLOOKUP(A62,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>DeleteTicket</v>
       </c>
       <c r="G62" s="33">
         <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="H62" s="23" t="e">
-        <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I62" s="21" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
+      <c r="H62" s="23">
+        <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F62,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>27</v>
+      </c>
+      <c r="I62" s="21">
+        <f>1-G62/H62</f>
+        <v>4.7619047619047672E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4878,21 +4854,21 @@
         <v>-5.1612903225806361E-2</v>
       </c>
       <c r="E63" s="37"/>
-      <c r="F63" s="54">
+      <c r="F63" s="54" t="str">
         <f>VLOOKUP(A63,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>Logout</v>
       </c>
       <c r="G63" s="33">
-        <f t="shared" si="29"/>
+        <f>C63/3</f>
         <v>103.33333333333333</v>
       </c>
-      <c r="H63" s="23" t="e">
-        <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I63" s="21" t="e">
+      <c r="H63" s="23">
+        <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F63,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>102.6</v>
+      </c>
+      <c r="I63" s="21">
         <f t="shared" si="30"/>
-        <v>#N/A</v>
+        <v>-7.1474983755686061E-3</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4911,18 +4887,21 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="E64" s="37"/>
-      <c r="F64" s="54">
+      <c r="F64" s="54" t="str">
         <f>VLOOKUP(A64,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>OpenRegistrationPage</v>
       </c>
       <c r="G64" s="33">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="21" t="e">
+      <c r="H64" s="23">
+        <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F64,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I64" s="21">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>-1.0010010010010895E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4941,18 +4920,21 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="E65" s="37"/>
-      <c r="F65" s="54">
+      <c r="F65" s="54" t="str">
         <f>VLOOKUP(A65,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>UserRegistered</v>
       </c>
       <c r="G65" s="33">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="21" t="e">
+      <c r="H65" s="23">
+        <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F65,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I65" s="21">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>-1.0010010010010895E-3</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4971,18 +4953,21 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="E66" s="37"/>
-      <c r="F66" s="54">
+      <c r="F66" s="54" t="str">
         <f>VLOOKUP(A66,Соответствие!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>press continue</v>
       </c>
       <c r="G66" s="33">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="21" t="e">
+      <c r="H66" s="23">
+        <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F66,SummaryReport!A:J,8,FALSE))/10)</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I66" s="21">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>-1.0010010010010895E-3</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5034,7 +5019,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5057,7 +5042,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5066,7 +5051,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5074,8 +5059,8 @@
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>84</v>
+      <c r="B4" s="93" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5084,7 +5069,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5092,56 +5077,72 @@
         <f>'Автоматизированный расчет'!A59</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="54" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="str">
         <f>'Автоматизированный расчет'!A60</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="54" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="str">
         <f>'Автоматизированный расчет'!A61</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="str">
         <f>'Автоматизированный расчет'!A62</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="54" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="str">
         <f>'Автоматизированный расчет'!A63</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="54" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="str">
         <f>'Автоматизированный расчет'!A64</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="str">
         <f>'Автоматизированный расчет'!A65</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="str">
         <f>'Автоматизированный расчет'!A66</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5150,10 +5151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5164,29 +5165,30 @@
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F1" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="59" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="59" t="s">
         <v>28</v>
@@ -5198,615 +5200,625 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="E2">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="H2">
+        <v>190</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="59"/>
+      <c r="V2" s="59"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.04</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H3">
+        <v>66</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H5">
+        <v>153</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F6">
+        <v>1E-3</v>
+      </c>
+      <c r="G6">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H6">
+        <v>114</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.105</v>
+      </c>
+      <c r="E7">
+        <v>0.216</v>
+      </c>
+      <c r="F7">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H7">
+        <v>190</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.11</v>
+      </c>
+      <c r="E8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.112</v>
+      </c>
+      <c r="H8">
+        <v>110</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H10">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.04</v>
+      </c>
+      <c r="F11">
+        <v>1E-3</v>
+      </c>
+      <c r="G11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H11">
+        <v>110</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.307</v>
+      </c>
+      <c r="E12">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.315</v>
+      </c>
+      <c r="H12">
+        <v>43</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D13">
+        <v>0.377</v>
+      </c>
+      <c r="E13">
+        <v>0.438</v>
+      </c>
+      <c r="F13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H13">
+        <v>34</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D14">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="F14">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.7</v>
+      </c>
+      <c r="H14">
         <v>28</v>
       </c>
-      <c r="C2" s="99">
-        <v>10.308999999999999</v>
-      </c>
-      <c r="D2" s="99">
-        <v>39.707000000000001</v>
-      </c>
-      <c r="E2" s="99">
-        <v>121.568</v>
-      </c>
-      <c r="F2" s="99">
-        <v>26.754000000000001</v>
-      </c>
-      <c r="G2" s="99">
-        <v>80.39</v>
-      </c>
-      <c r="H2" s="99" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="99">
-        <v>11</v>
-      </c>
-      <c r="J2" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="99">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E15">
+        <v>0.51</v>
+      </c>
+      <c r="F15">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G15">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H15">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D16">
+        <v>2.5270000000000001</v>
+      </c>
+      <c r="E16">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="F16">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="G16">
+        <v>3.661</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17">
+        <v>0.36</v>
+      </c>
+      <c r="D17">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G17">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H17">
+        <v>37</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>0.03</v>
+      </c>
+      <c r="D18">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F18">
+        <v>1E-3</v>
+      </c>
+      <c r="G18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H18">
+        <v>37</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.156</v>
+      </c>
+      <c r="E19">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F19">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H19">
+        <v>106</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D3" s="99">
-        <v>2.1720000000000002</v>
-      </c>
-      <c r="E3" s="99">
-        <v>8.9960000000000004</v>
-      </c>
-      <c r="F3" s="99">
-        <v>2.65</v>
-      </c>
-      <c r="G3" s="99">
-        <v>6.1580000000000004</v>
-      </c>
-      <c r="H3" s="99">
-        <v>907</v>
-      </c>
-      <c r="I3" s="99">
-        <v>0</v>
-      </c>
-      <c r="J3" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="99">
+      <c r="D22">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D4" s="99">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="E4" s="99">
-        <v>5.8239999999999998</v>
-      </c>
-      <c r="F4" s="99">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="G4" s="99">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H4" s="99">
-        <v>427</v>
-      </c>
-      <c r="I4" s="99">
-        <v>0</v>
-      </c>
-      <c r="J4" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="99">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="D5" s="99">
-        <v>2.0369999999999999</v>
-      </c>
-      <c r="E5" s="99">
-        <v>17.779</v>
-      </c>
-      <c r="F5" s="99">
-        <v>3.0369999999999999</v>
-      </c>
-      <c r="G5" s="99">
-        <v>6.633</v>
-      </c>
-      <c r="H5" s="99">
-        <v>569</v>
-      </c>
-      <c r="I5" s="99">
-        <v>0</v>
-      </c>
-      <c r="J5" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="99">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D6" s="99">
-        <v>4.5789999999999997</v>
-      </c>
-      <c r="E6" s="99">
-        <v>22.98</v>
-      </c>
-      <c r="F6" s="99">
-        <v>6.0119999999999996</v>
-      </c>
-      <c r="G6" s="99">
-        <v>13.557</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="99">
-        <v>2</v>
-      </c>
-      <c r="J6" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="99">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D7" s="99">
-        <v>4.3209999999999997</v>
-      </c>
-      <c r="E7" s="99">
-        <v>15.465</v>
-      </c>
-      <c r="F7" s="99">
-        <v>4.7839999999999998</v>
-      </c>
-      <c r="G7" s="99">
-        <v>11.862</v>
-      </c>
-      <c r="H7" s="99">
-        <v>650</v>
-      </c>
-      <c r="I7" s="99">
-        <v>0</v>
-      </c>
-      <c r="J7" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="99">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D8" s="99">
-        <v>6.8760000000000003</v>
-      </c>
-      <c r="E8" s="99">
-        <v>38.386000000000003</v>
-      </c>
-      <c r="F8" s="99">
-        <v>8.8919999999999995</v>
-      </c>
-      <c r="G8" s="99">
-        <v>20.939</v>
-      </c>
-      <c r="H8" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="99">
-        <v>2</v>
-      </c>
-      <c r="J8" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="99">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D9" s="99">
-        <v>3.8980000000000001</v>
-      </c>
-      <c r="E9" s="99">
-        <v>23.033000000000001</v>
-      </c>
-      <c r="F9" s="99">
-        <v>6.2140000000000004</v>
-      </c>
-      <c r="G9" s="99">
-        <v>13.621</v>
-      </c>
-      <c r="H9" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="99">
-        <v>2</v>
-      </c>
-      <c r="J9" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="99">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="D10" s="99">
-        <v>6.1139999999999999</v>
-      </c>
-      <c r="E10" s="99">
-        <v>23.097999999999999</v>
-      </c>
-      <c r="F10" s="99">
-        <v>8.0419999999999998</v>
-      </c>
-      <c r="G10" s="99">
-        <v>19.14</v>
-      </c>
-      <c r="H10" s="99">
-        <v>471</v>
-      </c>
-      <c r="I10" s="99">
-        <v>0</v>
-      </c>
-      <c r="J10" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22">
+        <v>1E-3</v>
+      </c>
+      <c r="G22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H22">
         <v>100</v>
       </c>
-      <c r="B11" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="99">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D11" s="99">
-        <v>0.189</v>
-      </c>
-      <c r="E11" s="99">
-        <v>7.5990000000000002</v>
-      </c>
-      <c r="F11" s="99">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="G11" s="99">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H11" s="99">
-        <v>503</v>
-      </c>
-      <c r="I11" s="99">
-        <v>0</v>
-      </c>
-      <c r="J11" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="99">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D12" s="99">
-        <v>4.0069999999999997</v>
-      </c>
-      <c r="E12" s="99">
-        <v>16.645</v>
-      </c>
-      <c r="F12" s="99">
-        <v>5.3070000000000004</v>
-      </c>
-      <c r="G12" s="99">
-        <v>12.878</v>
-      </c>
-      <c r="H12" s="99">
-        <v>499</v>
-      </c>
-      <c r="I12" s="99">
-        <v>0</v>
-      </c>
-      <c r="J12" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="99">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D13" s="99">
-        <v>1.054</v>
-      </c>
-      <c r="E13" s="99">
-        <v>16.196000000000002</v>
-      </c>
-      <c r="F13" s="99">
-        <v>2.36</v>
-      </c>
-      <c r="G13" s="99">
-        <v>4.0179999999999998</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="99">
-        <v>0</v>
-      </c>
-      <c r="J13" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="99">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D14" s="99">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E14" s="99">
-        <v>8.9529999999999994</v>
-      </c>
-      <c r="F14" s="99">
-        <v>2.2440000000000002</v>
-      </c>
-      <c r="G14" s="99">
-        <v>4.5949999999999998</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="99">
-        <v>0</v>
-      </c>
-      <c r="J14" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="99">
-        <v>10.308999999999999</v>
-      </c>
-      <c r="D15" s="99">
-        <v>26.855</v>
-      </c>
-      <c r="E15" s="99">
-        <v>74.361000000000004</v>
-      </c>
-      <c r="F15" s="99">
-        <v>18.050999999999998</v>
-      </c>
-      <c r="G15" s="99">
-        <v>53.795999999999999</v>
-      </c>
-      <c r="H15" s="99">
-        <v>650</v>
-      </c>
-      <c r="I15" s="99">
-        <v>2</v>
-      </c>
-      <c r="J15" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="99">
-        <v>25.381</v>
-      </c>
-      <c r="D16" s="99">
-        <v>47.576000000000001</v>
-      </c>
-      <c r="E16" s="99">
-        <v>97.665999999999997</v>
-      </c>
-      <c r="F16" s="99">
-        <v>28.506</v>
-      </c>
-      <c r="G16" s="99">
-        <v>93.084000000000003</v>
-      </c>
-      <c r="H16" s="99">
-        <v>469</v>
-      </c>
-      <c r="I16" s="99">
-        <v>1</v>
-      </c>
-      <c r="J16" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="99">
-        <v>30.494</v>
-      </c>
-      <c r="D17" s="99">
-        <v>59.384</v>
-      </c>
-      <c r="E17" s="99">
-        <v>121.568</v>
-      </c>
-      <c r="F17" s="99">
-        <v>35.664999999999999</v>
-      </c>
-      <c r="G17" s="99">
-        <v>117.423</v>
-      </c>
-      <c r="H17" s="99">
-        <v>370</v>
-      </c>
-      <c r="I17" s="99">
-        <v>1</v>
-      </c>
-      <c r="J17" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="99">
-        <v>28.556000000000001</v>
-      </c>
-      <c r="D18" s="99">
-        <v>46.448999999999998</v>
-      </c>
-      <c r="E18" s="99">
-        <v>92.231999999999999</v>
-      </c>
-      <c r="F18" s="99">
-        <v>22.013999999999999</v>
-      </c>
-      <c r="G18" s="99">
-        <v>81.918999999999997</v>
-      </c>
-      <c r="H18" s="99">
-        <v>534</v>
-      </c>
-      <c r="I18" s="99">
-        <v>3</v>
-      </c>
-      <c r="J18" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="99">
-        <v>20.91</v>
-      </c>
-      <c r="D19" s="99">
-        <v>41.601999999999997</v>
-      </c>
-      <c r="E19" s="99">
-        <v>92.021000000000001</v>
-      </c>
-      <c r="F19" s="99">
-        <v>27.119</v>
-      </c>
-      <c r="G19" s="99">
-        <v>86.164000000000001</v>
-      </c>
-      <c r="H19" s="99">
-        <v>140</v>
-      </c>
-      <c r="I19" s="99">
-        <v>1</v>
-      </c>
-      <c r="J19" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="99">
-        <v>16.37</v>
-      </c>
-      <c r="D20" s="99">
-        <v>26.646000000000001</v>
-      </c>
-      <c r="E20" s="99">
-        <v>60.991</v>
-      </c>
-      <c r="F20" s="99">
-        <v>13.395</v>
-      </c>
-      <c r="G20" s="99">
-        <v>48.462000000000003</v>
-      </c>
-      <c r="H20" s="99">
-        <v>497</v>
-      </c>
-      <c r="I20" s="99">
-        <v>3</v>
-      </c>
-      <c r="J20" s="99">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" display="UserRegistered" xr:uid="{C9B40D0C-9093-4E63-BF9F-DFD053D8A286}"/>
+    <hyperlink ref="A19" display="ViewTicketList" xr:uid="{952F5087-CC49-47E9-87E4-7B0E22C0D4C6}"/>
+    <hyperlink ref="A20" display="vuser_end_Transaction" xr:uid="{201E2D32-2A2A-4928-AE33-A0498DDA0BB0}"/>
+    <hyperlink ref="A21" display="vuser_init_Transaction" xr:uid="{711D9A9F-CA90-4905-9BA4-7F9FC10E6ADD}"/>
+    <hyperlink ref="A22" display="СhooseDepartureTime" xr:uid="{EA9DF175-B197-46D0-A19D-38A0F73CFABA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5838,13 +5850,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -5997,13 +6009,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -6163,13 +6175,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC26CDA-EC72-4790-94F2-13713FC4A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629966A-B880-4FEE-B240-8914BAF416A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,9 +646,6 @@
     <t>Интенсивность по статистике запросов / час</t>
   </si>
   <si>
-    <t>Фактическая интенсивность в тесте</t>
-  </si>
-  <si>
     <t>% Отклонение от Профиля</t>
   </si>
   <si>
@@ -788,13 +785,29 @@
   </si>
   <si>
     <t>vuser_init_Transaction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Фактическая интенсивность в тесте </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(-10% из-за 2 мин)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1087,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -1974,7 +1995,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2071,6 +2091,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2996,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,81 +3046,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q1" s="39" t="s">
+      <c r="P1" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" s="47" t="s">
+      <c r="T1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="76">
+      <c r="B2" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="75">
         <v>1</v>
       </c>
-      <c r="D2" s="78">
+      <c r="D2" s="77">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3125,42 +3146,42 @@
       <c r="J2" s="17">
         <v>136.61951909476662</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="19">
         <v>1.9</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="34">
         <f>5*6</f>
         <v>30</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="35">
         <f>N2+O2</f>
         <v>31.9</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="24">
         <v>101</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="43">
         <v>2</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="44">
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="57">
+      <c r="T2" s="56">
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="91">
+      <c r="U2" s="90">
         <v>20</v>
       </c>
-      <c r="V2" s="92">
+      <c r="V2" s="91">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
-      <c r="W2" s="30">
+      <c r="W2" s="29">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
@@ -3173,16 +3194,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="76">
+      <c r="B3" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="75">
         <v>1</v>
       </c>
-      <c r="D3" s="78">
+      <c r="D3" s="77">
         <f t="shared" ref="D3:D8" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3208,42 +3229,42 @@
       <c r="J3" s="17">
         <v>88.048090523338047</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="40" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="19">
         <v>1.5</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="34">
         <f>2*10</f>
         <v>20</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="35">
         <f t="shared" ref="P3:P7" si="6">N3+O3</f>
         <v>21.5</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="24">
         <v>140</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="43">
         <v>1</v>
       </c>
-      <c r="S3" s="45">
+      <c r="S3" s="44">
         <f t="shared" ref="S3:S6" si="7">R3/W$2</f>
         <v>0.1</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="56">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="91">
+      <c r="U3" s="90">
         <v>20</v>
       </c>
-      <c r="V3" s="92">
+      <c r="V3" s="91">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
-      <c r="W3" s="30"/>
+      <c r="W3" s="29"/>
       <c r="Y3">
         <v>10</v>
       </c>
@@ -3253,16 +3274,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="76">
+      <c r="B4" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="75">
         <v>1</v>
       </c>
-      <c r="D4" s="78">
+      <c r="D4" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3288,42 +3309,42 @@
       <c r="J4" s="17">
         <v>103.33333333333334</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>59</v>
+      <c r="M4" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="N4" s="19">
         <v>1</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="34">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4" s="24">
         <v>36</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="43">
         <v>1</v>
       </c>
-      <c r="S4" s="45">
+      <c r="S4" s="44">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="57">
+      <c r="T4" s="56">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="91">
+      <c r="U4" s="90">
         <v>20</v>
       </c>
-      <c r="V4" s="92">
+      <c r="V4" s="91">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
-      <c r="W4" s="30"/>
+      <c r="W4" s="29"/>
       <c r="Y4">
         <v>10</v>
       </c>
@@ -3333,16 +3354,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="75">
         <v>1</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3368,42 +3389,42 @@
       <c r="J5" s="17">
         <v>96.619519094766616</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>64</v>
+      <c r="M5" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="N5" s="19">
         <v>1.7</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <f>5*5</f>
         <v>25</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="64">
         <f>N5+O5</f>
         <v>26.7</v>
       </c>
-      <c r="Q5" s="66">
+      <c r="Q5" s="65">
         <v>80</v>
       </c>
-      <c r="R5" s="67">
+      <c r="R5" s="66">
         <v>2</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="44">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="57">
+      <c r="T5" s="56">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="91">
+      <c r="U5" s="90">
         <v>20</v>
       </c>
-      <c r="V5" s="92">
+      <c r="V5" s="91">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
-      <c r="W5" s="30"/>
+      <c r="W5" s="29"/>
       <c r="Y5">
         <v>10</v>
       </c>
@@ -3413,16 +3434,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="75">
         <v>1</v>
       </c>
-      <c r="D6" s="78">
+      <c r="D6" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3448,42 +3469,42 @@
       <c r="J6" s="17">
         <v>58.048090523338047</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="40" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="19">
         <v>0.9</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="34">
         <f>4*7</f>
         <v>28</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <f>N6+O6</f>
         <v>28.9</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>70</v>
       </c>
-      <c r="R6" s="72">
+      <c r="R6" s="71">
         <v>2</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="44">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="57">
+      <c r="T6" s="56">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="91">
+      <c r="U6" s="90">
         <v>20</v>
       </c>
-      <c r="V6" s="92">
+      <c r="V6" s="91">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
-      <c r="W6" s="30"/>
+      <c r="W6" s="29"/>
       <c r="Y6">
         <v>10</v>
       </c>
@@ -3493,16 +3514,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="75">
         <v>1</v>
       </c>
-      <c r="D7" s="78">
+      <c r="D7" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3528,42 +3549,42 @@
       <c r="J7" s="17">
         <v>25.714285714285712</v>
       </c>
-      <c r="M7" s="41" t="s">
-        <v>65</v>
+      <c r="M7" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="N7" s="19">
         <v>0.9</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="67">
         <f>5*2</f>
         <v>10</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="68">
         <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="69">
         <v>60</v>
       </c>
-      <c r="R7" s="71">
+      <c r="R7" s="70">
         <v>2</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="44">
         <f>R7/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T7" s="57">
+      <c r="T7" s="56">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="91">
+      <c r="U7" s="90">
         <v>20</v>
       </c>
-      <c r="V7" s="92">
+      <c r="V7" s="91">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
-      <c r="W7" s="30"/>
+      <c r="W7" s="29"/>
       <c r="Y7">
         <v>10</v>
       </c>
@@ -3573,16 +3594,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="85">
         <v>1</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3602,38 +3623,38 @@
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="73" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="17">
         <v>92.333804809052339</v>
       </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="48">
+      <c r="M8" s="41"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="47">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="55"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="31"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="88">
+      <c r="A9" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="87">
         <v>1</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="82">
         <f t="shared" ref="D9:D21" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3654,23 +3675,23 @@
         <v>40</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="17">
         <v>169.95285242809996</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="87">
+      <c r="A10" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="86">
         <v>1</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="82">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3691,7 +3712,7 @@
         <v>40</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="17">
         <v>33.333333333333336</v>
@@ -3699,16 +3720,16 @@
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="87">
+      <c r="C11" s="86">
         <v>1</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="82">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3729,7 +3750,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="17">
         <v>33.333333333333336</v>
@@ -3737,16 +3758,16 @@
       <c r="P11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="88">
+      <c r="C12" s="87">
         <v>1</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="82">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3767,7 +3788,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="17">
         <v>33.333333333333336</v>
@@ -3775,16 +3796,16 @@
       <c r="P12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="84">
+      <c r="A13" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="83">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="84">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3805,7 +3826,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="17">
         <v>96.619519094766616</v>
@@ -3813,16 +3834,16 @@
       <c r="P13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="76">
+      <c r="A14" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="75">
         <v>1</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3843,7 +3864,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="17">
         <v>967.28901461574731</v>
@@ -3851,16 +3872,16 @@
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="76">
+      <c r="A15" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="75">
         <v>1</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3883,16 +3904,16 @@
       <c r="P15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="81">
         <v>1</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="82">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3915,16 +3936,16 @@
       <c r="P16" s="17"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="76">
+      <c r="B17" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="75">
         <v>1</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3946,16 +3967,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="76">
+      <c r="B18" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="75">
         <v>1</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3980,16 +4001,16 @@
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="76">
+      <c r="B19" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="75">
         <v>1</v>
       </c>
-      <c r="D19" s="78">
+      <c r="D19" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4012,16 +4033,16 @@
       <c r="P19" s="17"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="75">
         <v>1</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4044,16 +4065,16 @@
       <c r="P20" s="17"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="76">
+      <c r="C21" s="75">
         <v>4</v>
       </c>
-      <c r="D21" s="78">
+      <c r="D21" s="77">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4075,16 +4096,16 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="76">
+      <c r="C22" s="75">
         <v>3</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="77">
         <f t="shared" ref="D22" si="17">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -4107,16 +4128,16 @@
       <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="76">
+      <c r="A23" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="75">
         <v>1</v>
       </c>
-      <c r="D23" s="78">
+      <c r="D23" s="77">
         <f t="shared" ref="D23:D33" si="22">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4139,16 +4160,16 @@
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="76">
+      <c r="A24" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="75">
         <v>1</v>
       </c>
-      <c r="D24" s="78">
+      <c r="D24" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4171,16 +4192,16 @@
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
-        <v>64</v>
+      <c r="A25" s="60" t="s">
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="76">
+        <v>66</v>
+      </c>
+      <c r="C25" s="75">
         <v>1</v>
       </c>
-      <c r="D25" s="78">
+      <c r="D25" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4200,21 +4221,21 @@
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="I25" s="75"/>
+      <c r="I25" s="74"/>
       <c r="N25" s="18"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="75">
         <v>1</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4236,16 +4257,16 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="76">
+      <c r="C27" s="75">
         <v>1</v>
       </c>
-      <c r="D27" s="78">
+      <c r="D27" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4267,16 +4288,16 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="77" t="s">
+      <c r="A28" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="76">
+      <c r="C28" s="75">
         <v>1</v>
       </c>
-      <c r="D28" s="78">
+      <c r="D28" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4298,16 +4319,16 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="76">
+      <c r="B29" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="75">
         <v>1</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4329,16 +4350,16 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="76">
+      <c r="B30" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="75">
         <v>1</v>
       </c>
-      <c r="D30" s="78">
+      <c r="D30" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4361,16 +4382,16 @@
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="76">
+        <v>66</v>
+      </c>
+      <c r="C31" s="75">
         <v>1</v>
       </c>
-      <c r="D31" s="78">
+      <c r="D31" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4394,16 +4415,16 @@
       <c r="T31" s="17"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="76">
+      <c r="C32" s="75">
         <v>1</v>
       </c>
-      <c r="D32" s="78">
+      <c r="D32" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4427,16 +4448,16 @@
       <c r="T32" s="17"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="75">
         <v>1</v>
       </c>
-      <c r="D33" s="78">
+      <c r="D33" s="77">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4460,16 +4481,16 @@
       <c r="T33" s="17"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="76">
+      <c r="C34" s="75">
         <v>1</v>
       </c>
-      <c r="D34" s="78">
+      <c r="D34" s="77">
         <f t="shared" ref="D34" si="27">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4493,16 +4514,16 @@
       <c r="T34" s="17"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="81">
         <v>1</v>
       </c>
-      <c r="D35" s="83">
+      <c r="D35" s="82">
         <f>VLOOKUP(A35,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4526,7 +4547,7 @@
       <c r="T35" s="17"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="75"/>
+      <c r="A36" s="74"/>
       <c r="F36" s="18"/>
       <c r="H36" s="17"/>
       <c r="T36" s="17"/>
@@ -4539,19 +4560,19 @@
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="95"/>
       <c r="C53" s="96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="97"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -4560,45 +4581,45 @@
       <c r="D54" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="53" t="s">
-        <v>78</v>
+      <c r="E54" s="57"/>
+      <c r="F54" s="52" t="s">
+        <v>77</v>
       </c>
       <c r="G54" s="22" t="s">
         <v>53</v>
       </c>
       <c r="H54" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="22" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="50">
+      <c r="A55" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="49">
         <v>520</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="35">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
         <v>509.85855728429988</v>
       </c>
-      <c r="D55" s="73">
+      <c r="D55" s="72">
         <f>1-B55/C55</f>
         <v>-1.9890698255055961E-2</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="54" t="str">
+      <c r="E55" s="36"/>
+      <c r="F55" s="53" t="str">
         <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
         <v>OpenLandingPage</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="32">
         <f>C55/3</f>
         <v>169.95285242809996</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="93">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F55,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>171</v>
       </c>
@@ -4608,30 +4629,30 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="50">
+      <c r="A56" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="49">
         <v>422</v>
       </c>
-      <c r="C56" s="36">
+      <c r="C56" s="35">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
         <v>409.85855728429988</v>
       </c>
-      <c r="D56" s="73">
+      <c r="D56" s="72">
         <f>1-B56/C56</f>
         <v>-2.9623494495634395E-2</v>
       </c>
-      <c r="E56" s="37"/>
-      <c r="F56" s="54" t="str">
+      <c r="E56" s="36"/>
+      <c r="F56" s="53" t="str">
         <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G56" s="33">
+      <c r="G56" s="32">
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="93">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F56,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>137.69999999999999</v>
       </c>
@@ -4641,30 +4662,30 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="50">
+      <c r="A57" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="49">
         <v>305</v>
       </c>
-      <c r="C57" s="36">
+      <c r="C57" s="35">
         <f t="shared" ref="C57:C66" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>289.85855728429988</v>
       </c>
-      <c r="D57" s="73">
+      <c r="D57" s="72">
         <f>1-B57/C57</f>
         <v>-5.2237349338798644E-2</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="54" t="str">
+      <c r="E57" s="36"/>
+      <c r="F57" s="53" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
         <v>OpenPage_FindFlight</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="32">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="93">
         <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F57,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>99</v>
       </c>
@@ -4674,30 +4695,30 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="50">
+      <c r="B58" s="49">
         <v>282</v>
       </c>
-      <c r="C58" s="36">
+      <c r="C58" s="35">
         <f t="shared" si="31"/>
         <v>289.85855728429988</v>
       </c>
-      <c r="D58" s="73">
+      <c r="D58" s="72">
         <f t="shared" ref="D58:D67" si="32">1-B58/C58</f>
         <v>2.7111696676914154E-2</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="54" t="str">
+      <c r="E58" s="36"/>
+      <c r="F58" s="53" t="str">
         <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
         <v>SubmitFlight</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="32">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="93">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F58,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>99</v>
       </c>
@@ -4707,30 +4728,30 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="50">
+      <c r="B59" s="49">
         <v>270</v>
       </c>
-      <c r="C59" s="36">
+      <c r="C59" s="35">
         <f t="shared" si="31"/>
         <v>264.14427157001415</v>
       </c>
-      <c r="D59" s="73">
+      <c r="D59" s="72">
         <f t="shared" si="32"/>
         <v>-2.2168674698795243E-2</v>
       </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="54" t="str">
+      <c r="E59" s="36"/>
+      <c r="F59" s="53" t="str">
         <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
         <v>СhooseDepartureTime</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="32">
         <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="93">
         <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F59,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>90</v>
       </c>
@@ -4740,30 +4761,30 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="50">
+      <c r="B60" s="49">
         <v>175</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="35">
         <f t="shared" si="31"/>
         <v>174.14427157001415</v>
       </c>
-      <c r="D60" s="73">
+      <c r="D60" s="72">
         <f t="shared" si="32"/>
         <v>-4.9139051332032224E-3</v>
       </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="54" t="str">
+      <c r="E60" s="36"/>
+      <c r="F60" s="53" t="str">
         <f>VLOOKUP(A60,Соответствие!A:B,2,FALSE)</f>
         <v>BuyingTicket</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="32">
         <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="93">
         <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F60,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>59.4</v>
       </c>
@@ -4773,30 +4794,30 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="50">
+      <c r="B61" s="49">
         <v>280</v>
       </c>
-      <c r="C61" s="36">
+      <c r="C61" s="35">
         <f t="shared" si="31"/>
         <v>277.00141442715699</v>
       </c>
-      <c r="D61" s="73">
+      <c r="D61" s="72">
         <f t="shared" si="32"/>
         <v>-1.0825163398692883E-2</v>
       </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="54" t="str">
+      <c r="E61" s="36"/>
+      <c r="F61" s="53" t="str">
         <f>VLOOKUP(A61,Соответствие!A:B,2,FALSE)</f>
         <v>ViewTicketList</v>
       </c>
-      <c r="G61" s="33">
+      <c r="G61" s="32">
         <f>C61/3</f>
         <v>92.333804809052324</v>
       </c>
-      <c r="H61" s="23">
+      <c r="H61" s="93">
         <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F61,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>95.4</v>
       </c>
@@ -4806,30 +4827,30 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="50">
+      <c r="B62" s="49">
         <v>73</v>
       </c>
-      <c r="C62" s="36">
+      <c r="C62" s="35">
         <f t="shared" si="31"/>
         <v>77.142857142857139</v>
       </c>
-      <c r="D62" s="73">
+      <c r="D62" s="72">
         <f t="shared" si="32"/>
         <v>5.3703703703703698E-2</v>
       </c>
-      <c r="E62" s="37"/>
-      <c r="F62" s="54" t="str">
+      <c r="E62" s="36"/>
+      <c r="F62" s="53" t="str">
         <f>VLOOKUP(A62,Соответствие!A:B,2,FALSE)</f>
         <v>DeleteTicket</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="32">
         <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="93">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F62,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>27</v>
       </c>
@@ -4839,30 +4860,30 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="50">
+      <c r="B63" s="49">
         <v>326</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="35">
         <f t="shared" si="31"/>
         <v>310</v>
       </c>
-      <c r="D63" s="73">
+      <c r="D63" s="72">
         <f t="shared" si="32"/>
         <v>-5.1612903225806361E-2</v>
       </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="54" t="str">
+      <c r="E63" s="36"/>
+      <c r="F63" s="53" t="str">
         <f>VLOOKUP(A63,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="32">
         <f>C63/3</f>
         <v>103.33333333333333</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="93">
         <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F63,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>102.6</v>
       </c>
@@ -4872,30 +4893,30 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="50">
+      <c r="A64" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="49">
         <v>97</v>
       </c>
-      <c r="C64" s="36">
+      <c r="C64" s="35">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D64" s="73">
+      <c r="D64" s="72">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="54" t="str">
+      <c r="E64" s="36"/>
+      <c r="F64" s="53" t="str">
         <f>VLOOKUP(A64,Соответствие!A:B,2,FALSE)</f>
         <v>OpenRegistrationPage</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G64" s="32">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="93">
         <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F64,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>33.299999999999997</v>
       </c>
@@ -4905,30 +4926,30 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="50">
+      <c r="A65" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="49">
         <v>97</v>
       </c>
-      <c r="C65" s="36">
+      <c r="C65" s="35">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D65" s="73">
+      <c r="D65" s="72">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="54" t="str">
+      <c r="E65" s="36"/>
+      <c r="F65" s="53" t="str">
         <f>VLOOKUP(A65,Соответствие!A:B,2,FALSE)</f>
         <v>UserRegistered</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G65" s="32">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="93">
         <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F65,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>33.299999999999997</v>
       </c>
@@ -4938,30 +4959,30 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="50">
+      <c r="A66" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="49">
         <v>97</v>
       </c>
-      <c r="C66" s="36">
+      <c r="C66" s="35">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D66" s="73">
+      <c r="D66" s="72">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="54" t="str">
+      <c r="E66" s="36"/>
+      <c r="F66" s="53" t="str">
         <f>VLOOKUP(A66,Соответствие!A:B,2,FALSE)</f>
         <v>press continue</v>
       </c>
-      <c r="G66" s="33">
+      <c r="G66" s="32">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="93">
         <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F66,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>33.299999999999997</v>
       </c>
@@ -4971,14 +4992,14 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="50">
         <f>SUM(B55:B66)</f>
         <v>2944</v>
       </c>
-      <c r="C67" s="52">
+      <c r="C67" s="51">
         <f>SUM(C55:C66)</f>
         <v>2901.8670438472423</v>
       </c>
@@ -4988,20 +5009,20 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I68" s="24"/>
+      <c r="I68" s="23"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="38"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="32"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5029,119 +5050,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="str">
+      <c r="A2" s="53" t="str">
         <f>'Автоматизированный расчет'!A55</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>89</v>
+      <c r="B2" s="53" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="str">
+      <c r="A3" s="53" t="str">
         <f>'Автоматизированный расчет'!A56</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>87</v>
+      <c r="B3" s="53" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="str">
+      <c r="A4" s="53" t="str">
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="93" t="s">
-        <v>90</v>
+      <c r="B4" s="92" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="str">
+      <c r="A5" s="53" t="str">
         <f>'Автоматизированный расчет'!A58</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>93</v>
+      <c r="B5" s="53" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="str">
+      <c r="A6" s="53" t="str">
         <f>'Автоматизированный расчет'!A59</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>100</v>
+      <c r="B6" s="53" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="str">
+      <c r="A7" s="53" t="str">
         <f>'Автоматизированный расчет'!A60</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>85</v>
+      <c r="B7" s="53" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="str">
+      <c r="A8" s="53" t="str">
         <f>'Автоматизированный расчет'!A61</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>102</v>
+      <c r="B8" s="53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="str">
+      <c r="A9" s="53" t="str">
         <f>'Автоматизированный расчет'!A62</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>86</v>
+      <c r="B9" s="53" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="str">
+      <c r="A10" s="53" t="str">
         <f>'Автоматизированный расчет'!A63</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>88</v>
+      <c r="B10" s="53" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="str">
+      <c r="A11" s="53" t="str">
         <f>'Автоматизированный расчет'!A64</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>91</v>
+      <c r="B11" s="53" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="str">
+      <c r="A12" s="53" t="str">
         <f>'Автоматизированный расчет'!A65</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>101</v>
+      <c r="B12" s="53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="str">
+      <c r="A13" s="53" t="str">
         <f>'Автоматизированный расчет'!A66</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>92</v>
+      <c r="B13" s="53" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5169,40 +5190,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F1" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="58" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>80</v>
+      <c r="A2" s="58" t="s">
+        <v>79</v>
       </c>
       <c r="C2">
         <v>0.29899999999999999</v>
@@ -5228,12 +5249,12 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="V2" s="59"/>
+      <c r="L2" s="58"/>
+      <c r="V2" s="58"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>3.4000000000000002E-2</v>
@@ -5262,7 +5283,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>4.2999999999999997E-2</v>
@@ -5291,7 +5312,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>7.5999999999999998E-2</v>
@@ -5320,7 +5341,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>5.3999999999999999E-2</v>
@@ -5349,7 +5370,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>5.5E-2</v>
@@ -5378,7 +5399,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>7.5999999999999998E-2</v>
@@ -5407,7 +5428,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>3.5000000000000003E-2</v>
@@ -5436,7 +5457,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10">
         <v>7.6999999999999999E-2</v>
@@ -5465,7 +5486,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>3.4000000000000002E-2</v>
@@ -5494,7 +5515,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0.29899999999999999</v>
@@ -5523,7 +5544,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>0.34200000000000003</v>
@@ -5552,7 +5573,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>0.47599999999999998</v>
@@ -5581,7 +5602,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>0.45700000000000002</v>
@@ -5610,7 +5631,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>0.72499999999999998</v>
@@ -5639,7 +5660,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>0.36</v>
@@ -5668,7 +5689,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>0.03</v>
@@ -5697,7 +5718,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>6.2E-2</v>
@@ -5726,7 +5747,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5755,7 +5776,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5784,7 +5805,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>3.4000000000000002E-2</v>
@@ -5827,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C9:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629966A-B880-4FEE-B240-8914BAF416A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213B8C7-B715-4C1C-8E4E-282371612301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -572,9 +572,6 @@
   </si>
   <si>
     <t>Подтверждение максимума</t>
-  </si>
-  <si>
-    <t>Профиль для 5 пользаков</t>
   </si>
   <si>
     <t>1 315,</t>
@@ -802,12 +799,31 @@
       <t>(-10% из-за 2 мин)</t>
     </r>
   </si>
+  <si>
+    <t>Поиск максимума 4 ступень</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Профиль для 5 пользаков </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Я так понял это 5 ступень)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1111,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -1943,7 +1967,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1954,13 +1978,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2106,6 +2124,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -3017,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,81 +3073,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="N1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" s="38" t="s">
+      <c r="S1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="45" t="s">
+      <c r="V1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="U1" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="31" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="75">
+      <c r="B2" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="73">
         <v>1</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="75">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3128,7 +3155,7 @@
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <f>60/E2*C2</f>
         <v>0.59405940594059403</v>
       </c>
@@ -3136,52 +3163,52 @@
         <f>VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <f>D2*F2*G2</f>
         <v>23.762376237623762</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="I2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>136.61951909476662</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="19">
+      <c r="N2" s="17">
         <v>1.9</v>
       </c>
-      <c r="O2" s="34">
+      <c r="O2" s="32">
         <f>5*6</f>
         <v>30</v>
       </c>
-      <c r="P2" s="35">
+      <c r="P2" s="33">
         <f>N2+O2</f>
         <v>31.9</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="22">
         <v>101</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="41">
         <v>2</v>
       </c>
-      <c r="S2" s="44">
+      <c r="S2" s="42">
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="56">
+      <c r="T2" s="54">
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="90">
+      <c r="U2" s="88">
         <v>20</v>
       </c>
-      <c r="V2" s="91">
+      <c r="V2" s="89">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
-      <c r="W2" s="29">
+      <c r="W2" s="27">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
@@ -3194,16 +3221,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="75">
+      <c r="B3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="73">
         <v>1</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="75">
         <f t="shared" ref="D3:D8" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3211,7 +3238,7 @@
         <f t="shared" ref="E3:E8" si="2">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F8" si="3">60/E3*C3</f>
         <v>0.59405940594059403</v>
       </c>
@@ -3219,52 +3246,52 @@
         <f t="shared" ref="G3:G8" si="4">VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <f t="shared" ref="H3:H8" si="5">D3*F3*G3</f>
         <v>23.762376237623762</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>88.048090523338047</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="M3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="17">
         <v>1.5</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="32">
         <f>2*10</f>
         <v>20</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="33">
         <f t="shared" ref="P3:P7" si="6">N3+O3</f>
         <v>21.5</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="22">
         <v>140</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="41">
         <v>1</v>
       </c>
-      <c r="S3" s="44">
+      <c r="S3" s="42">
         <f t="shared" ref="S3:S6" si="7">R3/W$2</f>
         <v>0.1</v>
       </c>
-      <c r="T3" s="56">
+      <c r="T3" s="54">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="90">
+      <c r="U3" s="88">
         <v>20</v>
       </c>
-      <c r="V3" s="91">
+      <c r="V3" s="89">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
-      <c r="W3" s="29"/>
+      <c r="W3" s="27"/>
       <c r="Y3">
         <v>10</v>
       </c>
@@ -3274,16 +3301,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="75">
+      <c r="B4" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="73">
         <v>1</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="75">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3291,7 +3318,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3299,52 +3326,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>103.33333333333334</v>
       </c>
-      <c r="M4" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="19">
+      <c r="M4" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="17">
         <v>1</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="32">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="33">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4" s="22">
         <v>36</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="41">
         <v>1</v>
       </c>
-      <c r="S4" s="44">
+      <c r="S4" s="42">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="56">
+      <c r="T4" s="54">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="90">
+      <c r="U4" s="88">
         <v>20</v>
       </c>
-      <c r="V4" s="91">
+      <c r="V4" s="89">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
-      <c r="W4" s="29"/>
+      <c r="W4" s="27"/>
       <c r="Y4">
         <v>10</v>
       </c>
@@ -3354,16 +3381,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="73">
         <v>1</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="75">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3371,7 +3398,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3379,52 +3406,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <v>96.619519094766616</v>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="19">
+      <c r="M5" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="17">
         <v>1.7</v>
       </c>
-      <c r="O5" s="63">
+      <c r="O5" s="61">
         <f>5*5</f>
         <v>25</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="62">
         <f>N5+O5</f>
         <v>26.7</v>
       </c>
-      <c r="Q5" s="65">
+      <c r="Q5" s="63">
         <v>80</v>
       </c>
-      <c r="R5" s="66">
+      <c r="R5" s="64">
         <v>2</v>
       </c>
-      <c r="S5" s="44">
+      <c r="S5" s="42">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="56">
+      <c r="T5" s="54">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="90">
+      <c r="U5" s="88">
         <v>20</v>
       </c>
-      <c r="V5" s="91">
+      <c r="V5" s="89">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
-      <c r="W5" s="29"/>
+      <c r="W5" s="27"/>
       <c r="Y5">
         <v>10</v>
       </c>
@@ -3434,16 +3461,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="75">
+      <c r="C6" s="73">
         <v>1</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="75">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3451,7 +3478,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3459,52 +3486,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <v>58.048090523338047</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <v>0.9</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="32">
         <f>4*7</f>
         <v>28</v>
       </c>
-      <c r="P6" s="35">
+      <c r="P6" s="33">
         <f>N6+O6</f>
         <v>28.9</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="22">
         <v>70</v>
       </c>
-      <c r="R6" s="71">
+      <c r="R6" s="69">
         <v>2</v>
       </c>
-      <c r="S6" s="44">
+      <c r="S6" s="42">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="56">
+      <c r="T6" s="54">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="90">
+      <c r="U6" s="88">
         <v>20</v>
       </c>
-      <c r="V6" s="91">
+      <c r="V6" s="89">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="27"/>
       <c r="Y6">
         <v>10</v>
       </c>
@@ -3514,16 +3541,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="73">
         <v>1</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="75">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3531,7 +3558,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3539,52 +3566,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>25.714285714285712</v>
       </c>
-      <c r="M7" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="M7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="17">
         <v>0.9</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="65">
         <f>5*2</f>
         <v>10</v>
       </c>
-      <c r="P7" s="68">
+      <c r="P7" s="66">
         <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
-      <c r="Q7" s="69">
+      <c r="Q7" s="67">
         <v>60</v>
       </c>
-      <c r="R7" s="70">
+      <c r="R7" s="68">
         <v>2</v>
       </c>
-      <c r="S7" s="44">
+      <c r="S7" s="42">
         <f>R7/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="90">
+      <c r="U7" s="88">
         <v>20</v>
       </c>
-      <c r="V7" s="91">
+      <c r="V7" s="89">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="27"/>
       <c r="Y7">
         <v>10</v>
       </c>
@@ -3594,16 +3621,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="83">
         <v>1</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="75">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3611,7 +3638,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3619,42 +3646,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>92.333804809052339</v>
       </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="47">
+      <c r="M8" s="39"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="45">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="30"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="28"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="87">
+      <c r="A9" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="85">
         <v>1</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <f t="shared" ref="D9:D21" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3662,7 +3689,7 @@
         <f t="shared" ref="E9:E20" si="10">VLOOKUP(A9,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <f t="shared" ref="F9:F20" si="11">60/E9*C9</f>
         <v>1</v>
       </c>
@@ -3670,28 +3697,28 @@
         <f t="shared" ref="G9:G20" si="12">VLOOKUP(A9,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <f t="shared" ref="H9:H21" si="13">D9*F9*G9</f>
         <v>40</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="I9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="15">
         <v>169.95285242809996</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="86">
+      <c r="A10" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="84">
         <v>1</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3699,7 +3726,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3707,29 +3734,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="I10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="15">
         <v>33.333333333333336</v>
       </c>
-      <c r="Q10" s="17"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="84">
         <v>1</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3737,7 +3764,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3745,29 +3772,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="I11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="15">
         <v>33.333333333333336</v>
       </c>
-      <c r="P11" s="17"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="87">
+      <c r="C12" s="85">
         <v>1</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3775,7 +3802,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3783,29 +3810,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="I12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="15">
         <v>33.333333333333336</v>
       </c>
-      <c r="P12" s="17"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="83">
+      <c r="A13" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="81">
         <v>1</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="82">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3813,7 +3840,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3821,29 +3848,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="15">
         <v>96.619519094766616</v>
       </c>
-      <c r="P13" s="17"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="75">
+      <c r="A14" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="73">
         <v>1</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3851,7 +3878,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3859,29 +3886,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="15">
         <v>967.28901461574731</v>
       </c>
-      <c r="P14" s="17"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="75">
+      <c r="A15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="73">
         <v>1</v>
       </c>
-      <c r="D15" s="77">
+      <c r="D15" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3889,7 +3916,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3897,23 +3924,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P15" s="17"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="76" t="s">
+      <c r="A16" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="79">
         <v>1</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3921,7 +3948,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3929,23 +3956,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P16" s="17"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="75">
+      <c r="B17" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="73">
         <v>1</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3953,7 +3980,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3961,22 +3988,22 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="75">
+      <c r="B18" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="73">
         <v>1</v>
       </c>
-      <c r="D18" s="77">
+      <c r="D18" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3984,7 +4011,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3992,25 +4019,25 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="75">
+      <c r="B19" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="73">
         <v>1</v>
       </c>
-      <c r="D19" s="77">
+      <c r="D19" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4018,7 +4045,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4026,23 +4053,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="P19" s="17"/>
+      <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="73">
         <v>1</v>
       </c>
-      <c r="D20" s="77">
+      <c r="D20" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4050,7 +4077,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4058,23 +4085,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="P20" s="17"/>
+      <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="73">
         <v>4</v>
       </c>
-      <c r="D21" s="77">
+      <c r="D21" s="75">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4082,7 +4109,7 @@
         <f t="shared" ref="E21" si="14">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <f t="shared" ref="F21" si="15">60/E21*C21</f>
         <v>1.7142857142857142</v>
       </c>
@@ -4090,22 +4117,22 @@
         <f t="shared" ref="G21" si="16">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <f t="shared" si="13"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="73">
         <v>3</v>
       </c>
-      <c r="D22" s="77">
+      <c r="D22" s="75">
         <f t="shared" ref="D22" si="17">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -4113,7 +4140,7 @@
         <f t="shared" ref="E22" si="18">VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f t="shared" ref="F22" si="19">60/E22*C22</f>
         <v>1.2857142857142856</v>
       </c>
@@ -4121,23 +4148,23 @@
         <f t="shared" ref="G22" si="20">VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <f t="shared" ref="H22" si="21">D22*F22*G22</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="P22" s="17"/>
+      <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="75">
+      <c r="A23" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="73">
         <v>1</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="75">
         <f t="shared" ref="D23:D33" si="22">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4145,7 +4172,7 @@
         <f t="shared" ref="E23:E35" si="23">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f t="shared" ref="F23:F33" si="24">60/E23*C23</f>
         <v>0.75</v>
       </c>
@@ -4153,23 +4180,23 @@
         <f t="shared" ref="G23:G35" si="25">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <f t="shared" ref="H23:H35" si="26">D23*F23*G23</f>
         <v>30</v>
       </c>
-      <c r="P23" s="17"/>
+      <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="75">
+      <c r="A24" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="73">
         <v>1</v>
       </c>
-      <c r="D24" s="77">
+      <c r="D24" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4177,7 +4204,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4185,23 +4212,23 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="P24" s="17"/>
+      <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
-        <v>63</v>
+      <c r="A25" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="75">
+        <v>65</v>
+      </c>
+      <c r="C25" s="73">
         <v>1</v>
       </c>
-      <c r="D25" s="77">
+      <c r="D25" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4209,7 +4236,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4217,25 +4244,25 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="I25" s="74"/>
-      <c r="N25" s="18"/>
-      <c r="P25" s="17"/>
+      <c r="I25" s="72"/>
+      <c r="N25" s="16"/>
+      <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="73">
         <v>1</v>
       </c>
-      <c r="D26" s="77">
+      <c r="D26" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4243,7 +4270,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4251,22 +4278,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="15">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="73">
         <v>1</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4274,7 +4301,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4282,22 +4309,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="15">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="73">
         <v>1</v>
       </c>
-      <c r="D28" s="77">
+      <c r="D28" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4305,7 +4332,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4313,22 +4340,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="75">
+      <c r="B29" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="73">
         <v>1</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4336,7 +4363,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4344,22 +4371,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="75">
+      <c r="B30" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="73">
         <v>1</v>
       </c>
-      <c r="D30" s="77">
+      <c r="D30" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4367,7 +4394,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4375,23 +4402,23 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P30" s="17"/>
+      <c r="P30" s="15"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="75">
+        <v>65</v>
+      </c>
+      <c r="C31" s="73">
         <v>1</v>
       </c>
-      <c r="D31" s="77">
+      <c r="D31" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4399,7 +4426,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4407,24 +4434,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="P31" s="15"/>
+      <c r="T31" s="15"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="73">
         <v>1</v>
       </c>
-      <c r="D32" s="77">
+      <c r="D32" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4432,7 +4459,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4440,24 +4467,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="P32" s="15"/>
+      <c r="T32" s="15"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="73">
         <v>1</v>
       </c>
-      <c r="D33" s="77">
+      <c r="D33" s="75">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4465,7 +4492,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4473,24 +4500,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="P33" s="15"/>
+      <c r="T33" s="15"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="73">
         <v>1</v>
       </c>
-      <c r="D34" s="77">
+      <c r="D34" s="75">
         <f t="shared" ref="D34" si="27">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4498,7 +4525,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <f t="shared" ref="F34" si="28">60/E34*C34</f>
         <v>0.8571428571428571</v>
       </c>
@@ -4506,24 +4533,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="P34" s="15"/>
+      <c r="T34" s="15"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="79">
         <v>1</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="80">
         <f>VLOOKUP(A35,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4531,7 +4558,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <f>60/E35*C35</f>
         <v>0.8571428571428571</v>
       </c>
@@ -4539,18 +4566,18 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="15">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="P35" s="15"/>
+      <c r="T35" s="15"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="F36" s="18"/>
-      <c r="H36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="A36" s="72"/>
+      <c r="F36" s="16"/>
+      <c r="H36" s="15"/>
+      <c r="T36" s="15"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q44">
@@ -4559,470 +4586,470 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="97"/>
+      <c r="A53" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="95"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="48" t="s">
+      <c r="A54" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="55"/>
+      <c r="F54" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="57"/>
-      <c r="F54" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="49">
+      <c r="A55" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="47">
         <v>520</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
         <v>509.85855728429988</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="70">
         <f>1-B55/C55</f>
         <v>-1.9890698255055961E-2</v>
       </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="53" t="str">
+      <c r="E55" s="34"/>
+      <c r="F55" s="51" t="str">
         <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
         <v>OpenLandingPage</v>
       </c>
-      <c r="G55" s="32">
+      <c r="G55" s="30">
         <f>C55/3</f>
         <v>169.95285242809996</v>
       </c>
-      <c r="H55" s="93">
+      <c r="H55" s="91">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F55,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>171</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="19">
         <f>1-G55/H55</f>
         <v>6.1236700111113596E-3</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="49">
+      <c r="A56" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="47">
         <v>422</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="33">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
         <v>409.85855728429988</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D56" s="70">
         <f>1-B56/C56</f>
         <v>-2.9623494495634395E-2</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="53" t="str">
+      <c r="E56" s="34"/>
+      <c r="F56" s="51" t="str">
         <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G56" s="32">
+      <c r="G56" s="30">
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="93">
+      <c r="H56" s="91">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F56,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>137.69999999999999</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="19">
         <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
         <v>7.8466296676352743E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="49">
+      <c r="A57" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="47">
         <v>305</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="33">
         <f t="shared" ref="C57:C66" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>289.85855728429988</v>
       </c>
-      <c r="D57" s="72">
+      <c r="D57" s="70">
         <f>1-B57/C57</f>
         <v>-5.2237349338798644E-2</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="53" t="str">
+      <c r="E57" s="34"/>
+      <c r="F57" s="51" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
         <v>OpenPage_FindFlight</v>
       </c>
-      <c r="G57" s="32">
+      <c r="G57" s="30">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="93">
+      <c r="H57" s="91">
         <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F57,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>99</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="19">
         <f t="shared" si="30"/>
         <v>2.4045261669023987E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="47">
         <v>282</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="33">
         <f t="shared" si="31"/>
         <v>289.85855728429988</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="70">
         <f t="shared" ref="D58:D67" si="32">1-B58/C58</f>
         <v>2.7111696676914154E-2</v>
       </c>
-      <c r="E58" s="36"/>
-      <c r="F58" s="53" t="str">
+      <c r="E58" s="34"/>
+      <c r="F58" s="51" t="str">
         <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
         <v>SubmitFlight</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="30">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="93">
+      <c r="H58" s="91">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F58,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>99</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="19">
         <f t="shared" si="30"/>
         <v>2.4045261669023987E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="49">
+      <c r="B59" s="47">
         <v>270</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="33">
         <f t="shared" si="31"/>
         <v>264.14427157001415</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="70">
         <f t="shared" si="32"/>
         <v>-2.2168674698795243E-2</v>
       </c>
-      <c r="E59" s="36"/>
-      <c r="F59" s="53" t="str">
+      <c r="E59" s="34"/>
+      <c r="F59" s="51" t="str">
         <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
         <v>СhooseDepartureTime</v>
       </c>
-      <c r="G59" s="32">
+      <c r="G59" s="30">
         <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
-      <c r="H59" s="93">
+      <c r="H59" s="91">
         <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F59,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>90</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="19">
         <f t="shared" si="30"/>
         <v>2.1687883074021697E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="47">
         <v>175</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="33">
         <f t="shared" si="31"/>
         <v>174.14427157001415</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="70">
         <f t="shared" si="32"/>
         <v>-4.9139051332032224E-3</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="53" t="str">
+      <c r="E60" s="34"/>
+      <c r="F60" s="51" t="str">
         <f>VLOOKUP(A60,Соответствие!A:B,2,FALSE)</f>
         <v>BuyingTicket</v>
       </c>
-      <c r="G60" s="32">
+      <c r="G60" s="30">
         <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
-      <c r="H60" s="93">
+      <c r="H60" s="91">
         <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F60,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>59.4</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="19">
         <f t="shared" si="30"/>
         <v>2.2759418799022657E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="49">
+      <c r="B61" s="47">
         <v>280</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <f t="shared" si="31"/>
         <v>277.00141442715699</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="70">
         <f t="shared" si="32"/>
         <v>-1.0825163398692883E-2</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="53" t="str">
+      <c r="E61" s="34"/>
+      <c r="F61" s="51" t="str">
         <f>VLOOKUP(A61,Соответствие!A:B,2,FALSE)</f>
         <v>ViewTicketList</v>
       </c>
-      <c r="G61" s="32">
+      <c r="G61" s="30">
         <f>C61/3</f>
         <v>92.333804809052324</v>
       </c>
-      <c r="H61" s="93">
+      <c r="H61" s="91">
         <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F61,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>95.4</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="19">
         <f t="shared" si="30"/>
         <v>3.2140410806579478E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="47">
         <v>73</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="33">
         <f t="shared" si="31"/>
         <v>77.142857142857139</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="70">
         <f t="shared" si="32"/>
         <v>5.3703703703703698E-2</v>
       </c>
-      <c r="E62" s="36"/>
-      <c r="F62" s="53" t="str">
+      <c r="E62" s="34"/>
+      <c r="F62" s="51" t="str">
         <f>VLOOKUP(A62,Соответствие!A:B,2,FALSE)</f>
         <v>DeleteTicket</v>
       </c>
-      <c r="G62" s="32">
+      <c r="G62" s="30">
         <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="H62" s="93">
+      <c r="H62" s="91">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F62,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>27</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="19">
         <f>1-G62/H62</f>
         <v>4.7619047619047672E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="47">
         <v>326</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="33">
         <f t="shared" si="31"/>
         <v>310</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="70">
         <f t="shared" si="32"/>
         <v>-5.1612903225806361E-2</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="53" t="str">
+      <c r="E63" s="34"/>
+      <c r="F63" s="51" t="str">
         <f>VLOOKUP(A63,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G63" s="32">
+      <c r="G63" s="30">
         <f>C63/3</f>
         <v>103.33333333333333</v>
       </c>
-      <c r="H63" s="93">
+      <c r="H63" s="91">
         <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F63,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>102.6</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="19">
         <f t="shared" si="30"/>
         <v>-7.1474983755686061E-3</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="49">
+      <c r="A64" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="47">
         <v>97</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="33">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="70">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E64" s="36"/>
-      <c r="F64" s="53" t="str">
+      <c r="E64" s="34"/>
+      <c r="F64" s="51" t="str">
         <f>VLOOKUP(A64,Соответствие!A:B,2,FALSE)</f>
         <v>OpenRegistrationPage</v>
       </c>
-      <c r="G64" s="32">
+      <c r="G64" s="30">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H64" s="93">
+      <c r="H64" s="91">
         <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F64,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="19">
         <f t="shared" si="30"/>
         <v>-1.0010010010010895E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="49">
+      <c r="A65" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="47">
         <v>97</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="33">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D65" s="72">
+      <c r="D65" s="70">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="53" t="str">
+      <c r="E65" s="34"/>
+      <c r="F65" s="51" t="str">
         <f>VLOOKUP(A65,Соответствие!A:B,2,FALSE)</f>
         <v>UserRegistered</v>
       </c>
-      <c r="G65" s="32">
+      <c r="G65" s="30">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H65" s="93">
+      <c r="H65" s="91">
         <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F65,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="19">
         <f t="shared" si="30"/>
         <v>-1.0010010010010895E-3</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="49">
+      <c r="A66" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="47">
         <v>97</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="33">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D66" s="72">
+      <c r="D66" s="70">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="53" t="str">
+      <c r="E66" s="34"/>
+      <c r="F66" s="51" t="str">
         <f>VLOOKUP(A66,Соответствие!A:B,2,FALSE)</f>
         <v>press continue</v>
       </c>
-      <c r="G66" s="32">
+      <c r="G66" s="30">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H66" s="93">
+      <c r="H66" s="91">
         <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F66,SummaryReport!A:J,8,FALSE))/10)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="19">
         <f t="shared" si="30"/>
         <v>-1.0010010010010895E-3</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="50">
+      <c r="B67" s="48">
         <f>SUM(B55:B66)</f>
         <v>2944</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="49">
         <f>SUM(C55:C66)</f>
         <v>2901.8670438472423</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="18">
         <f t="shared" si="32"/>
         <v>-1.4519257952252174E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I68" s="23"/>
+      <c r="I68" s="21"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="31"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5040,7 +5067,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5050,119 +5077,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="str">
+      <c r="A2" s="51" t="str">
         <f>'Автоматизированный расчет'!A55</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>88</v>
+      <c r="B2" s="51" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="str">
+      <c r="A3" s="51" t="str">
         <f>'Автоматизированный расчет'!A56</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>86</v>
+      <c r="B3" s="51" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="str">
+      <c r="A4" s="51" t="str">
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>89</v>
+      <c r="B4" s="90" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="str">
+      <c r="A5" s="51" t="str">
         <f>'Автоматизированный расчет'!A58</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>92</v>
+      <c r="B5" s="51" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="str">
+      <c r="A6" s="51" t="str">
         <f>'Автоматизированный расчет'!A59</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>99</v>
+      <c r="B6" s="51" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="str">
+      <c r="A7" s="51" t="str">
         <f>'Автоматизированный расчет'!A60</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>84</v>
+      <c r="B7" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="str">
+      <c r="A8" s="51" t="str">
         <f>'Автоматизированный расчет'!A61</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>101</v>
+      <c r="B8" s="51" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="str">
+      <c r="A9" s="51" t="str">
         <f>'Автоматизированный расчет'!A62</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>85</v>
+      <c r="B9" s="51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="str">
+      <c r="A10" s="51" t="str">
         <f>'Автоматизированный расчет'!A63</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>87</v>
+      <c r="B10" s="51" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="str">
+      <c r="A11" s="51" t="str">
         <f>'Автоматизированный расчет'!A64</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>90</v>
+      <c r="B11" s="51" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="str">
+      <c r="A12" s="51" t="str">
         <f>'Автоматизированный расчет'!A65</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>100</v>
+      <c r="B12" s="51" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="str">
+      <c r="A13" s="51" t="str">
         <f>'Автоматизированный расчет'!A66</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>91</v>
+      <c r="B13" s="51" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5190,40 +5217,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="E1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="G1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>79</v>
+      <c r="A2" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="C2">
         <v>0.29899999999999999</v>
@@ -5249,12 +5276,12 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="V2" s="58"/>
+      <c r="L2" s="56"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>3.4000000000000002E-2</v>
@@ -5283,7 +5310,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>4.2999999999999997E-2</v>
@@ -5312,7 +5339,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>7.5999999999999998E-2</v>
@@ -5341,7 +5368,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>5.3999999999999999E-2</v>
@@ -5370,7 +5397,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>5.5E-2</v>
@@ -5399,7 +5426,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>7.5999999999999998E-2</v>
@@ -5428,7 +5455,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>3.5000000000000003E-2</v>
@@ -5457,7 +5484,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>7.6999999999999999E-2</v>
@@ -5486,7 +5513,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>3.4000000000000002E-2</v>
@@ -5515,7 +5542,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12">
         <v>0.29899999999999999</v>
@@ -5544,7 +5571,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>0.34200000000000003</v>
@@ -5573,7 +5600,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>0.47599999999999998</v>
@@ -5602,7 +5629,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>0.45700000000000002</v>
@@ -5631,7 +5658,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>0.72499999999999998</v>
@@ -5660,7 +5687,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17">
         <v>0.36</v>
@@ -5689,7 +5716,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>0.03</v>
@@ -5718,7 +5745,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>6.2E-2</v>
@@ -5747,7 +5774,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5776,7 +5803,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5805,7 +5832,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>3.4000000000000002E-2</v>
@@ -5846,44 +5873,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C9:O44"/>
+  <dimension ref="C9:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="1.42578125" customWidth="1"/>
-    <col min="12" max="12" width="40.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="98" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-    </row>
-    <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+      <c r="E9" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="11" spans="5:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="98" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5900,561 +5927,701 @@
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="4">
-        <v>368</v>
+      <c r="F12" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="8">
+        <v>422</v>
       </c>
       <c r="H12" s="3">
-        <f>121*3</f>
-        <v>363</v>
-      </c>
-      <c r="I12" s="5">
+        <f>633*0.6</f>
+        <v>379.8</v>
+      </c>
+      <c r="I12" s="99">
         <f>1-G12/H12</f>
-        <v>-1.377410468319562E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
+        <v>-0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4">
-        <v>251</v>
+      <c r="F13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="8">
+        <f>282</f>
+        <v>282</v>
       </c>
       <c r="H13" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I13" s="5">
+        <f>424*0.6</f>
+        <v>254.39999999999998</v>
+      </c>
+      <c r="I13" s="99">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
-        <v>-2.0325203252032464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
+        <v>-0.10849056603773599</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="4">
-        <v>251</v>
+      <c r="F14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="8">
+        <f>270</f>
+        <v>270</v>
       </c>
       <c r="H14" s="3">
-        <f>82*3</f>
-        <v>246</v>
-      </c>
-      <c r="I14" s="5">
+        <f>386*0.6</f>
+        <v>231.6</v>
+      </c>
+      <c r="I14" s="99">
         <f t="shared" si="0"/>
-        <v>-2.0325203252032464E-2</v>
+        <v>-0.16580310880829008</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="8">
+        <f>175</f>
         <v>175</v>
       </c>
       <c r="H15" s="3">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I15" s="6">
+        <f>258*0.6</f>
+        <v>154.79999999999998</v>
+      </c>
+      <c r="I15" s="99">
         <f t="shared" si="0"/>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>-0.1304909560723515</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4">
-        <v>159</v>
-      </c>
-      <c r="H16" s="4">
-        <f>56*3</f>
-        <v>168</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="F16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="8">
+        <f>280</f>
+        <v>280</v>
+      </c>
+      <c r="H16" s="3">
+        <f>420*0.6</f>
+        <v>252</v>
+      </c>
+      <c r="I16" s="99">
         <f t="shared" si="0"/>
-        <v>5.3571428571428603E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
+        <v>-0.11111111111111116</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="8">
+        <f>73</f>
         <v>73</v>
       </c>
       <c r="H17" s="3">
-        <f>25*3</f>
+        <f>125*0.6</f>
         <v>75</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="0"/>
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="8">
+        <f>326</f>
         <v>326</v>
       </c>
       <c r="H18" s="3">
-        <f>104*3</f>
-        <v>312</v>
-      </c>
-      <c r="I18" s="5">
+        <f>437*0.6</f>
+        <v>262.2</v>
+      </c>
+      <c r="I18" s="99">
         <f t="shared" si="0"/>
-        <v>-4.4871794871794934E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="98" t="s">
+        <v>-0.24332570556826849</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="L23" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10">
+      <c r="L25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="8">
+        <v>422</v>
+      </c>
+      <c r="H26" s="7">
+        <v>407</v>
+      </c>
+      <c r="I26" s="9">
+        <f>1-G26/H26</f>
+        <v>-3.6855036855036882E-2</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="8">
+        <v>422</v>
+      </c>
+      <c r="O26" s="7">
+        <f>543-(543/4)</f>
+        <v>407.25</v>
+      </c>
+      <c r="P26" s="9">
+        <f>1-N26/O26</f>
+        <v>-3.6218538980969939E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="8">
+        <f>282</f>
+        <v>282</v>
+      </c>
+      <c r="H27" s="7">
+        <v>290</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
+        <v>2.7586206896551779E-2</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="8">
+        <v>282</v>
+      </c>
+      <c r="O27" s="7">
+        <f>382-(382/4)</f>
+        <v>286.5</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" ref="P27:P32" si="2">1-N27/O27</f>
+        <v>1.5706806282722474E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="8">
+        <f>270</f>
+        <v>270</v>
+      </c>
+      <c r="H28" s="7">
+        <v>264</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.2727272727272707E-2</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="N28" s="8">
+        <v>270</v>
+      </c>
+      <c r="O28" s="7">
+        <f>350-(350/4)</f>
+        <v>262.5</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.857142857142847E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="8">
+        <f>175</f>
+        <v>175</v>
+      </c>
+      <c r="H29" s="7">
+        <v>174</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.7471264367816577E-3</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N29" s="8">
+        <v>175</v>
+      </c>
+      <c r="O29" s="7">
+        <f>230-(230/4)</f>
+        <v>172.5</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.449275362318847E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="8">
+        <f>280</f>
+        <v>280</v>
+      </c>
+      <c r="H30" s="7">
+        <v>278</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="1"/>
+        <v>-7.194244604316502E-3</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N30" s="8">
+        <v>280</v>
+      </c>
+      <c r="O30" s="7">
+        <f>366-(366/4)</f>
+        <v>274.5</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.0036429872495543E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="8">
+        <f>73</f>
+        <v>73</v>
+      </c>
+      <c r="H31" s="7">
+        <v>78</v>
+      </c>
+      <c r="I31" s="97">
+        <f t="shared" si="1"/>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="8">
+        <v>73</v>
+      </c>
+      <c r="O31" s="7">
+        <f>102-(102/4)</f>
+        <v>76.5</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5751633986928053E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="8">
+        <f>326</f>
+        <v>326</v>
+      </c>
+      <c r="H32" s="7">
+        <v>309</v>
+      </c>
+      <c r="I32" s="97">
+        <f t="shared" si="1"/>
+        <v>-5.5016181229773364E-2</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="8">
+        <v>326</v>
+      </c>
+      <c r="O32" s="7">
+        <f>413-(413/4)</f>
+        <v>309.75</v>
+      </c>
+      <c r="P32" s="97">
+        <f t="shared" si="2"/>
+        <v>-5.246166263115426E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="8">
         <f>5*368</f>
         <v>1840</v>
       </c>
-      <c r="H26" s="9">
-        <f>721*3</f>
-        <v>2163</v>
-      </c>
-      <c r="I26" s="11">
-        <f>1-G26/H26</f>
-        <v>0.14932963476652794</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
+      <c r="H38" s="7">
+        <v>2109</v>
+      </c>
+      <c r="I38" s="9">
+        <f>1-G38/H38</f>
+        <v>0.12754860123281175</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="12">
+        <v>377</v>
+      </c>
+      <c r="N38" s="12">
+        <v>27</v>
+      </c>
+      <c r="O38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="8">
         <f>5*251</f>
         <v>1255</v>
       </c>
-      <c r="H27" s="9">
-        <f>3*464</f>
-        <v>1392</v>
-      </c>
-      <c r="I27" s="11">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
-        <v>9.8419540229885083E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="13" t="s">
+      <c r="H39" s="12">
+        <v>1315</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" ref="I39:I44" si="3">1-G39/H39</f>
+        <v>4.5627376425855459E-2</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="12">
+        <v>998</v>
+      </c>
+      <c r="N39" s="12">
+        <v>1</v>
+      </c>
+      <c r="O39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F40" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="8">
         <f>5*251</f>
         <v>1255</v>
       </c>
-      <c r="H28" s="9">
-        <f>3*462</f>
-        <v>1386</v>
-      </c>
-      <c r="I28" s="11">
-        <f t="shared" si="1"/>
-        <v>9.4516594516594554E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="13" t="s">
+      <c r="H40" s="7">
+        <v>1315</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="3"/>
+        <v>4.5627376425855459E-2</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0</v>
+      </c>
+      <c r="O40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="8">
         <f>5*175</f>
         <v>875</v>
       </c>
-      <c r="H29" s="9">
-        <f>3*314</f>
-        <v>942</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="1"/>
-        <v>7.1125265392781301E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="13" t="s">
+      <c r="H41" s="12">
+        <v>924</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3030303030302983E-2</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" s="12">
+        <v>139</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="10">
+      <c r="F42" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="8">
         <f>5*159</f>
         <v>795</v>
       </c>
-      <c r="H30" s="9">
-        <f>3*330</f>
-        <v>990</v>
-      </c>
-      <c r="I30" s="11">
-        <f t="shared" si="1"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="13" t="s">
+      <c r="H42" s="12">
+        <v>998</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="3"/>
+        <v>0.20340681362725455</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="12">
+        <v>1</v>
+      </c>
+      <c r="O42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="10">
+      <c r="F43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="8">
         <f>5*73</f>
         <v>365</v>
       </c>
-      <c r="H31" s="9">
-        <f>3*141</f>
-        <v>423</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13711583924349879</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
+      <c r="H43" s="12">
+        <v>404</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="3"/>
+        <v>9.6534653465346509E-2</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="12">
+        <v>924</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="F44" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="8">
         <f>5*326</f>
         <v>1630</v>
       </c>
-      <c r="H32" s="9">
-        <f>3*599</f>
-        <v>1797</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="1"/>
-        <v>9.2932665553700611E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="9">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="11">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="14">
-        <v>377</v>
-      </c>
-      <c r="N38" s="14">
-        <v>27</v>
-      </c>
-      <c r="O38" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="11">
-        <f t="shared" ref="I39:I44" si="2">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="14">
-        <v>998</v>
-      </c>
-      <c r="N39" s="14">
-        <v>1</v>
-      </c>
-      <c r="O39" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12" t="s">
+      <c r="H44" s="7">
+        <v>1675</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="3"/>
+        <v>2.68656716417911E-2</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="10">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="9">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="11">
-        <f t="shared" si="2"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N40" s="14">
-        <v>0</v>
-      </c>
-      <c r="O40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="10">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="14">
-        <v>924</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="2"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="14">
-        <v>139</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="10">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="14">
-        <v>998</v>
-      </c>
-      <c r="I42" s="11">
-        <f t="shared" si="2"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N42" s="14">
-        <v>1</v>
-      </c>
-      <c r="O42" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" s="10">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="14">
-        <v>404</v>
-      </c>
-      <c r="I43" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="14">
-        <v>924</v>
-      </c>
-      <c r="N43" s="14">
-        <v>0</v>
-      </c>
-      <c r="O43" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="10">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="9">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="2"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="14">
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
+      <c r="M44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" s="12">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="E23:I23"/>
     <mergeCell ref="E35:I35"/>
     <mergeCell ref="E9:I9"/>
+    <mergeCell ref="L23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213B8C7-B715-4C1C-8E4E-282371612301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7271F16-5105-4A49-AE95-ABA039EC8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="103">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -709,9 +709,6 @@
     <t>Duration + Think_time</t>
   </si>
   <si>
-    <t>Action_Transaction</t>
-  </si>
-  <si>
     <t>Профиль</t>
   </si>
   <si>
@@ -776,12 +773,6 @@
   </si>
   <si>
     <t>ViewTicketList</t>
-  </si>
-  <si>
-    <t>vuser_end_Transaction</t>
-  </si>
-  <si>
-    <t>vuser_init_Transaction</t>
   </si>
   <si>
     <r>
@@ -1967,7 +1958,7 @@
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2072,7 +2063,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2110,6 +2100,15 @@
     <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2124,15 +2123,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="80">
@@ -3045,7 +3035,7 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,7 +3088,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s">
         <v>48</v>
@@ -3125,7 +3115,7 @@
         <v>46</v>
       </c>
       <c r="T1" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U1" s="44" t="s">
         <v>44</v>
@@ -3138,16 +3128,16 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="72">
         <v>1</v>
       </c>
-      <c r="D2" s="75">
+      <c r="D2" s="74">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3201,10 +3191,10 @@
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="88">
+      <c r="U2" s="87">
         <v>20</v>
       </c>
-      <c r="V2" s="89">
+      <c r="V2" s="88">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
@@ -3221,16 +3211,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="72">
         <v>1</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="74">
         <f t="shared" ref="D3:D8" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3284,10 +3274,10 @@
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="88">
+      <c r="U3" s="87">
         <v>20</v>
       </c>
-      <c r="V3" s="89">
+      <c r="V3" s="88">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
@@ -3301,16 +3291,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>1</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3364,10 +3354,10 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="88">
+      <c r="U4" s="87">
         <v>20</v>
       </c>
-      <c r="V4" s="89">
+      <c r="V4" s="88">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
@@ -3381,16 +3371,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>1</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3422,18 +3412,18 @@
       <c r="N5" s="17">
         <v>1.7</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="60">
         <f>5*5</f>
         <v>25</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="61">
         <f>N5+O5</f>
         <v>26.7</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="62">
         <v>80</v>
       </c>
-      <c r="R5" s="64">
+      <c r="R5" s="63">
         <v>2</v>
       </c>
       <c r="S5" s="42">
@@ -3444,10 +3434,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="88">
+      <c r="U5" s="87">
         <v>20</v>
       </c>
-      <c r="V5" s="89">
+      <c r="V5" s="88">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
@@ -3461,16 +3451,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>1</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3513,7 +3503,7 @@
       <c r="Q6" s="22">
         <v>70</v>
       </c>
-      <c r="R6" s="69">
+      <c r="R6" s="68">
         <v>2</v>
       </c>
       <c r="S6" s="42">
@@ -3524,10 +3514,10 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="88">
+      <c r="U6" s="87">
         <v>20</v>
       </c>
-      <c r="V6" s="89">
+      <c r="V6" s="88">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
@@ -3541,16 +3531,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>1</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3582,18 +3572,18 @@
       <c r="N7" s="17">
         <v>0.9</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="64">
         <f>5*2</f>
         <v>10</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="65">
         <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
-      <c r="Q7" s="67">
+      <c r="Q7" s="66">
         <v>60</v>
       </c>
-      <c r="R7" s="68">
+      <c r="R7" s="67">
         <v>2</v>
       </c>
       <c r="S7" s="42">
@@ -3604,10 +3594,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="88">
+      <c r="U7" s="87">
         <v>20</v>
       </c>
-      <c r="V7" s="89">
+      <c r="V7" s="88">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
@@ -3621,16 +3611,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="82">
         <v>1</v>
       </c>
-      <c r="D8" s="75">
+      <c r="D8" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3650,7 +3640,7 @@
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="70" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="15">
@@ -3672,16 +3662,16 @@
       <c r="W8" s="28"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="84">
         <v>1</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="79">
         <f t="shared" ref="D9:D21" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3709,16 +3699,16 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="85" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>1</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="79">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3747,16 +3737,16 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="79">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3785,16 +3775,16 @@
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="84">
         <v>1</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="79">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3823,16 +3813,16 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="80">
         <v>1</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="81">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3861,16 +3851,16 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <v>1</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3891,7 +3881,7 @@
         <v>33.333333333333336</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="15">
         <v>967.28901461574731</v>
@@ -3899,16 +3889,16 @@
       <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="72">
         <v>1</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3931,16 +3921,16 @@
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="78">
         <v>1</v>
       </c>
-      <c r="D16" s="80">
+      <c r="D16" s="79">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3963,16 +3953,16 @@
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="72">
         <v>1</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3994,16 +3984,16 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="72">
         <v>1</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4028,16 +4018,16 @@
       <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <v>1</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4060,16 +4050,16 @@
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <v>1</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4092,16 +4082,16 @@
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <v>4</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="74">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4123,16 +4113,16 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="72">
         <v>3</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="74">
         <f t="shared" ref="D22" si="17">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -4155,16 +4145,16 @@
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="72">
         <v>1</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="74">
         <f t="shared" ref="D23:D33" si="22">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4187,16 +4177,16 @@
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="73">
+      <c r="C24" s="72">
         <v>1</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4219,16 +4209,16 @@
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="72">
         <v>1</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4248,21 +4238,21 @@
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="I25" s="72"/>
+      <c r="I25" s="71"/>
       <c r="N25" s="16"/>
       <c r="P25" s="15"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="72">
         <v>1</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4284,16 +4274,16 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="72">
         <v>1</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4315,16 +4305,16 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="72">
         <v>1</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4346,16 +4336,16 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="72">
         <v>1</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4377,16 +4367,16 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="72">
         <v>1</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4409,16 +4399,16 @@
       <c r="P30" s="15"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <v>1</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4442,16 +4432,16 @@
       <c r="T31" s="15"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="73">
+      <c r="C32" s="72">
         <v>1</v>
       </c>
-      <c r="D32" s="75">
+      <c r="D32" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4475,16 +4465,16 @@
       <c r="T32" s="15"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <v>1</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="74">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4508,16 +4498,16 @@
       <c r="T33" s="15"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="72">
         <v>1</v>
       </c>
-      <c r="D34" s="75">
+      <c r="D34" s="74">
         <f t="shared" ref="D34" si="27">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4541,16 +4531,16 @@
       <c r="T34" s="15"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="78">
         <v>1</v>
       </c>
-      <c r="D35" s="80">
+      <c r="D35" s="79">
         <f>VLOOKUP(A35,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4574,7 +4564,7 @@
       <c r="T35" s="15"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
+      <c r="A36" s="71"/>
       <c r="F36" s="16"/>
       <c r="H36" s="15"/>
       <c r="T36" s="15"/>
@@ -4586,14 +4576,14 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="95"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="97"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
@@ -4616,7 +4606,7 @@
         <v>52</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>56</v>
@@ -4633,7 +4623,7 @@
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
         <v>509.85855728429988</v>
       </c>
-      <c r="D55" s="70">
+      <c r="D55" s="69">
         <f>1-B55/C55</f>
         <v>-1.9890698255055961E-2</v>
       </c>
@@ -4646,13 +4636,13 @@
         <f>C55/3</f>
         <v>169.95285242809996</v>
       </c>
-      <c r="H55" s="91">
-        <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F55,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>171</v>
+      <c r="H55" s="90">
+        <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
+        <v>172</v>
       </c>
       <c r="I55" s="19">
         <f>1-G55/H55</f>
-        <v>6.1236700111113596E-3</v>
+        <v>1.1902020766860755E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4666,7 +4656,7 @@
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
         <v>409.85855728429988</v>
       </c>
-      <c r="D56" s="70">
+      <c r="D56" s="69">
         <f>1-B56/C56</f>
         <v>-2.9623494495634395E-2</v>
       </c>
@@ -4679,13 +4669,13 @@
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="91">
-        <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F56,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>137.69999999999999</v>
+      <c r="H56" s="90">
+        <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
+        <v>138</v>
       </c>
       <c r="I56" s="19">
         <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
-        <v>7.8466296676352743E-3</v>
+        <v>1.0003484820531816E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4699,7 +4689,7 @@
         <f t="shared" ref="C57:C66" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>289.85855728429988</v>
       </c>
-      <c r="D57" s="70">
+      <c r="D57" s="69">
         <f>1-B57/C57</f>
         <v>-5.2237349338798644E-2</v>
       </c>
@@ -4712,8 +4702,8 @@
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="91">
-        <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F57,SummaryReport!A:J,8,FALSE))/10)</f>
+      <c r="H57" s="90">
+        <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
         <v>99</v>
       </c>
       <c r="I57" s="19">
@@ -4732,7 +4722,7 @@
         <f t="shared" si="31"/>
         <v>289.85855728429988</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58" s="69">
         <f t="shared" ref="D58:D67" si="32">1-B58/C58</f>
         <v>2.7111696676914154E-2</v>
       </c>
@@ -4745,13 +4735,13 @@
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="91">
-        <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F58,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>99</v>
+      <c r="H58" s="90">
+        <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
+        <v>97</v>
       </c>
       <c r="I58" s="19">
         <f t="shared" si="30"/>
-        <v>2.4045261669023987E-2</v>
+        <v>3.9224835591068485E-3</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4765,7 +4755,7 @@
         <f t="shared" si="31"/>
         <v>264.14427157001415</v>
       </c>
-      <c r="D59" s="70">
+      <c r="D59" s="69">
         <f t="shared" si="32"/>
         <v>-2.2168674698795243E-2</v>
       </c>
@@ -4778,13 +4768,13 @@
         <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
-      <c r="H59" s="91">
-        <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F59,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>90</v>
+      <c r="H59" s="90">
+        <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
+        <v>88</v>
       </c>
       <c r="I59" s="19">
         <f t="shared" si="30"/>
-        <v>2.1687883074021697E-2</v>
+        <v>-5.4648321975059311E-4</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4798,7 +4788,7 @@
         <f t="shared" si="31"/>
         <v>174.14427157001415</v>
       </c>
-      <c r="D60" s="70">
+      <c r="D60" s="69">
         <f t="shared" si="32"/>
         <v>-4.9139051332032224E-3</v>
       </c>
@@ -4811,13 +4801,13 @@
         <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
-      <c r="H60" s="91">
-        <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F60,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>59.4</v>
+      <c r="H60" s="90">
+        <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)</f>
+        <v>58</v>
       </c>
       <c r="I60" s="19">
         <f t="shared" si="30"/>
-        <v>2.2759418799022657E-2</v>
+        <v>-8.2914695410440942E-4</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4831,7 +4821,7 @@
         <f t="shared" si="31"/>
         <v>277.00141442715699</v>
       </c>
-      <c r="D61" s="70">
+      <c r="D61" s="69">
         <f t="shared" si="32"/>
         <v>-1.0825163398692883E-2</v>
       </c>
@@ -4844,13 +4834,13 @@
         <f>C61/3</f>
         <v>92.333804809052324</v>
       </c>
-      <c r="H61" s="91">
-        <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F61,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>95.4</v>
+      <c r="H61" s="90">
+        <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
+        <v>94</v>
       </c>
       <c r="I61" s="19">
         <f t="shared" si="30"/>
-        <v>3.2140410806579478E-2</v>
+        <v>1.7725480754762546E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4864,7 +4854,7 @@
         <f t="shared" si="31"/>
         <v>77.142857142857139</v>
       </c>
-      <c r="D62" s="70">
+      <c r="D62" s="69">
         <f t="shared" si="32"/>
         <v>5.3703703703703698E-2</v>
       </c>
@@ -4877,8 +4867,8 @@
         <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="H62" s="91">
-        <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F62,SummaryReport!A:J,8,FALSE))/10)</f>
+      <c r="H62" s="90">
+        <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
         <v>27</v>
       </c>
       <c r="I62" s="19">
@@ -4897,7 +4887,7 @@
         <f t="shared" si="31"/>
         <v>310</v>
       </c>
-      <c r="D63" s="70">
+      <c r="D63" s="69">
         <f t="shared" si="32"/>
         <v>-5.1612903225806361E-2</v>
       </c>
@@ -4910,13 +4900,13 @@
         <f>C63/3</f>
         <v>103.33333333333333</v>
       </c>
-      <c r="H63" s="91">
-        <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F63,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>102.6</v>
+      <c r="H63" s="90">
+        <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)</f>
+        <v>102</v>
       </c>
       <c r="I63" s="19">
         <f t="shared" si="30"/>
-        <v>-7.1474983755686061E-3</v>
+        <v>-1.3071895424836555E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4930,7 +4920,7 @@
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D64" s="70">
+      <c r="D64" s="69">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -4943,13 +4933,13 @@
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H64" s="91">
-        <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F64,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>33.299999999999997</v>
+      <c r="H64" s="90">
+        <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)</f>
+        <v>34</v>
       </c>
       <c r="I64" s="19">
         <f t="shared" si="30"/>
-        <v>-1.0010010010010895E-3</v>
+        <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4963,7 +4953,7 @@
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D65" s="69">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -4976,13 +4966,13 @@
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H65" s="91">
-        <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F65,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>33.299999999999997</v>
+      <c r="H65" s="90">
+        <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)</f>
+        <v>34</v>
       </c>
       <c r="I65" s="19">
         <f t="shared" si="30"/>
-        <v>-1.0010010010010895E-3</v>
+        <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4996,7 +4986,7 @@
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D66" s="69">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -5009,13 +4999,13 @@
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H66" s="91">
-        <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)-((VLOOKUP(F66,SummaryReport!A:J,8,FALSE))/10)</f>
-        <v>33.299999999999997</v>
+      <c r="H66" s="90">
+        <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)</f>
+        <v>33</v>
       </c>
       <c r="I66" s="19">
         <f t="shared" si="30"/>
-        <v>-1.0010010010010895E-3</v>
+        <v>-1.0101010101010166E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5090,7 +5080,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5099,7 +5089,7 @@
         <v>Вход в систему</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5107,8 +5097,8 @@
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>88</v>
+      <c r="B4" s="89" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5117,7 +5107,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5126,7 +5116,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5135,7 +5125,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5134,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5153,7 +5143,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5162,7 +5152,7 @@
         <v>Выход из системы</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5171,7 +5161,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5180,7 +5170,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5189,7 +5179,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5199,10 +5189,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,90 +5206,88 @@
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>78</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>0.29899999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>0.52200000000000002</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E2">
-        <v>4.7480000000000002</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
-        <v>0.54400000000000004</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
-        <v>0.59699999999999998</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H2">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="V2" s="56"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="C3">
-        <v>3.4000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D3">
-        <v>3.6999999999999998E-2</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G3">
-        <v>3.9E-2</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="H3">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5308,27 +5296,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
       <c r="C4">
-        <v>4.2999999999999997E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>0.23499999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="F4">
-        <v>5.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G4">
-        <v>0.21099999999999999</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5337,27 +5325,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>85</v>
       </c>
       <c r="C5">
-        <v>7.5999999999999998E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>8.3000000000000004E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>0.22500000000000001</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F5">
-        <v>1.7999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G5">
-        <v>9.0999999999999998E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H5">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5366,85 +5354,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
       <c r="C6">
-        <v>5.3999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D6">
-        <v>5.6000000000000001E-2</v>
+        <v>0.106</v>
       </c>
       <c r="E6">
-        <v>5.8000000000000003E-2</v>
+        <v>0.216</v>
       </c>
       <c r="F6">
-        <v>1E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G6">
-        <v>5.8000000000000003E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H6">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>87</v>
       </c>
       <c r="C7">
-        <v>5.5E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D7">
-        <v>0.105</v>
+        <v>0.108</v>
       </c>
       <c r="E7">
-        <v>0.216</v>
+        <v>0.112</v>
       </c>
       <c r="F7">
-        <v>5.2999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G7">
-        <v>0.16700000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="H7">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
       <c r="C8">
-        <v>7.5999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>0.11</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E8">
-        <v>0.20699999999999999</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F8">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.112</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H8">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -5453,27 +5441,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
       <c r="C9">
-        <v>3.5000000000000003E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>3.5000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="E9">
-        <v>3.5999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="G9">
-        <v>3.5000000000000003E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5482,27 +5470,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
       <c r="C10">
-        <v>7.6999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D10">
-        <v>7.9000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="E10">
-        <v>8.1000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F10">
         <v>1E-3</v>
       </c>
       <c r="G10">
-        <v>8.1000000000000003E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H10">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5511,85 +5499,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
       <c r="C11">
-        <v>3.4000000000000002E-2</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.308</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="F11">
-        <v>1E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G11">
-        <v>3.6999999999999998E-2</v>
+        <v>0.315</v>
       </c>
       <c r="H11">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
       <c r="C12">
-        <v>0.29899999999999999</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="D12">
-        <v>0.307</v>
+        <v>0.377</v>
       </c>
       <c r="E12">
-        <v>0.35099999999999998</v>
+        <v>0.438</v>
       </c>
       <c r="F12">
-        <v>0.01</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G12">
-        <v>0.315</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>93</v>
       </c>
       <c r="C13">
-        <v>0.34200000000000003</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="D13">
-        <v>0.377</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E13">
-        <v>0.438</v>
+        <v>0.7</v>
       </c>
       <c r="F13">
-        <v>1.4999999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="G13">
-        <v>0.38500000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -5598,27 +5586,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
       <c r="C14">
-        <v>0.47599999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D14">
-        <v>0.58899999999999997</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="E14">
-        <v>0.81399999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="F14">
-        <v>7.8E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G14">
-        <v>0.7</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5627,27 +5615,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
       <c r="C15">
-        <v>0.45700000000000002</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="D15">
-        <v>0.46800000000000003</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="E15">
-        <v>0.51</v>
+        <v>4.7480000000000002</v>
       </c>
       <c r="F15">
-        <v>8.9999999999999993E-3</v>
+        <v>1.153</v>
       </c>
       <c r="G15">
-        <v>0.47499999999999998</v>
+        <v>4.7480000000000002</v>
       </c>
       <c r="H15">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -5656,27 +5644,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
       <c r="C16">
-        <v>0.72499999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="D16">
-        <v>2.5270000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E16">
-        <v>4.7480000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="F16">
-        <v>1.0940000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G16">
-        <v>3.661</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -5687,25 +5675,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="D17">
-        <v>0.36499999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E17">
-        <v>0.40300000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F17">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G17">
-        <v>0.36799999999999999</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -5719,22 +5707,22 @@
         <v>99</v>
       </c>
       <c r="C18">
-        <v>0.03</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D18">
-        <v>3.1E-2</v>
+        <v>0.155</v>
       </c>
       <c r="E18">
-        <v>3.3000000000000002E-2</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="F18">
-        <v>1E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G18">
-        <v>3.2000000000000001E-2</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="H18">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -5745,25 +5733,25 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19">
-        <v>6.2E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D19">
-        <v>0.156</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E19">
-        <v>0.27600000000000002</v>
+        <v>0.04</v>
       </c>
       <c r="F19">
-        <v>5.1999999999999998E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="G19">
-        <v>0.23200000000000001</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5772,100 +5760,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D22">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E22">
-        <v>0.04</v>
-      </c>
-      <c r="F22">
-        <v>1E-3</v>
-      </c>
-      <c r="G22">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A18" display="UserRegistered" xr:uid="{C9B40D0C-9093-4E63-BF9F-DFD053D8A286}"/>
-    <hyperlink ref="A19" display="ViewTicketList" xr:uid="{952F5087-CC49-47E9-87E4-7B0E22C0D4C6}"/>
-    <hyperlink ref="A20" display="vuser_end_Transaction" xr:uid="{201E2D32-2A2A-4928-AE33-A0498DDA0BB0}"/>
-    <hyperlink ref="A21" display="vuser_init_Transaction" xr:uid="{711D9A9F-CA90-4905-9BA4-7F9FC10E6ADD}"/>
-    <hyperlink ref="A22" display="СhooseDepartureTime" xr:uid="{EA9DF175-B197-46D0-A19D-38A0F73CFABA}"/>
+    <hyperlink ref="A2" xr:uid="{CAD88E3E-CAF9-47B8-9CAC-558280E3DC87}"/>
+    <hyperlink ref="A3" xr:uid="{C3EB1C5D-8F5C-4493-B3B3-83EF477EBAFC}"/>
+    <hyperlink ref="A4" xr:uid="{523A220C-C0BC-4586-AB2D-525E5BB64F81}"/>
+    <hyperlink ref="A5" xr:uid="{E75052CA-7BBF-4922-ACD2-9966B2A68261}"/>
+    <hyperlink ref="A6" xr:uid="{C6836C6D-EA30-4430-BD9D-B5F159077A0A}"/>
+    <hyperlink ref="A7" xr:uid="{81178DB6-ABBD-4723-946E-817D5966915D}"/>
+    <hyperlink ref="A8" xr:uid="{B5B4C3B7-AA61-4BE0-8A6C-50CEFDF8DED0}"/>
+    <hyperlink ref="A9" xr:uid="{28681E23-2C00-48DC-97D2-E932F7C76BEE}"/>
+    <hyperlink ref="A10" xr:uid="{946308BF-EE88-43CE-BCCC-C1D7805649EA}"/>
+    <hyperlink ref="A11" xr:uid="{415B5270-B86C-4F08-A1C1-00EBF2F4491F}"/>
+    <hyperlink ref="A12" xr:uid="{F4E51458-499D-4332-9C24-1E811D213D02}"/>
+    <hyperlink ref="A13" xr:uid="{F33B33B4-F165-4FF3-BAF5-6DAE4D6C0E75}"/>
+    <hyperlink ref="A14" xr:uid="{95AC6949-4F9F-4A12-9689-46DFFD11FF4C}"/>
+    <hyperlink ref="A15" xr:uid="{9E28DCA7-18AE-4F1E-8F6A-8FBF594ECCAA}"/>
+    <hyperlink ref="A16" xr:uid="{DD35DEBB-2179-47F8-BC28-0799706622C5}"/>
+    <hyperlink ref="A17" xr:uid="{BA392A4D-D3A1-4CDF-8CAE-CBF0F1CED951}"/>
+    <hyperlink ref="A18" xr:uid="{E7595B25-3867-4E89-8AF0-D55D46B83395}"/>
+    <hyperlink ref="A19" xr:uid="{D424C7A1-32B5-41CF-B9AC-C47323E64544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5875,7 +5789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C9:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -5898,19 +5812,19 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
+      <c r="E9" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
     </row>
     <row r="11" spans="5:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="92" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5928,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8">
         <v>422</v>
@@ -5937,7 +5851,7 @@
         <f>633*0.6</f>
         <v>379.8</v>
       </c>
-      <c r="I12" s="99">
+      <c r="I12" s="93">
         <f>1-G12/H12</f>
         <v>-0.11111111111111116</v>
       </c>
@@ -5947,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="8">
         <f>282</f>
@@ -5957,7 +5871,7 @@
         <f>424*0.6</f>
         <v>254.39999999999998</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="93">
         <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
         <v>-0.10849056603773599</v>
       </c>
@@ -5967,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="8">
         <f>270</f>
@@ -5977,7 +5891,7 @@
         <f>386*0.6</f>
         <v>231.6</v>
       </c>
-      <c r="I14" s="99">
+      <c r="I14" s="93">
         <f t="shared" si="0"/>
         <v>-0.16580310880829008</v>
       </c>
@@ -5987,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G15" s="8">
         <f>175</f>
@@ -5997,7 +5911,7 @@
         <f>258*0.6</f>
         <v>154.79999999999998</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I15" s="93">
         <f t="shared" si="0"/>
         <v>-0.1304909560723515</v>
       </c>
@@ -6007,7 +5921,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="8">
         <f>280</f>
@@ -6017,7 +5931,7 @@
         <f>420*0.6</f>
         <v>252</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I16" s="93">
         <f t="shared" si="0"/>
         <v>-0.11111111111111116</v>
       </c>
@@ -6027,7 +5941,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8">
         <f>73</f>
@@ -6047,7 +5961,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="8">
         <f>326</f>
@@ -6057,26 +5971,26 @@
         <f>437*0.6</f>
         <v>262.2</v>
       </c>
-      <c r="I18" s="99">
+      <c r="I18" s="93">
         <f t="shared" si="0"/>
         <v>-0.24332570556826849</v>
       </c>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="L23" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="L23" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
@@ -6115,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="8">
         <v>422</v>
@@ -6131,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N26" s="8">
         <v>422</v>
@@ -6150,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G27" s="8">
         <f>282</f>
@@ -6167,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N27" s="8">
         <v>282</v>
@@ -6186,7 +6100,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G28" s="8">
         <f>270</f>
@@ -6203,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N28" s="8">
         <v>270</v>
@@ -6222,7 +6136,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" s="8">
         <f>175</f>
@@ -6239,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" s="8">
         <v>175</v>
@@ -6258,7 +6172,7 @@
         <v>20</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="8">
         <f>280</f>
@@ -6275,7 +6189,7 @@
         <v>20</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N30" s="8">
         <v>280</v>
@@ -6294,7 +6208,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="8">
         <f>73</f>
@@ -6303,7 +6217,7 @@
       <c r="H31" s="7">
         <v>78</v>
       </c>
-      <c r="I31" s="97">
+      <c r="I31" s="91">
         <f t="shared" si="1"/>
         <v>6.4102564102564097E-2</v>
       </c>
@@ -6311,7 +6225,7 @@
         <v>5</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N31" s="8">
         <v>73</v>
@@ -6330,7 +6244,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="8">
         <f>326</f>
@@ -6339,7 +6253,7 @@
       <c r="H32" s="7">
         <v>309</v>
       </c>
-      <c r="I32" s="97">
+      <c r="I32" s="91">
         <f t="shared" si="1"/>
         <v>-5.5016181229773364E-2</v>
       </c>
@@ -6347,7 +6261,7 @@
         <v>6</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N32" s="8">
         <v>326</v>
@@ -6356,19 +6270,19 @@
         <f>413-(413/4)</f>
         <v>309.75</v>
       </c>
-      <c r="P32" s="97">
+      <c r="P32" s="91">
         <f t="shared" si="2"/>
         <v>-5.246166263115426E-2</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="6" t="s">
@@ -6404,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="8">
         <f>5*368</f>
@@ -6435,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G39" s="8">
         <f>5*251</f>
@@ -6466,7 +6380,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G40" s="8">
         <f>5*251</f>
@@ -6497,7 +6411,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" s="8">
         <f>5*175</f>
@@ -6528,7 +6442,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="8">
         <f>5*159</f>
@@ -6559,7 +6473,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="8">
         <f>5*73</f>
@@ -6590,7 +6504,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" s="8">
         <f>5*326</f>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7271F16-5105-4A49-AE95-ABA039EC8CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9D486-E503-4610-80C0-16000ABD90B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -775,22 +775,6 @@
     <t>ViewTicketList</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Фактическая интенсивность в тесте </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(-10% из-за 2 мин)</t>
-    </r>
-  </si>
-  <si>
     <t>Поиск максимума 4 ступень</t>
   </si>
   <si>
@@ -809,12 +793,15 @@
       <t>(Я так понял это 5 ступень)</t>
     </r>
   </si>
+  <si>
+    <t>Фактическая интенсивность в тесте</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,14 +1082,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -2100,13 +2079,13 @@
     <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3034,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4606,7 +4585,7 @@
         <v>52</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I54" s="20" t="s">
         <v>56</v>
@@ -5191,7 +5170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27:D28"/>
     </sheetView>
   </sheetViews>
@@ -5813,7 +5792,7 @@
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="98"/>
       <c r="G9" s="98"/>
@@ -5985,7 +5964,7 @@
       <c r="H23" s="98"/>
       <c r="I23" s="98"/>
       <c r="L23" s="98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M23" s="98"/>
       <c r="N23" s="98"/>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9D486-E503-4610-80C0-16000ABD90B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611C768F-D41D-4E11-BDDD-970B87085DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="106">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Поиск максимума 3 ступень</t>
   </si>
   <si>
-    <t>Подтверждение максимума</t>
-  </si>
-  <si>
     <t>1 315,</t>
   </si>
   <si>
@@ -775,14 +772,24 @@
     <t>ViewTicketList</t>
   </si>
   <si>
-    <t>Поиск максимума 4 ступень</t>
+    <t>Фактическая интенсивность в тесте</t>
+  </si>
+  <si>
+    <t>Поиск максимума 5 ступень</t>
+  </si>
+  <si>
+    <t>Поиск максимума 2 ступень</t>
+  </si>
+  <si>
+    <t>Поиск максимума 1 ступень</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Профиль для 5 пользаков </t>
+      <t xml:space="preserve">Поиск максимума 4 ступень </t>
     </r>
     <r>
       <rPr>
+        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -790,23 +797,48 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Я так понял это 5 ступень)</t>
+      <t>(Выбрана как максимум)</t>
     </r>
   </si>
   <si>
-    <t>Фактическая интенсивность в тесте</t>
+    <r>
+      <t xml:space="preserve">Подтверждение максимума </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(90% от 40 = 36 vusers)</t>
+    </r>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,21 +948,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1082,12 +1099,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="44">
@@ -1857,120 +1910,93 @@
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1980,23 +2006,23 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -2018,34 +2044,34 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="34" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2059,12 +2085,12 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -2073,21 +2099,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2103,6 +2120,41 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3014,7 +3066,7 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,81 +3094,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="N1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="35" t="s">
+      <c r="O1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="36" t="s">
+      <c r="S1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="43" t="s">
+      <c r="V1" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="72">
+      <c r="B2" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="63">
         <v>1</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="65">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3124,7 +3176,7 @@
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="7">
         <f>60/E2*C2</f>
         <v>0.59405940594059403</v>
       </c>
@@ -3132,52 +3184,52 @@
         <f>VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="6">
         <f>D2*F2*G2</f>
         <v>23.762376237623762</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="6">
         <v>136.61951909476662</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="8">
         <v>1.9</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="23">
         <f>5*6</f>
         <v>30</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="24">
         <f>N2+O2</f>
         <v>31.9</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="13">
         <v>101</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="32">
         <v>2</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="33">
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="54">
+      <c r="T2" s="45">
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="87">
+      <c r="U2" s="78">
         <v>20</v>
       </c>
-      <c r="V2" s="88">
+      <c r="V2" s="79">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
-      <c r="W2" s="27">
+      <c r="W2" s="18">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
@@ -3190,16 +3242,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="63">
         <v>1</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="65">
         <f t="shared" ref="D3:D8" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3207,7 +3259,7 @@
         <f t="shared" ref="E3:E8" si="2">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F8" si="3">60/E3*C3</f>
         <v>0.59405940594059403</v>
       </c>
@@ -3215,52 +3267,52 @@
         <f t="shared" ref="G3:G8" si="4">VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H8" si="5">D3*F3*G3</f>
         <v>23.762376237623762</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="6">
         <v>88.048090523338047</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="8">
         <v>1.5</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="23">
         <f>2*10</f>
         <v>20</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="24">
         <f t="shared" ref="P3:P7" si="6">N3+O3</f>
         <v>21.5</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="13">
         <v>140</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="32">
         <v>1</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="33">
         <f t="shared" ref="S3:S6" si="7">R3/W$2</f>
         <v>0.1</v>
       </c>
-      <c r="T3" s="54">
+      <c r="T3" s="45">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="87">
+      <c r="U3" s="78">
         <v>20</v>
       </c>
-      <c r="V3" s="88">
+      <c r="V3" s="79">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
-      <c r="W3" s="27"/>
+      <c r="W3" s="18"/>
       <c r="Y3">
         <v>10</v>
       </c>
@@ -3270,16 +3322,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="72">
+      <c r="B4" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="63">
         <v>1</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3287,7 +3339,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="7">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3295,52 +3347,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="6">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="6">
         <v>103.33333333333334</v>
       </c>
-      <c r="M4" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="17">
+      <c r="M4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="8">
         <v>1</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="23">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="24">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="Q4" s="22">
+      <c r="Q4" s="13">
         <v>36</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="32">
         <v>1</v>
       </c>
-      <c r="S4" s="42">
+      <c r="S4" s="33">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="54">
+      <c r="T4" s="45">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="87">
+      <c r="U4" s="78">
         <v>20</v>
       </c>
-      <c r="V4" s="88">
+      <c r="V4" s="79">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
-      <c r="W4" s="27"/>
+      <c r="W4" s="18"/>
       <c r="Y4">
         <v>10</v>
       </c>
@@ -3350,16 +3402,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="63">
         <v>1</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3367,7 +3419,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="7">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3375,52 +3427,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="6">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="6">
         <v>96.619519094766616</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="17">
+      <c r="M5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="8">
         <v>1.7</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="51">
         <f>5*5</f>
         <v>25</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="52">
         <f>N5+O5</f>
         <v>26.7</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="53">
         <v>80</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="54">
         <v>2</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="33">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="45">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="87">
+      <c r="U5" s="78">
         <v>20</v>
       </c>
-      <c r="V5" s="88">
+      <c r="V5" s="79">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
-      <c r="W5" s="27"/>
+      <c r="W5" s="18"/>
       <c r="Y5">
         <v>10</v>
       </c>
@@ -3430,16 +3482,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="63">
         <v>1</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3447,7 +3499,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="7">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3455,52 +3507,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="6">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="6">
         <v>58.048090523338047</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="8">
         <v>0.9</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="23">
         <f>4*7</f>
         <v>28</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="24">
         <f>N6+O6</f>
         <v>28.9</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="13">
         <v>70</v>
       </c>
-      <c r="R6" s="68">
+      <c r="R6" s="59">
         <v>2</v>
       </c>
-      <c r="S6" s="42">
+      <c r="S6" s="33">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="45">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="87">
+      <c r="U6" s="78">
         <v>20</v>
       </c>
-      <c r="V6" s="88">
+      <c r="V6" s="79">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
-      <c r="W6" s="27"/>
+      <c r="W6" s="18"/>
       <c r="Y6">
         <v>10</v>
       </c>
@@ -3510,16 +3562,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="63">
         <v>1</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3527,7 +3579,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="7">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3535,52 +3587,52 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="6">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="6">
         <v>25.714285714285712</v>
       </c>
-      <c r="M7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="17">
+      <c r="M7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="8">
         <v>0.9</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="55">
         <f>5*2</f>
         <v>10</v>
       </c>
-      <c r="P7" s="65">
+      <c r="P7" s="56">
         <f t="shared" si="6"/>
         <v>10.9</v>
       </c>
-      <c r="Q7" s="66">
+      <c r="Q7" s="57">
         <v>60</v>
       </c>
-      <c r="R7" s="67">
+      <c r="R7" s="58">
         <v>2</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="33">
         <f>R7/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="87">
+      <c r="U7" s="78">
         <v>20</v>
       </c>
-      <c r="V7" s="88">
+      <c r="V7" s="79">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
-      <c r="W7" s="27"/>
+      <c r="W7" s="18"/>
       <c r="Y7">
         <v>10</v>
       </c>
@@ -3590,16 +3642,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="73">
         <v>1</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3607,7 +3659,7 @@
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="7">
         <f t="shared" si="3"/>
         <v>0.59405940594059403</v>
       </c>
@@ -3615,42 +3667,42 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="6">
         <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="6">
         <v>92.333804809052339</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="45">
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="36">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="28"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="19"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="84">
+      <c r="A9" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="75">
         <v>1</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="70">
         <f t="shared" ref="D9:D21" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3658,7 +3710,7 @@
         <f t="shared" ref="E9:E20" si="10">VLOOKUP(A9,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="7">
         <f t="shared" ref="F9:F20" si="11">60/E9*C9</f>
         <v>1</v>
       </c>
@@ -3666,28 +3718,28 @@
         <f t="shared" ref="G9:G20" si="12">VLOOKUP(A9,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="6">
         <f t="shared" ref="H9:H21" si="13">D9*F9*G9</f>
         <v>40</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="I9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6">
         <v>169.95285242809996</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="74">
         <v>1</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="70">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3695,7 +3747,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3703,29 +3755,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="6">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="I10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="74">
         <v>1</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="70">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3733,7 +3785,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="7">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3741,29 +3793,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="6">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="I11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="P11" s="15"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="84">
+      <c r="C12" s="75">
         <v>1</v>
       </c>
-      <c r="D12" s="79">
+      <c r="D12" s="70">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3771,7 +3823,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="7">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3779,29 +3831,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="6">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="I12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="6">
         <v>33.333333333333336</v>
       </c>
-      <c r="P12" s="15"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="80">
+      <c r="A13" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="71">
         <v>1</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="72">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3809,7 +3861,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="7">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3817,29 +3869,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="6">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="6">
         <v>96.619519094766616</v>
       </c>
-      <c r="P13" s="15"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="72">
+      <c r="A14" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="63">
         <v>1</v>
       </c>
-      <c r="D14" s="74">
+      <c r="D14" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3847,7 +3899,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="7">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3855,29 +3907,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="6">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="6">
         <v>967.28901461574731</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="72">
+      <c r="A15" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="63">
         <v>1</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3885,7 +3937,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="7">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3893,23 +3945,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="6">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P15" s="15"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="73" t="s">
+      <c r="A16" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="69">
         <v>1</v>
       </c>
-      <c r="D16" s="79">
+      <c r="D16" s="70">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3917,7 +3969,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="7">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3925,23 +3977,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="6">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P16" s="15"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="72">
+      <c r="B17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="63">
         <v>1</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3949,7 +4001,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="7">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3957,22 +4009,22 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="6">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="63">
         <v>1</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3980,7 +4032,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="7">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -3988,25 +4040,25 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="6">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="72">
+      <c r="B19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="63">
         <v>1</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4014,7 +4066,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="7">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4022,23 +4074,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="6">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="P19" s="15"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="63">
         <v>1</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4046,7 +4098,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="7">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4054,23 +4106,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="6">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="P20" s="15"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="63">
         <v>4</v>
       </c>
-      <c r="D21" s="74">
+      <c r="D21" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4078,7 +4130,7 @@
         <f t="shared" ref="E21" si="14">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="7">
         <f t="shared" ref="F21" si="15">60/E21*C21</f>
         <v>1.7142857142857142</v>
       </c>
@@ -4086,22 +4138,22 @@
         <f t="shared" ref="G21" si="16">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="6">
         <f t="shared" si="13"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="63">
         <v>3</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="65">
         <f t="shared" ref="D22" si="17">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -4109,7 +4161,7 @@
         <f t="shared" ref="E22" si="18">VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="7">
         <f t="shared" ref="F22" si="19">60/E22*C22</f>
         <v>1.2857142857142856</v>
       </c>
@@ -4117,23 +4169,23 @@
         <f t="shared" ref="G22" si="20">VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="6">
         <f t="shared" ref="H22" si="21">D22*F22*G22</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="P22" s="15"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="72">
+      <c r="A23" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="63">
         <v>1</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="65">
         <f t="shared" ref="D23:D33" si="22">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4141,7 +4193,7 @@
         <f t="shared" ref="E23:E35" si="23">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="7">
         <f t="shared" ref="F23:F33" si="24">60/E23*C23</f>
         <v>0.75</v>
       </c>
@@ -4149,23 +4201,23 @@
         <f t="shared" ref="G23:G35" si="25">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="6">
         <f t="shared" ref="H23:H35" si="26">D23*F23*G23</f>
         <v>30</v>
       </c>
-      <c r="P23" s="15"/>
+      <c r="P23" s="6"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="63">
         <v>1</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4173,7 +4225,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="7">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4181,23 +4233,23 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="6">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="P24" s="15"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
-        <v>62</v>
+      <c r="A25" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="72">
+        <v>64</v>
+      </c>
+      <c r="C25" s="63">
         <v>1</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4205,7 +4257,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="7">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4213,25 +4265,25 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="6">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="N25" s="16"/>
-      <c r="P25" s="15"/>
+      <c r="I25" s="62"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="63">
         <v>1</v>
       </c>
-      <c r="D26" s="74">
+      <c r="D26" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4239,7 +4291,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="7">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4247,22 +4299,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="6">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="63">
         <v>1</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4270,7 +4322,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="7">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4278,22 +4330,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="6">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="73" t="s">
+      <c r="A28" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="63">
         <v>1</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4301,7 +4353,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="7">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4309,22 +4361,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="6">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="72">
+      <c r="B29" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="63">
         <v>1</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4332,7 +4384,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="7">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4340,22 +4392,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C30" s="63">
         <v>1</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4363,7 +4415,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="7">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4371,23 +4423,23 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P30" s="15"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="72">
+        <v>64</v>
+      </c>
+      <c r="C31" s="63">
         <v>1</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4395,7 +4447,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="7">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4403,24 +4455,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="P31" s="6"/>
+      <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C32" s="63">
         <v>1</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4428,7 +4480,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="7">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4436,24 +4488,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P32" s="15"/>
-      <c r="T32" s="15"/>
+      <c r="P32" s="6"/>
+      <c r="T32" s="6"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C33" s="63">
         <v>1</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="65">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4461,7 +4513,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="7">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4469,24 +4521,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P33" s="15"/>
-      <c r="T33" s="15"/>
+      <c r="P33" s="6"/>
+      <c r="T33" s="6"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="63">
         <v>1</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="65">
         <f t="shared" ref="D34" si="27">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4494,7 +4546,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="7">
         <f t="shared" ref="F34" si="28">60/E34*C34</f>
         <v>0.8571428571428571</v>
       </c>
@@ -4502,24 +4554,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="P34" s="6"/>
+      <c r="T34" s="6"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="78">
+      <c r="C35" s="69">
         <v>1</v>
       </c>
-      <c r="D35" s="79">
+      <c r="D35" s="70">
         <f>VLOOKUP(A35,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4527,7 +4579,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="7">
         <f>60/E35*C35</f>
         <v>0.8571428571428571</v>
       </c>
@@ -4535,18 +4587,18 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="6">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="T35" s="15"/>
+      <c r="P35" s="6"/>
+      <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="F36" s="16"/>
-      <c r="H36" s="15"/>
-      <c r="T36" s="15"/>
+      <c r="A36" s="62"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="T36" s="6"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q44">
@@ -4555,470 +4607,470 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="95"/>
-      <c r="C53" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="97"/>
+      <c r="A53" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="85"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="46"/>
+      <c r="F54" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="55"/>
-      <c r="F54" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="47">
+      <c r="A55" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="38">
         <v>520</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="24">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
         <v>509.85855728429988</v>
       </c>
-      <c r="D55" s="69">
+      <c r="D55" s="60">
         <f>1-B55/C55</f>
         <v>-1.9890698255055961E-2</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="51" t="str">
+      <c r="E55" s="25"/>
+      <c r="F55" s="42" t="str">
         <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
         <v>OpenLandingPage</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="21">
         <f>C55/3</f>
         <v>169.95285242809996</v>
       </c>
-      <c r="H55" s="90">
+      <c r="H55" s="81">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
         <v>172</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="10">
         <f>1-G55/H55</f>
         <v>1.1902020766860755E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="38">
         <v>422</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="24">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
         <v>409.85855728429988</v>
       </c>
-      <c r="D56" s="69">
+      <c r="D56" s="60">
         <f>1-B56/C56</f>
         <v>-2.9623494495634395E-2</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="51" t="str">
+      <c r="E56" s="25"/>
+      <c r="F56" s="42" t="str">
         <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="21">
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="90">
+      <c r="H56" s="81">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
         <v>138</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="10">
         <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
         <v>1.0003484820531816E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="47">
+      <c r="A57" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="38">
         <v>305</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="24">
         <f t="shared" ref="C57:C66" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>289.85855728429988</v>
       </c>
-      <c r="D57" s="69">
+      <c r="D57" s="60">
         <f>1-B57/C57</f>
         <v>-5.2237349338798644E-2</v>
       </c>
-      <c r="E57" s="34"/>
-      <c r="F57" s="51" t="str">
+      <c r="E57" s="25"/>
+      <c r="F57" s="42" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
         <v>OpenPage_FindFlight</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="21">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="90">
+      <c r="H57" s="81">
         <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
         <v>99</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I57" s="10">
         <f t="shared" si="30"/>
         <v>2.4045261669023987E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="47">
+      <c r="B58" s="38">
         <v>282</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="24">
         <f t="shared" si="31"/>
         <v>289.85855728429988</v>
       </c>
-      <c r="D58" s="69">
+      <c r="D58" s="60">
         <f t="shared" ref="D58:D67" si="32">1-B58/C58</f>
         <v>2.7111696676914154E-2</v>
       </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="51" t="str">
+      <c r="E58" s="25"/>
+      <c r="F58" s="42" t="str">
         <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
         <v>SubmitFlight</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="21">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="90">
+      <c r="H58" s="81">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
         <v>97</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="10">
         <f t="shared" si="30"/>
         <v>3.9224835591068485E-3</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="47">
+      <c r="B59" s="38">
         <v>270</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="24">
         <f t="shared" si="31"/>
         <v>264.14427157001415</v>
       </c>
-      <c r="D59" s="69">
+      <c r="D59" s="60">
         <f t="shared" si="32"/>
         <v>-2.2168674698795243E-2</v>
       </c>
-      <c r="E59" s="34"/>
-      <c r="F59" s="51" t="str">
+      <c r="E59" s="25"/>
+      <c r="F59" s="42" t="str">
         <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
         <v>СhooseDepartureTime</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="21">
         <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
-      <c r="H59" s="90">
+      <c r="H59" s="81">
         <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
         <v>88</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I59" s="10">
         <f t="shared" si="30"/>
         <v>-5.4648321975059311E-4</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="47">
+      <c r="B60" s="38">
         <v>175</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="24">
         <f t="shared" si="31"/>
         <v>174.14427157001415</v>
       </c>
-      <c r="D60" s="69">
+      <c r="D60" s="60">
         <f t="shared" si="32"/>
         <v>-4.9139051332032224E-3</v>
       </c>
-      <c r="E60" s="34"/>
-      <c r="F60" s="51" t="str">
+      <c r="E60" s="25"/>
+      <c r="F60" s="42" t="str">
         <f>VLOOKUP(A60,Соответствие!A:B,2,FALSE)</f>
         <v>BuyingTicket</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="21">
         <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
-      <c r="H60" s="90">
+      <c r="H60" s="81">
         <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)</f>
         <v>58</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="10">
         <f t="shared" si="30"/>
         <v>-8.2914695410440942E-4</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="47">
+      <c r="B61" s="38">
         <v>280</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="24">
         <f t="shared" si="31"/>
         <v>277.00141442715699</v>
       </c>
-      <c r="D61" s="69">
+      <c r="D61" s="60">
         <f t="shared" si="32"/>
         <v>-1.0825163398692883E-2</v>
       </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="51" t="str">
+      <c r="E61" s="25"/>
+      <c r="F61" s="42" t="str">
         <f>VLOOKUP(A61,Соответствие!A:B,2,FALSE)</f>
         <v>ViewTicketList</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="21">
         <f>C61/3</f>
         <v>92.333804809052324</v>
       </c>
-      <c r="H61" s="90">
+      <c r="H61" s="81">
         <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
         <v>94</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I61" s="10">
         <f t="shared" si="30"/>
         <v>1.7725480754762546E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="47">
+      <c r="B62" s="38">
         <v>73</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="24">
         <f t="shared" si="31"/>
         <v>77.142857142857139</v>
       </c>
-      <c r="D62" s="69">
+      <c r="D62" s="60">
         <f t="shared" si="32"/>
         <v>5.3703703703703698E-2</v>
       </c>
-      <c r="E62" s="34"/>
-      <c r="F62" s="51" t="str">
+      <c r="E62" s="25"/>
+      <c r="F62" s="42" t="str">
         <f>VLOOKUP(A62,Соответствие!A:B,2,FALSE)</f>
         <v>DeleteTicket</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="21">
         <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="H62" s="90">
+      <c r="H62" s="81">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
         <v>27</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="10">
         <f>1-G62/H62</f>
         <v>4.7619047619047672E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="47">
+      <c r="B63" s="38">
         <v>326</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="24">
         <f t="shared" si="31"/>
         <v>310</v>
       </c>
-      <c r="D63" s="69">
+      <c r="D63" s="60">
         <f t="shared" si="32"/>
         <v>-5.1612903225806361E-2</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="51" t="str">
+      <c r="E63" s="25"/>
+      <c r="F63" s="42" t="str">
         <f>VLOOKUP(A63,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="21">
         <f>C63/3</f>
         <v>103.33333333333333</v>
       </c>
-      <c r="H63" s="90">
+      <c r="H63" s="81">
         <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)</f>
         <v>102</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I63" s="10">
         <f t="shared" si="30"/>
         <v>-1.3071895424836555E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="47">
+      <c r="A64" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="38">
         <v>97</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="24">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D64" s="69">
+      <c r="D64" s="60">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E64" s="34"/>
-      <c r="F64" s="51" t="str">
+      <c r="E64" s="25"/>
+      <c r="F64" s="42" t="str">
         <f>VLOOKUP(A64,Соответствие!A:B,2,FALSE)</f>
         <v>OpenRegistrationPage</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="21">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H64" s="90">
+      <c r="H64" s="81">
         <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)</f>
         <v>34</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="10">
         <f t="shared" si="30"/>
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="47">
+      <c r="A65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="38">
         <v>97</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="24">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D65" s="69">
+      <c r="D65" s="60">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E65" s="34"/>
-      <c r="F65" s="51" t="str">
+      <c r="E65" s="25"/>
+      <c r="F65" s="42" t="str">
         <f>VLOOKUP(A65,Соответствие!A:B,2,FALSE)</f>
         <v>UserRegistered</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="21">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H65" s="90">
+      <c r="H65" s="81">
         <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)</f>
         <v>34</v>
       </c>
-      <c r="I65" s="19">
+      <c r="I65" s="10">
         <f t="shared" si="30"/>
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="47">
+      <c r="A66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="38">
         <v>97</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="24">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D66" s="69">
+      <c r="D66" s="60">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="51" t="str">
+      <c r="E66" s="25"/>
+      <c r="F66" s="42" t="str">
         <f>VLOOKUP(A66,Соответствие!A:B,2,FALSE)</f>
         <v>press continue</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="21">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H66" s="90">
+      <c r="H66" s="81">
         <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="10">
         <f t="shared" si="30"/>
         <v>-1.0101010101010166E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="48">
+      <c r="B67" s="39">
         <f>SUM(B55:B66)</f>
         <v>2944</v>
       </c>
-      <c r="C67" s="49">
+      <c r="C67" s="40">
         <f>SUM(C55:C66)</f>
         <v>2901.8670438472423</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="9">
         <f t="shared" si="32"/>
         <v>-1.4519257952252174E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I68" s="21"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="29"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5036,7 +5088,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5046,119 +5098,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="str">
+      <c r="A2" s="42" t="str">
         <f>'Автоматизированный расчет'!A55</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>86</v>
+      <c r="B2" s="42" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="str">
+      <c r="A3" s="42" t="str">
         <f>'Автоматизированный расчет'!A56</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>84</v>
+      <c r="B3" s="42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="str">
+      <c r="A4" s="42" t="str">
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>87</v>
+      <c r="B4" s="80" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="str">
+      <c r="A5" s="42" t="str">
         <f>'Автоматизированный расчет'!A58</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>90</v>
+      <c r="B5" s="42" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="str">
+      <c r="A6" s="42" t="str">
         <f>'Автоматизированный расчет'!A59</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>97</v>
+      <c r="B6" s="42" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="str">
+      <c r="A7" s="42" t="str">
         <f>'Автоматизированный расчет'!A60</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>82</v>
+      <c r="B7" s="42" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="str">
+      <c r="A8" s="42" t="str">
         <f>'Автоматизированный расчет'!A61</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>99</v>
+      <c r="B8" s="42" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="42" t="str">
         <f>'Автоматизированный расчет'!A62</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>83</v>
+      <c r="B9" s="42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="str">
+      <c r="A10" s="42" t="str">
         <f>'Автоматизированный расчет'!A63</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>85</v>
+      <c r="B10" s="42" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="str">
+      <c r="A11" s="42" t="str">
         <f>'Автоматизированный расчет'!A64</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>88</v>
+      <c r="B11" s="42" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="str">
+      <c r="A12" s="42" t="str">
         <f>'Автоматизированный расчет'!A65</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>98</v>
+      <c r="B12" s="42" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="str">
+      <c r="A13" s="42" t="str">
         <f>'Автоматизированный расчет'!A66</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>89</v>
+      <c r="B13" s="42" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +5223,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5186,579 +5238,597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="H1" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="99" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D2" s="42">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="F2" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" s="42">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H2" s="42">
+        <v>58</v>
+      </c>
+      <c r="I2" s="42">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C2">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F3" s="42">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H3" s="42">
+        <v>27</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D4" s="42">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.126</v>
+      </c>
+      <c r="F4" s="42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G4" s="42">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H4" s="42">
+        <v>138</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D5" s="42">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E5" s="42">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="G5" s="42">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H5" s="42">
+        <v>102</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.106</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.216</v>
+      </c>
+      <c r="F6" s="42">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H6" s="42">
+        <v>172</v>
+      </c>
+      <c r="I6" s="42">
+        <v>1</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.108</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.112</v>
+      </c>
+      <c r="F7" s="42">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0.112</v>
+      </c>
+      <c r="H7" s="42">
+        <v>99</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8" s="42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E8" s="42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H8" s="42">
+        <v>34</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D9" s="42">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E9" s="42">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="G9" s="42">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H9" s="42">
+        <v>33</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="D2">
+      <c r="D10" s="42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" s="42">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E2">
+      <c r="H10" s="42">
+        <v>97</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.308</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0.315</v>
+      </c>
+      <c r="H11" s="42">
+        <v>39</v>
+      </c>
+      <c r="I11" s="42">
+        <v>1</v>
+      </c>
+      <c r="J11" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.377</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.438</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H12" s="42">
+        <v>30</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H13" s="42">
+        <v>24</v>
+      </c>
+      <c r="I13" s="42">
+        <v>0</v>
+      </c>
+      <c r="J13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.51</v>
+      </c>
+      <c r="F14" s="42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H14" s="42">
+        <v>34</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D15" s="42">
+        <v>2.5209999999999999</v>
+      </c>
+      <c r="E15" s="42">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="F15" s="42">
+        <v>1.153</v>
+      </c>
+      <c r="G15" s="42">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="H15" s="42">
+        <v>9</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42">
+        <v>0.36</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F16" s="42">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H16" s="42">
+        <v>33</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="42">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E17" s="42">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F17" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="G17" s="42">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <v>34</v>
+      </c>
+      <c r="I17" s="42">
+        <v>0</v>
+      </c>
+      <c r="J17" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.155</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F18" s="42">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H18" s="42">
+        <v>94</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D19" s="42">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E19" s="42">
         <v>0.04</v>
       </c>
-      <c r="F2">
+      <c r="F19" s="42">
         <v>1E-3</v>
       </c>
-      <c r="G2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
+      <c r="G19" s="42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H19" s="42">
+        <v>88</v>
+      </c>
+      <c r="I19" s="42">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F3">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H3">
-        <v>27</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D4">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E4">
-        <v>0.126</v>
-      </c>
-      <c r="F4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G4">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H4">
-        <v>138</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D5">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E5">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F5">
-        <v>1E-3</v>
-      </c>
-      <c r="G5">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H5">
-        <v>102</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D6">
-        <v>0.106</v>
-      </c>
-      <c r="E6">
-        <v>0.216</v>
-      </c>
-      <c r="F6">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H6">
-        <v>172</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D7">
-        <v>0.108</v>
-      </c>
-      <c r="E7">
-        <v>0.112</v>
-      </c>
-      <c r="F7">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G7">
-        <v>0.112</v>
-      </c>
-      <c r="H7">
-        <v>99</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E8">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H8">
-        <v>34</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D9">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E9">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F9">
-        <v>1E-3</v>
-      </c>
-      <c r="G9">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H9">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D10">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.04</v>
-      </c>
-      <c r="F10">
-        <v>1E-3</v>
-      </c>
-      <c r="G10">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H10">
-        <v>97</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.308</v>
-      </c>
-      <c r="E11">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="F11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.315</v>
-      </c>
-      <c r="H11">
-        <v>39</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D12">
-        <v>0.377</v>
-      </c>
-      <c r="E12">
-        <v>0.438</v>
-      </c>
-      <c r="F12">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D13">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="E13">
-        <v>0.7</v>
-      </c>
-      <c r="F13">
-        <v>0.05</v>
-      </c>
-      <c r="G13">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="H13">
-        <v>24</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="D14">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="E14">
-        <v>0.51</v>
-      </c>
-      <c r="F14">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G14">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H14">
-        <v>34</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D15">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="E15">
-        <v>4.7480000000000002</v>
-      </c>
-      <c r="F15">
-        <v>1.153</v>
-      </c>
-      <c r="G15">
-        <v>4.7480000000000002</v>
-      </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16">
-        <v>0.36</v>
-      </c>
-      <c r="D16">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="F16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G16">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H16">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17">
-        <v>0.03</v>
-      </c>
-      <c r="D17">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E17">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F17">
-        <v>1E-3</v>
-      </c>
-      <c r="G17">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H17">
-        <v>34</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.155</v>
-      </c>
-      <c r="E18">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H18">
-        <v>94</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D19">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.04</v>
-      </c>
-      <c r="F19">
-        <v>1E-3</v>
-      </c>
-      <c r="G19">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H19">
-        <v>88</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
+      <c r="J19" s="42">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" xr:uid="{CAD88E3E-CAF9-47B8-9CAC-558280E3DC87}"/>
-    <hyperlink ref="A3" xr:uid="{C3EB1C5D-8F5C-4493-B3B3-83EF477EBAFC}"/>
-    <hyperlink ref="A4" xr:uid="{523A220C-C0BC-4586-AB2D-525E5BB64F81}"/>
-    <hyperlink ref="A5" xr:uid="{E75052CA-7BBF-4922-ACD2-9966B2A68261}"/>
-    <hyperlink ref="A6" xr:uid="{C6836C6D-EA30-4430-BD9D-B5F159077A0A}"/>
-    <hyperlink ref="A7" xr:uid="{81178DB6-ABBD-4723-946E-817D5966915D}"/>
-    <hyperlink ref="A8" xr:uid="{B5B4C3B7-AA61-4BE0-8A6C-50CEFDF8DED0}"/>
-    <hyperlink ref="A9" xr:uid="{28681E23-2C00-48DC-97D2-E932F7C76BEE}"/>
-    <hyperlink ref="A10" xr:uid="{946308BF-EE88-43CE-BCCC-C1D7805649EA}"/>
-    <hyperlink ref="A11" xr:uid="{415B5270-B86C-4F08-A1C1-00EBF2F4491F}"/>
-    <hyperlink ref="A12" xr:uid="{F4E51458-499D-4332-9C24-1E811D213D02}"/>
-    <hyperlink ref="A13" xr:uid="{F33B33B4-F165-4FF3-BAF5-6DAE4D6C0E75}"/>
-    <hyperlink ref="A14" xr:uid="{95AC6949-4F9F-4A12-9689-46DFFD11FF4C}"/>
-    <hyperlink ref="A15" xr:uid="{9E28DCA7-18AE-4F1E-8F6A-8FBF594ECCAA}"/>
-    <hyperlink ref="A16" xr:uid="{DD35DEBB-2179-47F8-BC28-0799706622C5}"/>
-    <hyperlink ref="A17" xr:uid="{BA392A4D-D3A1-4CDF-8CAE-CBF0F1CED951}"/>
-    <hyperlink ref="A18" xr:uid="{E7595B25-3867-4E89-8AF0-D55D46B83395}"/>
-    <hyperlink ref="A19" xr:uid="{D424C7A1-32B5-41CF-B9AC-C47323E64544}"/>
+    <hyperlink ref="A2" display="BuyingTicket" xr:uid="{CAD88E3E-CAF9-47B8-9CAC-558280E3DC87}"/>
+    <hyperlink ref="A3" display="DeleteTicket" xr:uid="{C3EB1C5D-8F5C-4493-B3B3-83EF477EBAFC}"/>
+    <hyperlink ref="A4" display="Login" xr:uid="{523A220C-C0BC-4586-AB2D-525E5BB64F81}"/>
+    <hyperlink ref="A5" display="Logout" xr:uid="{E75052CA-7BBF-4922-ACD2-9966B2A68261}"/>
+    <hyperlink ref="A6" display="OpenLandingPage" xr:uid="{C6836C6D-EA30-4430-BD9D-B5F159077A0A}"/>
+    <hyperlink ref="A7" display="OpenPage_FindFlight" xr:uid="{81178DB6-ABBD-4723-946E-817D5966915D}"/>
+    <hyperlink ref="A8" display="OpenRegistrationPage" xr:uid="{B5B4C3B7-AA61-4BE0-8A6C-50CEFDF8DED0}"/>
+    <hyperlink ref="A9" display="press continue" xr:uid="{28681E23-2C00-48DC-97D2-E932F7C76BEE}"/>
+    <hyperlink ref="A10" display="SubmitFlight" xr:uid="{946308BF-EE88-43CE-BCCC-C1D7805649EA}"/>
+    <hyperlink ref="A11" display="UC1_LoginLogout" xr:uid="{415B5270-B86C-4F08-A1C1-00EBF2F4491F}"/>
+    <hyperlink ref="A12" display="UC2_SearchTicket" xr:uid="{F4E51458-499D-4332-9C24-1E811D213D02}"/>
+    <hyperlink ref="A13" display="UC3_BuyingTicket" xr:uid="{F33B33B4-F165-4FF3-BAF5-6DAE4D6C0E75}"/>
+    <hyperlink ref="A14" display="UC4_ViewTicketList" xr:uid="{95AC6949-4F9F-4A12-9689-46DFFD11FF4C}"/>
+    <hyperlink ref="A15" display="UC5_DeleteTicket" xr:uid="{9E28DCA7-18AE-4F1E-8F6A-8FBF594ECCAA}"/>
+    <hyperlink ref="A16" display="UC7_RandomUserRegistrtion" xr:uid="{DD35DEBB-2179-47F8-BC28-0799706622C5}"/>
+    <hyperlink ref="A17" display="UserRegistered" xr:uid="{BA392A4D-D3A1-4CDF-8CAE-CBF0F1CED951}"/>
+    <hyperlink ref="A18" display="ViewTicketList" xr:uid="{E7595B25-3867-4E89-8AF0-D55D46B83395}"/>
+    <hyperlink ref="A19" display="СhooseDepartureTime" xr:uid="{D424C7A1-32B5-41CF-B9AC-C47323E64544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5766,10 +5836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C9:P44"/>
+  <dimension ref="C1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,741 +5850,1092 @@
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="38.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-    </row>
-    <row r="11" spans="5:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="92" t="s">
+    <row r="1" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="L1" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+    </row>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="92" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F4" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="89">
         <v>422</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H4" s="2">
         <f>633*0.6</f>
         <v>379.8</v>
       </c>
-      <c r="I12" s="93">
-        <f>1-G12/H12</f>
+      <c r="I4" s="92">
+        <f>1-G4/H4</f>
         <v>-0.11111111111111116</v>
       </c>
-    </row>
-    <row r="13" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E13" s="11" t="s">
+      <c r="L4" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="89">
+        <f>'Автоматизированный расчет'!B56*3.6</f>
+        <v>1519.2</v>
+      </c>
+      <c r="O4" s="94">
+        <v>1359</v>
+      </c>
+      <c r="P4" s="90">
+        <f>1-N4/O4</f>
+        <v>-0.11788079470198687</v>
+      </c>
+    </row>
+    <row r="5" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="89">
         <f>282</f>
         <v>282</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H5" s="2">
         <f>424*0.6</f>
         <v>254.39999999999998</v>
       </c>
-      <c r="I13" s="93">
-        <f t="shared" ref="I13:I18" si="0">1-G13/H13</f>
+      <c r="I5" s="92">
+        <f t="shared" ref="I5:I10" si="0">1-G5/H5</f>
         <v>-0.10849056603773599</v>
       </c>
-    </row>
-    <row r="14" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="L5" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="89">
+        <f>'Автоматизированный расчет'!B58*3.6</f>
+        <v>1015.2</v>
+      </c>
+      <c r="O5" s="95">
+        <v>933</v>
+      </c>
+      <c r="P5" s="90">
+        <f t="shared" ref="P5:P11" si="1">1-N5/O5</f>
+        <v>-8.8102893890675382E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F6" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="89">
         <f>270</f>
         <v>270</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H6" s="2">
         <f>386*0.6</f>
         <v>231.6</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I6" s="92">
         <f t="shared" si="0"/>
         <v>-0.16580310880829008</v>
       </c>
-    </row>
-    <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
+      <c r="L6" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="89">
+        <f>'Автоматизированный расчет'!B59*3.6</f>
+        <v>972</v>
+      </c>
+      <c r="O6" s="94">
+        <v>754</v>
+      </c>
+      <c r="P6" s="90">
+        <f t="shared" si="1"/>
+        <v>-0.28912466843501328</v>
+      </c>
+    </row>
+    <row r="7" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F7" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="89">
         <f>175</f>
         <v>175</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H7" s="2">
         <f>258*0.6</f>
         <v>154.79999999999998</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I7" s="92">
         <f t="shared" si="0"/>
         <v>-0.1304909560723515</v>
       </c>
-    </row>
-    <row r="16" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
+      <c r="L7" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="89">
+        <f>'Автоматизированный расчет'!B60*3.6</f>
+        <v>630</v>
+      </c>
+      <c r="O7" s="94">
+        <v>441</v>
+      </c>
+      <c r="P7" s="91">
+        <f t="shared" si="1"/>
+        <v>-0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F8" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="89">
         <f>280</f>
         <v>280</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H8" s="2">
         <f>420*0.6</f>
         <v>252</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I8" s="92">
         <f t="shared" si="0"/>
         <v>-0.11111111111111116</v>
       </c>
-    </row>
-    <row r="17" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
+      <c r="L8" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="89">
+        <f>'Автоматизированный расчет'!B61*3.6</f>
+        <v>1008</v>
+      </c>
+      <c r="O8" s="94">
+        <v>1160</v>
+      </c>
+      <c r="P8" s="90">
+        <f t="shared" si="1"/>
+        <v>0.13103448275862073</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F9" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="89">
         <f>73</f>
         <v>73</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H9" s="2">
         <f>125*0.6</f>
         <v>75</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I9" s="91">
         <f t="shared" si="0"/>
         <v>2.6666666666666616E-2</v>
       </c>
-    </row>
-    <row r="18" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
+      <c r="L9" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="89">
+        <f>'Автоматизированный расчет'!B62*3.6</f>
+        <v>262.8</v>
+      </c>
+      <c r="O9" s="94">
+        <v>540</v>
+      </c>
+      <c r="P9" s="90">
+        <f t="shared" si="1"/>
+        <v>0.51333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F10" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="89">
         <f>326</f>
         <v>326</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H10" s="2">
         <f>437*0.6</f>
         <v>262.2</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I10" s="92">
         <f t="shared" si="0"/>
         <v>-0.24332570556826849</v>
       </c>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="98" t="s">
+      <c r="L10" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="89">
+        <f>'Автоматизированный расчет'!B63*3.6</f>
+        <v>1173.6000000000001</v>
+      </c>
+      <c r="O10" s="94">
+        <v>1130</v>
+      </c>
+      <c r="P10" s="90">
+        <f t="shared" si="1"/>
+        <v>-3.8584070796460201E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" s="97">
+        <f>SUM(N4:N10)</f>
+        <v>6580.8</v>
+      </c>
+      <c r="O11" s="97">
+        <f>SUM(O4:O10)</f>
+        <v>6317</v>
+      </c>
+      <c r="P11" s="98">
+        <f t="shared" si="1"/>
+        <v>-4.1760329270223329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="89">
+        <v>422</v>
+      </c>
+      <c r="H15" s="2">
+        <f>(543/4)*3</f>
+        <v>407.25</v>
+      </c>
+      <c r="I15" s="90">
+        <f>1-G15/H15</f>
+        <v>-3.6218538980969939E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="89">
+        <v>282</v>
+      </c>
+      <c r="H16" s="2">
+        <f>(382/4)*3</f>
+        <v>286.5</v>
+      </c>
+      <c r="I16" s="90">
+        <f>1-G16/H16</f>
+        <v>1.5706806282722474E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="89">
+        <v>270</v>
+      </c>
+      <c r="H17" s="2">
+        <f>(350/4)*3</f>
+        <v>262.5</v>
+      </c>
+      <c r="I17" s="90">
+        <f>1-G17/H17</f>
+        <v>-2.857142857142847E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="89">
+        <v>175</v>
+      </c>
+      <c r="H18" s="2">
+        <f>(230/4)*3</f>
+        <v>172.5</v>
+      </c>
+      <c r="I18" s="91">
+        <f>1-G18/H18</f>
+        <v>-1.449275362318847E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="89">
+        <v>280</v>
+      </c>
+      <c r="H19" s="2">
+        <f>(366/4)*3</f>
+        <v>274.5</v>
+      </c>
+      <c r="I19" s="91">
+        <f>1-G19/H19</f>
+        <v>-2.0036429872495543E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="89">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2">
+        <f>(102/4)*3</f>
+        <v>76.5</v>
+      </c>
+      <c r="I20" s="91">
+        <f>1-G20/H20</f>
+        <v>4.5751633986928053E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="89">
+        <v>326</v>
+      </c>
+      <c r="H21" s="2">
+        <f>(413/4)*3</f>
+        <v>309.75</v>
+      </c>
+      <c r="I21" s="91">
+        <f>1-G21/H21</f>
+        <v>-5.246166263115426E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="L23" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="6" t="s">
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="11" t="s">
+    </row>
+    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="89">
         <v>422</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>407</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="90">
         <f>1-G26/H26</f>
         <v>-3.6855036855036882E-2</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N26" s="8">
-        <v>422</v>
-      </c>
-      <c r="O26" s="7">
-        <f>543-(543/4)</f>
-        <v>407.25</v>
-      </c>
-      <c r="P26" s="9">
-        <f>1-N26/O26</f>
-        <v>-3.6218538980969939E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="11" t="s">
+    </row>
+    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="8">
+      <c r="F27" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="89">
         <f>282</f>
         <v>282</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="2">
         <v>290</v>
       </c>
-      <c r="I27" s="9">
-        <f t="shared" ref="I27:I32" si="1">1-G27/H27</f>
+      <c r="I27" s="90">
+        <f t="shared" ref="I27:I32" si="2">1-G27/H27</f>
         <v>2.7586206896551779E-2</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="8">
-        <v>282</v>
-      </c>
-      <c r="O27" s="7">
-        <f>382-(382/4)</f>
-        <v>286.5</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" ref="P27:P32" si="2">1-N27/O27</f>
-        <v>1.5706806282722474E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="11" t="s">
+    </row>
+    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="8">
+      <c r="F28" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="89">
         <f>270</f>
         <v>270</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="2">
         <v>264</v>
       </c>
-      <c r="I28" s="9">
-        <f t="shared" si="1"/>
+      <c r="I28" s="90">
+        <f t="shared" si="2"/>
         <v>-2.2727272727272707E-2</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="8">
-        <v>270</v>
-      </c>
-      <c r="O28" s="7">
-        <f>350-(350/4)</f>
-        <v>262.5</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" si="2"/>
-        <v>-2.857142857142847E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
+    </row>
+    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="8">
+      <c r="F29" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="89">
         <f>175</f>
         <v>175</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="2">
         <v>174</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="1"/>
+      <c r="I29" s="91">
+        <f t="shared" si="2"/>
         <v>-5.7471264367816577E-3</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N29" s="8">
-        <v>175</v>
-      </c>
-      <c r="O29" s="7">
-        <f>230-(230/4)</f>
-        <v>172.5</v>
-      </c>
-      <c r="P29" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.449275362318847E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="11" t="s">
+    </row>
+    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="8">
+      <c r="F30" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="89">
         <f>280</f>
         <v>280</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="2">
         <v>278</v>
       </c>
-      <c r="I30" s="5">
-        <f t="shared" si="1"/>
+      <c r="I30" s="91">
+        <f t="shared" si="2"/>
         <v>-7.194244604316502E-3</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="N30" s="8">
-        <v>280</v>
-      </c>
-      <c r="O30" s="7">
-        <f>366-(366/4)</f>
-        <v>274.5</v>
-      </c>
-      <c r="P30" s="9">
-        <f t="shared" si="2"/>
-        <v>-2.0036429872495543E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="11" t="s">
+    </row>
+    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="F31" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="89">
         <f>73</f>
         <v>73</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="2">
         <v>78</v>
       </c>
-      <c r="I31" s="91">
-        <f t="shared" si="1"/>
+      <c r="I31" s="92">
+        <f t="shared" si="2"/>
         <v>6.4102564102564097E-2</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="8">
-        <v>73</v>
-      </c>
-      <c r="O31" s="7">
-        <f>102-(102/4)</f>
-        <v>76.5</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" si="2"/>
-        <v>4.5751633986928053E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="11" t="s">
+    </row>
+    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="89">
         <f>326</f>
         <v>326</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="2">
         <v>309</v>
       </c>
       <c r="I32" s="91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.5016181229773364E-2</v>
       </c>
-      <c r="L32" s="11" t="s">
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+    </row>
+    <row r="36" spans="5:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="89">
+        <v>422</v>
+      </c>
+      <c r="H37" s="93">
+        <f>(271/2)*3</f>
+        <v>406.5</v>
+      </c>
+      <c r="I37" s="90">
+        <f>1-G37/H37</f>
+        <v>-3.8130381303812966E-2</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="89">
+        <f>282</f>
+        <v>282</v>
+      </c>
+      <c r="H38" s="2">
+        <f>(192/2)*3</f>
+        <v>288</v>
+      </c>
+      <c r="I38" s="90">
+        <f t="shared" ref="I38:I43" si="3">1-G38/H38</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="3">
+        <v>377</v>
+      </c>
+      <c r="N38" s="3">
+        <v>27</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="89">
+        <f>270</f>
+        <v>270</v>
+      </c>
+      <c r="H39" s="2">
+        <f>(175/2)*3</f>
+        <v>262.5</v>
+      </c>
+      <c r="I39" s="90">
+        <f t="shared" si="3"/>
+        <v>-2.857142857142847E-2</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="3">
+        <v>998</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="89">
+        <f>175</f>
+        <v>175</v>
+      </c>
+      <c r="H40" s="2">
+        <f>(115/2)*3</f>
+        <v>172.5</v>
+      </c>
+      <c r="I40" s="91">
+        <f t="shared" si="3"/>
+        <v>-1.449275362318847E-2</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="89">
+        <f>280</f>
+        <v>280</v>
+      </c>
+      <c r="H41" s="2">
+        <f>(183/2)*3</f>
+        <v>274.5</v>
+      </c>
+      <c r="I41" s="91">
+        <f t="shared" si="3"/>
+        <v>-2.0036429872495543E-2</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="3">
+        <v>139</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="89">
+        <f>73</f>
+        <v>73</v>
+      </c>
+      <c r="H42" s="2">
+        <f>(51/2)*3</f>
+        <v>76.5</v>
+      </c>
+      <c r="I42" s="91">
+        <f t="shared" si="3"/>
+        <v>4.5751633986928053E-2</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="N32" s="8">
+      <c r="F43" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="89">
+        <f>326</f>
         <v>326</v>
       </c>
-      <c r="O32" s="7">
-        <f>413-(413/4)</f>
-        <v>309.75</v>
-      </c>
-      <c r="P32" s="91">
-        <f t="shared" si="2"/>
-        <v>-5.246166263115426E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="98" t="s">
+      <c r="H43" s="2">
+        <f>(205/2)*3</f>
+        <v>307.5</v>
+      </c>
+      <c r="I43" s="92">
+        <f t="shared" si="3"/>
+        <v>-6.0162601626016166E-2</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="3">
+        <v>924</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="L44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="6" t="s">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E45" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="11" t="s">
+    </row>
+    <row r="48" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F48" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="89">
+        <v>422</v>
+      </c>
+      <c r="H48" s="93">
+        <f>146*3</f>
+        <v>438</v>
+      </c>
+      <c r="I48" s="90">
+        <f>1-G48/H48</f>
+        <v>3.6529680365296802E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="89">
+        <f>282</f>
+        <v>282</v>
+      </c>
+      <c r="H49" s="93">
+        <f>101*3</f>
+        <v>303</v>
+      </c>
+      <c r="I49" s="92">
+        <f t="shared" ref="I49:I54" si="4">1-G49/H49</f>
+        <v>6.9306930693069257E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E50" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="89">
+        <f>270</f>
+        <v>270</v>
+      </c>
+      <c r="H50" s="93">
+        <f>91*3</f>
+        <v>273</v>
+      </c>
+      <c r="I50" s="90">
+        <f t="shared" si="4"/>
+        <v>1.098901098901095E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="89">
+        <f>175</f>
+        <v>175</v>
+      </c>
+      <c r="H51" s="93">
+        <f>60*3</f>
+        <v>180</v>
+      </c>
+      <c r="I51" s="91">
+        <f t="shared" si="4"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="89">
+        <f>280</f>
+        <v>280</v>
+      </c>
+      <c r="H52" s="93">
+        <f>102*3</f>
+        <v>306</v>
+      </c>
+      <c r="I52" s="92">
+        <f t="shared" si="4"/>
+        <v>8.496732026143794E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="G53" s="89">
+        <f>73</f>
+        <v>73</v>
+      </c>
+      <c r="H53" s="93">
+        <f>30*3</f>
+        <v>90</v>
+      </c>
+      <c r="I53" s="92">
+        <f t="shared" si="4"/>
+        <v>0.18888888888888888</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="8">
-        <f>5*368</f>
-        <v>1840</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2109</v>
-      </c>
-      <c r="I38" s="9">
-        <f>1-G38/H38</f>
-        <v>0.12754860123281175</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="12">
-        <v>377</v>
-      </c>
-      <c r="N38" s="12">
-        <v>27</v>
-      </c>
-      <c r="O38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G39" s="8">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H39" s="12">
-        <v>1315</v>
-      </c>
-      <c r="I39" s="9">
-        <f t="shared" ref="I39:I44" si="3">1-G39/H39</f>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="12">
-        <v>998</v>
-      </c>
-      <c r="N39" s="12">
-        <v>1</v>
-      </c>
-      <c r="O39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="8">
-        <f>5*251</f>
-        <v>1255</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1315</v>
-      </c>
-      <c r="I40" s="9">
-        <f t="shared" si="3"/>
-        <v>4.5627376425855459E-2</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="8">
-        <f>5*175</f>
-        <v>875</v>
-      </c>
-      <c r="H41" s="12">
-        <v>924</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="3"/>
-        <v>5.3030303030302983E-2</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N41" s="12">
-        <v>139</v>
-      </c>
-      <c r="O41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="8">
-        <f>5*159</f>
-        <v>795</v>
-      </c>
-      <c r="H42" s="12">
-        <v>998</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" si="3"/>
-        <v>0.20340681362725455</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="12">
-        <v>1</v>
-      </c>
-      <c r="O42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="8">
-        <f>5*73</f>
-        <v>365</v>
-      </c>
-      <c r="H43" s="12">
-        <v>404</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="3"/>
-        <v>9.6534653465346509E-2</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="12">
-        <v>924</v>
-      </c>
-      <c r="N43" s="12">
-        <v>0</v>
-      </c>
-      <c r="O43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E44" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="8">
-        <f>5*326</f>
-        <v>1630</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1675</v>
-      </c>
-      <c r="I44" s="9">
-        <f t="shared" si="3"/>
-        <v>2.68656716417911E-2</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N44" s="12">
-        <v>0</v>
-      </c>
-      <c r="O44" s="12">
-        <v>0</v>
+      <c r="G54" s="89">
+        <f>326</f>
+        <v>326</v>
+      </c>
+      <c r="H54" s="93">
+        <f>108*3</f>
+        <v>324</v>
+      </c>
+      <c r="I54" s="91">
+        <f t="shared" si="4"/>
+        <v>-6.1728395061728669E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="E12:I12"/>
     <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611C768F-D41D-4E11-BDDD-970B87085DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA240835-33DE-4532-903F-1AD2227A0BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -801,12 +801,14 @@
     </r>
   </si>
   <si>
+    <t>Итог</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Подтверждение максимума </t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -814,11 +816,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(90% от 40 = 36 vusers)</t>
+      <t>(40 vusers)</t>
     </r>
-  </si>
-  <si>
-    <t>Итог</t>
   </si>
 </sst>
 </file>
@@ -2105,21 +2104,6 @@
     <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2145,7 +2129,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2155,6 +2139,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3065,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4607,14 +4606,14 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="84" t="s">
+      <c r="B53" s="96"/>
+      <c r="C53" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="85"/>
+      <c r="D53" s="98"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
@@ -5220,10 +5219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,34 +5237,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="94" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5807,6 +5806,12 @@
       </c>
       <c r="J19" s="42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f>SUM(H2:H19)</f>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -5838,8 +5843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,20 +5866,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="L1" s="86" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="L1" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
@@ -5909,49 +5914,49 @@
       </c>
     </row>
     <row r="4" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="89">
+      <c r="G4" s="84">
         <v>422</v>
       </c>
       <c r="H4" s="2">
         <f>633*0.6</f>
         <v>379.8</v>
       </c>
-      <c r="I4" s="92">
+      <c r="I4" s="87">
         <f>1-G4/H4</f>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M4" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="89">
-        <f>'Автоматизированный расчет'!B56*3.6</f>
-        <v>1519.2</v>
-      </c>
-      <c r="O4" s="94">
-        <v>1359</v>
-      </c>
-      <c r="P4" s="90">
+      <c r="N4" s="84">
+        <f>422*4</f>
+        <v>1688</v>
+      </c>
+      <c r="O4" s="89">
+        <v>1658</v>
+      </c>
+      <c r="P4" s="85">
         <f>1-N4/O4</f>
-        <v>-0.11788079470198687</v>
+        <v>-1.8094089264173663E-2</v>
       </c>
     </row>
     <row r="5" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="84">
         <f>282</f>
         <v>282</v>
       </c>
@@ -5959,36 +5964,36 @@
         <f>424*0.6</f>
         <v>254.39999999999998</v>
       </c>
-      <c r="I5" s="92">
+      <c r="I5" s="87">
         <f t="shared" ref="I5:I10" si="0">1-G5/H5</f>
         <v>-0.10849056603773599</v>
       </c>
-      <c r="L5" s="87" t="s">
+      <c r="L5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="88" t="s">
+      <c r="M5" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="89">
-        <f>'Автоматизированный расчет'!B58*3.6</f>
-        <v>1015.2</v>
-      </c>
-      <c r="O5" s="95">
-        <v>933</v>
-      </c>
-      <c r="P5" s="90">
+      <c r="N5" s="84">
+        <f>282*4</f>
+        <v>1128</v>
+      </c>
+      <c r="O5" s="90">
+        <v>1170</v>
+      </c>
+      <c r="P5" s="85">
         <f t="shared" ref="P5:P11" si="1">1-N5/O5</f>
-        <v>-8.8102893890675382E-2</v>
+        <v>3.5897435897435881E-2</v>
       </c>
     </row>
     <row r="6" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="89">
+      <c r="G6" s="84">
         <f>270</f>
         <v>270</v>
       </c>
@@ -5996,36 +6001,36 @@
         <f>386*0.6</f>
         <v>231.6</v>
       </c>
-      <c r="I6" s="92">
+      <c r="I6" s="87">
         <f t="shared" si="0"/>
         <v>-0.16580310880829008</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="88" t="s">
+      <c r="M6" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="89">
-        <f>'Автоматизированный расчет'!B59*3.6</f>
-        <v>972</v>
-      </c>
-      <c r="O6" s="94">
-        <v>754</v>
-      </c>
-      <c r="P6" s="90">
+      <c r="N6" s="84">
+        <f>270*4</f>
+        <v>1080</v>
+      </c>
+      <c r="O6" s="89">
+        <v>1058</v>
+      </c>
+      <c r="P6" s="85">
         <f t="shared" si="1"/>
-        <v>-0.28912466843501328</v>
+        <v>-2.0793950850661602E-2</v>
       </c>
     </row>
     <row r="7" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="84">
         <f>175</f>
         <v>175</v>
       </c>
@@ -6033,36 +6038,36 @@
         <f>258*0.6</f>
         <v>154.79999999999998</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="87">
         <f t="shared" si="0"/>
         <v>-0.1304909560723515</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="89">
-        <f>'Автоматизированный расчет'!B60*3.6</f>
-        <v>630</v>
-      </c>
-      <c r="O7" s="94">
-        <v>441</v>
-      </c>
-      <c r="P7" s="91">
+      <c r="N7" s="84">
+        <f>175*4</f>
+        <v>700</v>
+      </c>
+      <c r="O7" s="89">
+        <v>698</v>
+      </c>
+      <c r="P7" s="86">
         <f t="shared" si="1"/>
-        <v>-0.4285714285714286</v>
+        <v>-2.8653295128939771E-3</v>
       </c>
     </row>
     <row r="8" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="84">
         <f>280</f>
         <v>280</v>
       </c>
@@ -6070,36 +6075,36 @@
         <f>420*0.6</f>
         <v>252</v>
       </c>
-      <c r="I8" s="92">
+      <c r="I8" s="87">
         <f t="shared" si="0"/>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L8" s="87" t="s">
+      <c r="L8" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="88" t="s">
+      <c r="M8" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="N8" s="89">
-        <f>'Автоматизированный расчет'!B61*3.6</f>
-        <v>1008</v>
-      </c>
-      <c r="O8" s="94">
-        <v>1160</v>
-      </c>
-      <c r="P8" s="90">
+      <c r="N8" s="84">
+        <f>280*4</f>
+        <v>1120</v>
+      </c>
+      <c r="O8" s="89">
+        <v>1113</v>
+      </c>
+      <c r="P8" s="85">
         <f t="shared" si="1"/>
-        <v>0.13103448275862073</v>
+        <v>-6.2893081761006275E-3</v>
       </c>
     </row>
     <row r="9" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="84">
         <f>73</f>
         <v>73</v>
       </c>
@@ -6107,36 +6112,36 @@
         <f>125*0.6</f>
         <v>75</v>
       </c>
-      <c r="I9" s="91">
+      <c r="I9" s="86">
         <f t="shared" si="0"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="L9" s="87" t="s">
+      <c r="L9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="88" t="s">
+      <c r="M9" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="89">
-        <f>'Автоматизированный расчет'!B62*3.6</f>
-        <v>262.8</v>
-      </c>
-      <c r="O9" s="94">
-        <v>540</v>
-      </c>
-      <c r="P9" s="90">
+      <c r="N9" s="84">
+        <f>73*4</f>
+        <v>292</v>
+      </c>
+      <c r="O9" s="89">
+        <v>312</v>
+      </c>
+      <c r="P9" s="85">
         <f t="shared" si="1"/>
-        <v>0.51333333333333331</v>
+        <v>6.4102564102564097E-2</v>
       </c>
     </row>
     <row r="10" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="84">
         <f>326</f>
         <v>326</v>
       </c>
@@ -6144,53 +6149,53 @@
         <f>437*0.6</f>
         <v>262.2</v>
       </c>
-      <c r="I10" s="92">
+      <c r="I10" s="87">
         <f t="shared" si="0"/>
         <v>-0.24332570556826849</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="88" t="s">
+      <c r="M10" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="89">
-        <f>'Автоматизированный расчет'!B63*3.6</f>
-        <v>1173.6000000000001</v>
-      </c>
-      <c r="O10" s="94">
-        <v>1130</v>
-      </c>
-      <c r="P10" s="90">
+      <c r="N10" s="84">
+        <f>326*4</f>
+        <v>1304</v>
+      </c>
+      <c r="O10" s="89">
+        <v>1230</v>
+      </c>
+      <c r="P10" s="85">
         <f t="shared" si="1"/>
-        <v>-3.8584070796460201E-2</v>
+        <v>-6.0162601626016166E-2</v>
       </c>
     </row>
     <row r="11" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M11" s="96" t="s">
-        <v>105</v>
-      </c>
-      <c r="N11" s="97">
+      <c r="M11" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="92">
         <f>SUM(N4:N10)</f>
-        <v>6580.8</v>
-      </c>
-      <c r="O11" s="97">
+        <v>7312</v>
+      </c>
+      <c r="O11" s="92">
         <f>SUM(O4:O10)</f>
-        <v>6317</v>
-      </c>
-      <c r="P11" s="98">
+        <v>7239</v>
+      </c>
+      <c r="P11" s="93">
         <f t="shared" si="1"/>
-        <v>-4.1760329270223329E-2</v>
+        <v>-1.0084265782566604E-2</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
@@ -6210,146 +6215,146 @@
       </c>
     </row>
     <row r="15" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="84">
         <v>422</v>
       </c>
       <c r="H15" s="2">
         <f>(543/4)*3</f>
         <v>407.25</v>
       </c>
-      <c r="I15" s="90">
-        <f>1-G15/H15</f>
+      <c r="I15" s="85">
+        <f t="shared" ref="I15:I21" si="2">1-G15/H15</f>
         <v>-3.6218538980969939E-2</v>
       </c>
     </row>
     <row r="16" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16" s="84">
         <v>282</v>
       </c>
       <c r="H16" s="2">
         <f>(382/4)*3</f>
         <v>286.5</v>
       </c>
-      <c r="I16" s="90">
-        <f>1-G16/H16</f>
+      <c r="I16" s="85">
+        <f t="shared" si="2"/>
         <v>1.5706806282722474E-2</v>
       </c>
     </row>
     <row r="17" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="89">
+      <c r="G17" s="84">
         <v>270</v>
       </c>
       <c r="H17" s="2">
         <f>(350/4)*3</f>
         <v>262.5</v>
       </c>
-      <c r="I17" s="90">
-        <f>1-G17/H17</f>
+      <c r="I17" s="85">
+        <f t="shared" si="2"/>
         <v>-2.857142857142847E-2</v>
       </c>
     </row>
     <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="89">
+      <c r="G18" s="84">
         <v>175</v>
       </c>
       <c r="H18" s="2">
         <f>(230/4)*3</f>
         <v>172.5</v>
       </c>
-      <c r="I18" s="91">
-        <f>1-G18/H18</f>
+      <c r="I18" s="86">
+        <f t="shared" si="2"/>
         <v>-1.449275362318847E-2</v>
       </c>
     </row>
     <row r="19" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="89">
+      <c r="G19" s="84">
         <v>280</v>
       </c>
       <c r="H19" s="2">
         <f>(366/4)*3</f>
         <v>274.5</v>
       </c>
-      <c r="I19" s="91">
-        <f>1-G19/H19</f>
+      <c r="I19" s="86">
+        <f t="shared" si="2"/>
         <v>-2.0036429872495543E-2</v>
       </c>
     </row>
     <row r="20" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="84">
         <v>73</v>
       </c>
       <c r="H20" s="2">
         <f>(102/4)*3</f>
         <v>76.5</v>
       </c>
-      <c r="I20" s="91">
-        <f>1-G20/H20</f>
+      <c r="I20" s="86">
+        <f t="shared" si="2"/>
         <v>4.5751633986928053E-2</v>
       </c>
     </row>
     <row r="21" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="84">
         <v>326</v>
       </c>
       <c r="H21" s="2">
         <f>(413/4)*3</f>
         <v>309.75</v>
       </c>
-      <c r="I21" s="91">
-        <f>1-G21/H21</f>
+      <c r="I21" s="86">
+        <f t="shared" si="2"/>
         <v>-5.246166263115426E-2</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
@@ -6369,145 +6374,145 @@
       </c>
     </row>
     <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="84">
         <v>422</v>
       </c>
       <c r="H26" s="2">
         <v>407</v>
       </c>
-      <c r="I26" s="90">
+      <c r="I26" s="85">
         <f>1-G26/H26</f>
         <v>-3.6855036855036882E-2</v>
       </c>
     </row>
     <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="87" t="s">
+      <c r="E27" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="88" t="s">
+      <c r="F27" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="89">
+      <c r="G27" s="84">
         <f>282</f>
         <v>282</v>
       </c>
       <c r="H27" s="2">
         <v>290</v>
       </c>
-      <c r="I27" s="90">
-        <f t="shared" ref="I27:I32" si="2">1-G27/H27</f>
+      <c r="I27" s="85">
+        <f t="shared" ref="I27:I32" si="3">1-G27/H27</f>
         <v>2.7586206896551779E-2</v>
       </c>
     </row>
     <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="88" t="s">
+      <c r="F28" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="89">
+      <c r="G28" s="84">
         <f>270</f>
         <v>270</v>
       </c>
       <c r="H28" s="2">
         <v>264</v>
       </c>
-      <c r="I28" s="90">
-        <f t="shared" si="2"/>
+      <c r="I28" s="85">
+        <f t="shared" si="3"/>
         <v>-2.2727272727272707E-2</v>
       </c>
     </row>
     <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="84">
         <f>175</f>
         <v>175</v>
       </c>
       <c r="H29" s="2">
         <v>174</v>
       </c>
-      <c r="I29" s="91">
-        <f t="shared" si="2"/>
+      <c r="I29" s="86">
+        <f t="shared" si="3"/>
         <v>-5.7471264367816577E-3</v>
       </c>
     </row>
     <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="87" t="s">
+      <c r="E30" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="88" t="s">
+      <c r="F30" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="89">
+      <c r="G30" s="84">
         <f>280</f>
         <v>280</v>
       </c>
       <c r="H30" s="2">
         <v>278</v>
       </c>
-      <c r="I30" s="91">
-        <f t="shared" si="2"/>
+      <c r="I30" s="86">
+        <f t="shared" si="3"/>
         <v>-7.194244604316502E-3</v>
       </c>
     </row>
     <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="88" t="s">
+      <c r="F31" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="84">
         <f>73</f>
         <v>73</v>
       </c>
       <c r="H31" s="2">
         <v>78</v>
       </c>
-      <c r="I31" s="92">
-        <f t="shared" si="2"/>
+      <c r="I31" s="87">
+        <f t="shared" si="3"/>
         <v>6.4102564102564097E-2</v>
       </c>
     </row>
     <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="88" t="s">
+      <c r="F32" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G32" s="84">
         <f>326</f>
         <v>326</v>
       </c>
       <c r="H32" s="2">
         <v>309</v>
       </c>
-      <c r="I32" s="91">
-        <f t="shared" si="2"/>
+      <c r="I32" s="86">
+        <f t="shared" si="3"/>
         <v>-5.5016181229773364E-2</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="99" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
     </row>
     <row r="36" spans="5:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
@@ -6527,20 +6532,20 @@
       </c>
     </row>
     <row r="37" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="88" t="s">
+      <c r="F37" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="89">
+      <c r="G37" s="84">
         <v>422</v>
       </c>
-      <c r="H37" s="93">
+      <c r="H37" s="88">
         <f>(271/2)*3</f>
         <v>406.5</v>
       </c>
-      <c r="I37" s="90">
+      <c r="I37" s="85">
         <f>1-G37/H37</f>
         <v>-3.8130381303812966E-2</v>
       </c>
@@ -6558,13 +6563,13 @@
       </c>
     </row>
     <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="88" t="s">
+      <c r="F38" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="89">
+      <c r="G38" s="84">
         <f>282</f>
         <v>282</v>
       </c>
@@ -6572,8 +6577,8 @@
         <f>(192/2)*3</f>
         <v>288</v>
       </c>
-      <c r="I38" s="90">
-        <f t="shared" ref="I38:I43" si="3">1-G38/H38</f>
+      <c r="I38" s="85">
+        <f t="shared" ref="I38:I43" si="4">1-G38/H38</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="L38" s="3" t="s">
@@ -6590,13 +6595,13 @@
       </c>
     </row>
     <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="88" t="s">
+      <c r="F39" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="89">
+      <c r="G39" s="84">
         <f>270</f>
         <v>270</v>
       </c>
@@ -6604,8 +6609,8 @@
         <f>(175/2)*3</f>
         <v>262.5</v>
       </c>
-      <c r="I39" s="90">
-        <f t="shared" si="3"/>
+      <c r="I39" s="85">
+        <f t="shared" si="4"/>
         <v>-2.857142857142847E-2</v>
       </c>
       <c r="L39" s="3" t="s">
@@ -6622,13 +6627,13 @@
       </c>
     </row>
     <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="89">
+      <c r="G40" s="84">
         <f>175</f>
         <v>175</v>
       </c>
@@ -6636,8 +6641,8 @@
         <f>(115/2)*3</f>
         <v>172.5</v>
       </c>
-      <c r="I40" s="91">
-        <f t="shared" si="3"/>
+      <c r="I40" s="86">
+        <f t="shared" si="4"/>
         <v>-1.449275362318847E-2</v>
       </c>
       <c r="L40" s="3" t="s">
@@ -6654,13 +6659,13 @@
       </c>
     </row>
     <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G41" s="89">
+      <c r="G41" s="84">
         <f>280</f>
         <v>280</v>
       </c>
@@ -6668,8 +6673,8 @@
         <f>(183/2)*3</f>
         <v>274.5</v>
       </c>
-      <c r="I41" s="91">
-        <f t="shared" si="3"/>
+      <c r="I41" s="86">
+        <f t="shared" si="4"/>
         <v>-2.0036429872495543E-2</v>
       </c>
       <c r="L41" s="3" t="s">
@@ -6686,13 +6691,13 @@
       </c>
     </row>
     <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="89">
+      <c r="G42" s="84">
         <f>73</f>
         <v>73</v>
       </c>
@@ -6700,8 +6705,8 @@
         <f>(51/2)*3</f>
         <v>76.5</v>
       </c>
-      <c r="I42" s="91">
-        <f t="shared" si="3"/>
+      <c r="I42" s="86">
+        <f t="shared" si="4"/>
         <v>4.5751633986928053E-2</v>
       </c>
       <c r="L42" s="3" t="s">
@@ -6718,13 +6723,13 @@
       </c>
     </row>
     <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="89">
+      <c r="G43" s="84">
         <f>326</f>
         <v>326</v>
       </c>
@@ -6732,8 +6737,8 @@
         <f>(205/2)*3</f>
         <v>307.5</v>
       </c>
-      <c r="I43" s="92">
-        <f t="shared" si="3"/>
+      <c r="I43" s="87">
+        <f t="shared" si="4"/>
         <v>-6.0162601626016166E-2</v>
       </c>
       <c r="L43" s="3" t="s">
@@ -6764,13 +6769,13 @@
       </c>
     </row>
     <row r="45" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
     </row>
     <row r="47" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E47" s="1" t="s">
@@ -6790,141 +6795,141 @@
       </c>
     </row>
     <row r="48" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="F48" s="88" t="s">
+      <c r="F48" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="89">
+      <c r="G48" s="84">
         <v>422</v>
       </c>
-      <c r="H48" s="93">
+      <c r="H48" s="88">
         <f>146*3</f>
         <v>438</v>
       </c>
-      <c r="I48" s="90">
+      <c r="I48" s="85">
         <f>1-G48/H48</f>
         <v>3.6529680365296802E-2</v>
       </c>
     </row>
     <row r="49" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="87" t="s">
+      <c r="E49" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="88" t="s">
+      <c r="F49" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="G49" s="89">
+      <c r="G49" s="84">
         <f>282</f>
         <v>282</v>
       </c>
-      <c r="H49" s="93">
+      <c r="H49" s="88">
         <f>101*3</f>
         <v>303</v>
       </c>
-      <c r="I49" s="92">
-        <f t="shared" ref="I49:I54" si="4">1-G49/H49</f>
+      <c r="I49" s="87">
+        <f t="shared" ref="I49:I54" si="5">1-G49/H49</f>
         <v>6.9306930693069257E-2</v>
       </c>
     </row>
     <row r="50" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E50" s="87" t="s">
+      <c r="E50" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F50" s="88" t="s">
+      <c r="F50" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="G50" s="89">
+      <c r="G50" s="84">
         <f>270</f>
         <v>270</v>
       </c>
-      <c r="H50" s="93">
+      <c r="H50" s="88">
         <f>91*3</f>
         <v>273</v>
       </c>
-      <c r="I50" s="90">
-        <f t="shared" si="4"/>
+      <c r="I50" s="85">
+        <f t="shared" si="5"/>
         <v>1.098901098901095E-2</v>
       </c>
     </row>
     <row r="51" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E51" s="87" t="s">
+      <c r="E51" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="88" t="s">
+      <c r="F51" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G51" s="89">
+      <c r="G51" s="84">
         <f>175</f>
         <v>175</v>
       </c>
-      <c r="H51" s="93">
+      <c r="H51" s="88">
         <f>60*3</f>
         <v>180</v>
       </c>
-      <c r="I51" s="91">
-        <f t="shared" si="4"/>
+      <c r="I51" s="86">
+        <f t="shared" si="5"/>
         <v>2.777777777777779E-2</v>
       </c>
     </row>
     <row r="52" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E52" s="87" t="s">
+      <c r="E52" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="88" t="s">
+      <c r="F52" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="89">
+      <c r="G52" s="84">
         <f>280</f>
         <v>280</v>
       </c>
-      <c r="H52" s="93">
+      <c r="H52" s="88">
         <f>102*3</f>
         <v>306</v>
       </c>
-      <c r="I52" s="92">
-        <f t="shared" si="4"/>
+      <c r="I52" s="87">
+        <f t="shared" si="5"/>
         <v>8.496732026143794E-2</v>
       </c>
     </row>
     <row r="53" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E53" s="87" t="s">
+      <c r="E53" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="88" t="s">
+      <c r="F53" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="G53" s="89">
+      <c r="G53" s="84">
         <f>73</f>
         <v>73</v>
       </c>
-      <c r="H53" s="93">
+      <c r="H53" s="88">
         <f>30*3</f>
         <v>90</v>
       </c>
-      <c r="I53" s="92">
-        <f t="shared" si="4"/>
+      <c r="I53" s="87">
+        <f t="shared" si="5"/>
         <v>0.18888888888888888</v>
       </c>
     </row>
     <row r="54" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E54" s="87" t="s">
+      <c r="E54" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="88" t="s">
+      <c r="F54" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="G54" s="89">
+      <c r="G54" s="84">
         <f>326</f>
         <v>326</v>
       </c>
-      <c r="H54" s="93">
+      <c r="H54" s="88">
         <f>108*3</f>
         <v>324</v>
       </c>
-      <c r="I54" s="91">
-        <f t="shared" si="4"/>
+      <c r="I54" s="86">
+        <f t="shared" si="5"/>
         <v>-6.1728395061728669E-3</v>
       </c>
     </row>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA240835-33DE-4532-903F-1AD2227A0BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB3B3A-7D57-4FB6-8256-319EE0A5FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,7 +816,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(40 vusers)</t>
+      <t>(40 vusers, 100% от L0)</t>
     </r>
   </si>
 </sst>
@@ -6127,11 +6127,11 @@
         <v>292</v>
       </c>
       <c r="O9" s="89">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P9" s="85">
         <f t="shared" si="1"/>
-        <v>6.4102564102564097E-2</v>
+        <v>3.3112582781456901E-2</v>
       </c>
     </row>
     <row r="10" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -6164,11 +6164,11 @@
         <v>1304</v>
       </c>
       <c r="O10" s="89">
-        <v>1230</v>
+        <v>1320</v>
       </c>
       <c r="P10" s="85">
         <f t="shared" si="1"/>
-        <v>-6.0162601626016166E-2</v>
+        <v>1.2121212121212088E-2</v>
       </c>
     </row>
     <row r="11" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,11 +6181,11 @@
       </c>
       <c r="O11" s="92">
         <f>SUM(O4:O10)</f>
-        <v>7239</v>
+        <v>7319</v>
       </c>
       <c r="P11" s="93">
         <f t="shared" si="1"/>
-        <v>-1.0084265782566604E-2</v>
+        <v>9.564148107664705E-4</v>
       </c>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB3B3A-7D57-4FB6-8256-319EE0A5FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734979DF-28D2-4FB9-9260-64F593721AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5844,7 +5844,7 @@
   <dimension ref="C1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Документы/WebTours_Профиль.xlsx
+++ b/Документы/WebTours_Профиль.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Programs\FinalTask\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734979DF-28D2-4FB9-9260-64F593721AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5796B-9FF6-4614-A9EC-1A83C3971C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
     <sheet name="Соответствие" sheetId="4" r:id="rId2"/>
     <sheet name="SummaryReport" sheetId="5" r:id="rId3"/>
-    <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
+    <sheet name="Результаты поиска макс." sheetId="2" r:id="rId4"/>
+    <sheet name="Результаты подтв. максимума" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -473,24 +474,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="94">
   <si>
     <t>Вход в систему</t>
-  </si>
-  <si>
-    <t>Заполнение полей для поиска билета</t>
-  </si>
-  <si>
-    <t>Выбор рейса из найденных</t>
   </si>
   <si>
     <t>Оплата билета</t>
   </si>
   <si>
     <t>Просмотр квитанций</t>
-  </si>
-  <si>
-    <t>Отмена бронирования билета</t>
   </si>
   <si>
     <t>Выход из системы</t>
@@ -532,30 +524,6 @@
     <t>% отклонения</t>
   </si>
   <si>
-    <t>payment_details</t>
-  </si>
-  <si>
-    <t>Просмотр квитанции</t>
-  </si>
-  <si>
-    <t>Cancel_reservation</t>
-  </si>
-  <si>
-    <t>Check_ticket</t>
-  </si>
-  <si>
-    <t>fing_flight</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>select_ticket</t>
-  </si>
-  <si>
     <t>Transaction Name</t>
   </si>
   <si>
@@ -566,18 +534,6 @@
   </si>
   <si>
     <t>Stop</t>
-  </si>
-  <si>
-    <t>Поиск максимума 3 ступень</t>
-  </si>
-  <si>
-    <t>1 315,</t>
-  </si>
-  <si>
-    <t>1 970,</t>
-  </si>
-  <si>
-    <t>1 675,</t>
   </si>
   <si>
     <t>Script name</t>
@@ -778,18 +734,29 @@
     <t>Поиск максимума 5 ступень</t>
   </si>
   <si>
-    <t>Поиск максимума 2 ступень</t>
-  </si>
-  <si>
     <t>Поиск максимума 1 ступень</t>
   </si>
   <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Поиск максимума 4 ступень</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Поиск максимума 3 ступень</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Поиск максимума 4 ступень </t>
+      <t xml:space="preserve">Поиск максимума 2 ступень </t>
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -797,11 +764,8 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Выбрана как максимум)</t>
+      <t>(Выбрана как максимальная)</t>
     </r>
-  </si>
-  <si>
-    <t>Итог</t>
   </si>
   <si>
     <r>
@@ -816,7 +780,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(40 vusers, 100% от L0)</t>
+      <t>(20 vusers, 100% от L0)</t>
     </r>
   </si>
 </sst>
@@ -824,20 +788,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1106,40 +1062,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="44">
@@ -1389,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1906,96 +1859,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2003,25 +1977,24 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -2043,34 +2016,34 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="37" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2080,17 +2053,14 @@
     <xf numFmtId="1" fontId="0" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -2098,47 +2068,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2154,6 +2105,35 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="80">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2237,7 +2217,1287 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="139">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2249,25 +3509,30 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <numFmt numFmtId="168" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="167" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000000"/>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEFC689"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2280,7 +3545,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45639.716504745367" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артем Клейменов" refreshedDate="45654.726721990737" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="34" xr:uid="{15D61AD1-E1C1-4DCC-AFD6-4E9D9EE3EDD2}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H35" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2756,28 +4021,28 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="138">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="137">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="136">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="135">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="134">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="133">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="132">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3064,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:F61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,84 +4355,85 @@
     <col min="18" max="18" width="10.42578125" customWidth="1"/>
     <col min="19" max="19" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>79</v>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="63">
+      <c r="C2" s="58">
         <v>1</v>
       </c>
-      <c r="D2" s="65">
+      <c r="D2" s="59">
         <f>VLOOKUP(A2,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3175,7 +4441,7 @@
         <f>VLOOKUP(A2,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <f>60/E2*C2</f>
         <v>0.59405940594059403</v>
       </c>
@@ -3183,52 +4449,53 @@
         <f>VLOOKUP(A2,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <f>D2*F2*G2</f>
         <v>23.762376237623762</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>136.61951909476662</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="L2" s="77"/>
+      <c r="M2" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5">
         <v>1.9</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="19">
         <f>5*6</f>
         <v>30</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="20">
         <f>N2+O2</f>
         <v>31.9</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="9">
         <v>101</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="28">
         <v>2</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="29">
         <f>R2/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T2" s="45">
+      <c r="T2" s="41">
         <f t="shared" ref="T2:T7" si="0">60/(Q2)</f>
         <v>0.59405940594059403</v>
       </c>
-      <c r="U2" s="78">
+      <c r="U2" s="71">
         <v>20</v>
       </c>
-      <c r="V2" s="79">
+      <c r="V2" s="72">
         <f>ROUND(R2*T2*U2,0)</f>
         <v>24</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="14">
         <f>SUM(R2:R7)</f>
         <v>10</v>
       </c>
@@ -3241,467 +4508,472 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="58">
         <v>1</v>
       </c>
-      <c r="D3" s="65">
-        <f t="shared" ref="D3:D8" si="1">VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
+      <c r="D3" s="59">
+        <f>VLOOKUP(A3,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E8" si="2">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
+        <f t="shared" ref="E3:E8" si="1">VLOOKUP(A3,$M$1:$X$8,5,FALSE)</f>
         <v>101</v>
       </c>
-      <c r="F3" s="7">
-        <f t="shared" ref="F3:F8" si="3">60/E3*C3</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F8" si="2">60/E3*C3</f>
         <v>0.59405940594059403</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="4">VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
+        <f t="shared" ref="G3:G8" si="3">VLOOKUP(A3,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H8" si="5">D3*F3*G3</f>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H8" si="4">D3*F3*G3</f>
         <v>23.762376237623762</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3">
         <v>88.048090523338047</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="L3" s="78"/>
+      <c r="M3" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5">
         <v>1.5</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="19">
         <f>2*10</f>
         <v>20</v>
       </c>
-      <c r="P3" s="24">
-        <f t="shared" ref="P3:P7" si="6">N3+O3</f>
+      <c r="P3" s="20">
+        <f t="shared" ref="P3:P7" si="5">N3+O3</f>
         <v>21.5</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="9">
         <v>140</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="28">
         <v>1</v>
       </c>
-      <c r="S3" s="33">
-        <f t="shared" ref="S3:S6" si="7">R3/W$2</f>
+      <c r="S3" s="29">
+        <f t="shared" ref="S3:S6" si="6">R3/W$2</f>
         <v>0.1</v>
       </c>
-      <c r="T3" s="45">
+      <c r="T3" s="41">
         <f t="shared" si="0"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="U3" s="78">
+      <c r="U3" s="71">
         <v>20</v>
       </c>
-      <c r="V3" s="79">
+      <c r="V3" s="72">
         <f>ROUND(R3*T3*U3,0)</f>
         <v>9</v>
       </c>
-      <c r="W3" s="18"/>
+      <c r="W3" s="14"/>
       <c r="Y3">
         <v>10</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z7" si="8">Q3+((Q3/100)*Y3)</f>
+        <f t="shared" ref="Z3:Z7" si="7">Q3+((Q3/100)*Y3)</f>
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="63">
+      <c r="A4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="59">
+        <f t="shared" ref="D3:D8" si="8">VLOOKUP(A4,$M$1:$X$8,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <v>101</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="F4" s="7">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="3"/>
-        <v>0.59405940594059403</v>
-      </c>
-      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
         <v>103.33333333333334</v>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="L4" s="77"/>
+      <c r="M4" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="5">
         <v>1</v>
       </c>
-      <c r="O4" s="23">
+      <c r="O4" s="19">
         <f>4*4</f>
         <v>16</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="20">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>36</v>
+      </c>
+      <c r="R4" s="28">
+        <v>1</v>
+      </c>
+      <c r="S4" s="29">
         <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>36</v>
-      </c>
-      <c r="R4" s="32">
-        <v>1</v>
-      </c>
-      <c r="S4" s="33">
-        <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="T4" s="45">
+      <c r="T4" s="41">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="U4" s="78">
+      <c r="U4" s="71">
         <v>20</v>
       </c>
-      <c r="V4" s="79">
+      <c r="V4" s="72">
         <f>ROUND(R4*T4*U4,0)</f>
         <v>33</v>
       </c>
-      <c r="W4" s="18"/>
+      <c r="W4" s="14"/>
       <c r="Y4">
         <v>10</v>
       </c>
       <c r="Z4">
+        <f t="shared" si="7"/>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="59">
         <f t="shared" si="8"/>
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="4"/>
+        <v>23.762376237623762</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="63">
-        <v>1</v>
-      </c>
-      <c r="D5" s="65">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="3"/>
-        <v>0.59405940594059403</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="5"/>
-        <v>23.762376237623762</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>96.619519094766616</v>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="8">
+      <c r="L5" s="77"/>
+      <c r="M5" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="5">
         <v>1.7</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="47">
         <f>5*5</f>
         <v>25</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="48">
         <f>N5+O5</f>
         <v>26.7</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="49">
         <v>80</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="50">
         <v>2</v>
       </c>
-      <c r="S5" s="33">
-        <f t="shared" si="7"/>
+      <c r="S5" s="29">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="41">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="U5" s="78">
+      <c r="U5" s="71">
         <v>20</v>
       </c>
-      <c r="V5" s="79">
+      <c r="V5" s="72">
         <f>ROUND(R5*T5*U5,0)</f>
         <v>30</v>
       </c>
-      <c r="W5" s="18"/>
+      <c r="W5" s="14"/>
       <c r="Y5">
         <v>10</v>
       </c>
       <c r="Z5">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="58">
+        <v>1</v>
+      </c>
+      <c r="D6" s="59">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="63">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>23.762376237623762</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="65">
-        <f t="shared" si="1"/>
+      <c r="J6" s="3">
+        <v>58.048090523338047</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="19">
+        <f>5*6</f>
+        <v>30</v>
+      </c>
+      <c r="P6" s="20">
+        <f>N6+O6</f>
+        <v>30.9</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>70</v>
+      </c>
+      <c r="R6" s="55">
         <v>2</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="3"/>
-        <v>0.59405940594059403</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="5"/>
-        <v>23.762376237623762</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>58.048090523338047</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="O6" s="23">
-        <f>4*7</f>
-        <v>28</v>
-      </c>
-      <c r="P6" s="24">
-        <f>N6+O6</f>
-        <v>28.9</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>70</v>
-      </c>
-      <c r="R6" s="59">
-        <v>2</v>
-      </c>
-      <c r="S6" s="33">
-        <f t="shared" si="7"/>
+      <c r="S6" s="29">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="41">
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="U6" s="78">
+      <c r="U6" s="71">
         <v>20</v>
       </c>
-      <c r="V6" s="79">
+      <c r="V6" s="72">
         <f>ROUND(R6*T6*U6,0)</f>
         <v>34</v>
       </c>
-      <c r="W6" s="18"/>
+      <c r="W6" s="14"/>
       <c r="Y6">
         <v>10</v>
       </c>
       <c r="Z6">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59">
         <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="63">
-        <v>1</v>
-      </c>
-      <c r="D7" s="65">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7">
+        <v>101</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="F7" s="7">
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.59405940594059403</v>
-      </c>
-      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="5"/>
         <v>23.762376237623762</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <v>25.714285714285712</v>
       </c>
-      <c r="M7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="8">
+      <c r="L7" s="77"/>
+      <c r="M7" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="5">
         <v>0.9</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="51">
         <f>5*2</f>
         <v>10</v>
       </c>
-      <c r="P7" s="56">
-        <f t="shared" si="6"/>
+      <c r="P7" s="52">
+        <f t="shared" si="5"/>
         <v>10.9</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="53">
         <v>60</v>
       </c>
-      <c r="R7" s="58">
+      <c r="R7" s="54">
         <v>2</v>
       </c>
-      <c r="S7" s="33">
+      <c r="S7" s="29">
         <f>R7/W$2</f>
         <v>0.2</v>
       </c>
-      <c r="T7" s="45">
+      <c r="T7" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U7" s="78">
+      <c r="U7" s="71">
         <v>20</v>
       </c>
-      <c r="V7" s="79">
+      <c r="V7" s="72">
         <f>SUM(V2:V6)</f>
         <v>130</v>
       </c>
-      <c r="W7" s="18"/>
+      <c r="W7" s="14"/>
       <c r="Y7">
         <v>10</v>
       </c>
       <c r="Z7">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="66">
+        <v>1</v>
+      </c>
+      <c r="D8" s="59">
         <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="73">
-        <v>1</v>
-      </c>
-      <c r="D8" s="65">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.59405940594059403</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="4"/>
+        <v>23.762376237623762</v>
+      </c>
+      <c r="I8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="3"/>
-        <v>0.59405940594059403</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="5"/>
-        <v>23.762376237623762</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>92.333804809052339</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="36">
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="32">
         <f>SUM(S2:S7)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="43"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="19"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="75">
+      <c r="A9" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="68">
         <v>1</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="63">
         <f t="shared" ref="D9:D21" si="9">VLOOKUP(A9,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -3709,7 +4981,7 @@
         <f t="shared" ref="E9:E20" si="10">VLOOKUP(A9,$M$1:$X$8,5,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="4">
         <f t="shared" ref="F9:F20" si="11">60/E9*C9</f>
         <v>1</v>
       </c>
@@ -3717,28 +4989,28 @@
         <f t="shared" ref="G9:G20" si="12">VLOOKUP(A9,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <f t="shared" ref="H9:H21" si="13">D9*F9*G9</f>
         <v>40</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3">
         <v>169.95285242809996</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="67">
         <v>1</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="63">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3746,7 +5018,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3754,29 +5026,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3">
         <v>33.333333333333336</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="74">
+      <c r="A11" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="67">
         <v>1</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="63">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
@@ -3784,7 +5056,7 @@
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -3792,29 +5064,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3">
         <v>33.333333333333336</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="75">
+      <c r="A12" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="68">
         <v>1</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="63">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3822,7 +5094,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3830,29 +5102,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="3">
         <v>33.333333333333336</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="71">
+      <c r="A13" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="64">
         <v>1</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="65">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3860,7 +5132,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3868,29 +5140,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="3">
         <v>96.619519094766616</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="63">
+      <c r="A14" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="58">
         <v>1</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3898,7 +5170,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3906,29 +5178,29 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="3">
         <v>967.28901461574731</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="63">
+      <c r="A15" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="58">
         <v>1</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3936,7 +5208,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3944,23 +5216,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="69">
+      <c r="A16" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="62">
         <v>1</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="63">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -3968,7 +5240,7 @@
         <f t="shared" si="10"/>
         <v>36</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <f t="shared" si="11"/>
         <v>1.6666666666666667</v>
       </c>
@@ -3976,23 +5248,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <f t="shared" si="13"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="63">
+      <c r="A17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="58">
         <v>1</v>
       </c>
-      <c r="D17" s="65">
+      <c r="D17" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4000,30 +5272,30 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G17">
-        <f t="shared" si="12"/>
+        <f>VLOOKUP(A17,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="58">
         <v>1</v>
       </c>
-      <c r="D18" s="65">
+      <c r="D18" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4031,7 +5303,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="4">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4039,25 +5311,25 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="63">
+      <c r="A19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="58">
         <v>1</v>
       </c>
-      <c r="D19" s="65">
+      <c r="D19" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4065,7 +5337,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="4">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4073,23 +5345,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="P19" s="6"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="63">
+      <c r="A20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="58">
         <v>1</v>
       </c>
-      <c r="D20" s="65">
+      <c r="D20" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4097,7 +5369,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="4">
         <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
@@ -4105,23 +5377,23 @@
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <f t="shared" si="13"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="P20" s="6"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="58">
         <v>4</v>
       </c>
-      <c r="C21" s="63">
-        <v>4</v>
-      </c>
-      <c r="D21" s="65">
+      <c r="D21" s="59">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -4129,7 +5401,7 @@
         <f t="shared" ref="E21" si="14">VLOOKUP(A21,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="4">
         <f t="shared" ref="F21" si="15">60/E21*C21</f>
         <v>1.7142857142857142</v>
       </c>
@@ -4137,22 +5409,22 @@
         <f t="shared" ref="G21" si="16">VLOOKUP(A21,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <f t="shared" si="13"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="63">
+      <c r="A22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="58">
         <v>3</v>
       </c>
-      <c r="D22" s="65">
+      <c r="D22" s="59">
         <f t="shared" ref="D22" si="17">VLOOKUP(A22,$M$1:$X$8,6,FALSE)</f>
         <v>1</v>
       </c>
@@ -4160,7 +5432,7 @@
         <f t="shared" ref="E22" si="18">VLOOKUP(A22,$M$1:$X$8,5,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="4">
         <f t="shared" ref="F22" si="19">60/E22*C22</f>
         <v>1.2857142857142856</v>
       </c>
@@ -4168,23 +5440,23 @@
         <f t="shared" ref="G22" si="20">VLOOKUP(A22,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <f t="shared" ref="H22" si="21">D22*F22*G22</f>
         <v>25.714285714285712</v>
       </c>
-      <c r="P22" s="6"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="63">
+      <c r="A23" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="58">
         <v>1</v>
       </c>
-      <c r="D23" s="65">
+      <c r="D23" s="59">
         <f t="shared" ref="D23:D33" si="22">VLOOKUP(A23,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4192,7 +5464,7 @@
         <f t="shared" ref="E23:E35" si="23">VLOOKUP(A23,$M$1:$X$8,5,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <f t="shared" ref="F23:F33" si="24">60/E23*C23</f>
         <v>0.75</v>
       </c>
@@ -4200,23 +5472,23 @@
         <f t="shared" ref="G23:G35" si="25">VLOOKUP(A23,$M$1:$X$8,9,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <f t="shared" ref="H23:H35" si="26">D23*F23*G23</f>
         <v>30</v>
       </c>
-      <c r="P23" s="6"/>
+      <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="58">
         <v>1</v>
       </c>
-      <c r="D24" s="65">
+      <c r="D24" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4224,7 +5496,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4232,23 +5504,23 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="P24" s="6"/>
+      <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
-        <v>61</v>
+      <c r="A25" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="63">
+        <v>49</v>
+      </c>
+      <c r="C25" s="58">
         <v>1</v>
       </c>
-      <c r="D25" s="65">
+      <c r="D25" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4256,7 +5528,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4264,25 +5536,25 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
-      <c r="I25" s="62"/>
-      <c r="N25" s="7"/>
-      <c r="P25" s="6"/>
+      <c r="I25" s="57"/>
+      <c r="N25" s="4"/>
+      <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="63">
+      <c r="A26" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="58">
         <v>1</v>
       </c>
-      <c r="D26" s="65">
+      <c r="D26" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4290,7 +5562,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="4">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4298,22 +5570,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="63">
+      <c r="A27" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="58">
         <v>1</v>
       </c>
-      <c r="D27" s="65">
+      <c r="D27" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4321,7 +5593,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="4">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4329,22 +5601,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="63">
+      <c r="A28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="58">
         <v>1</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4352,7 +5624,7 @@
         <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="4">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -4360,22 +5632,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <f t="shared" si="26"/>
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="63">
+      <c r="A29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="58">
         <v>1</v>
       </c>
-      <c r="D29" s="65">
+      <c r="D29" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4383,7 +5655,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4391,22 +5663,22 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="58">
         <v>1</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4414,7 +5686,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4422,23 +5694,23 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P30" s="6"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>10</v>
+      <c r="A31" s="44" t="s">
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="63">
+        <v>49</v>
+      </c>
+      <c r="C31" s="58">
         <v>1</v>
       </c>
-      <c r="D31" s="65">
+      <c r="D31" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4446,7 +5718,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="4">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4454,24 +5726,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P31" s="6"/>
-      <c r="T31" s="6"/>
+      <c r="P31" s="3"/>
+      <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="63">
+      <c r="A32" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="58">
         <v>1</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4479,7 +5751,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="4">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4487,24 +5759,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P32" s="6"/>
-      <c r="T32" s="6"/>
+      <c r="P32" s="3"/>
+      <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="63">
+      <c r="A33" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="58">
         <v>1</v>
       </c>
-      <c r="D33" s="65">
+      <c r="D33" s="59">
         <f t="shared" si="22"/>
         <v>2</v>
       </c>
@@ -4512,7 +5784,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
         <f t="shared" si="24"/>
         <v>0.8571428571428571</v>
       </c>
@@ -4520,24 +5792,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="3">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="P33" s="3"/>
+      <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="63">
+      <c r="A34" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="65">
+      <c r="C34" s="58">
+        <v>1</v>
+      </c>
+      <c r="D34" s="59">
         <f t="shared" ref="D34" si="27">VLOOKUP(A34,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4545,7 +5817,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="4">
         <f t="shared" ref="F34" si="28">60/E34*C34</f>
         <v>0.8571428571428571</v>
       </c>
@@ -4553,24 +5825,24 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H34" s="6">
-        <f t="shared" si="26"/>
+      <c r="H34" s="3">
+        <f>D34*F34*G34</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="P34" s="6"/>
-      <c r="T34" s="6"/>
+      <c r="P34" s="3"/>
+      <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="69">
+      <c r="A35" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="62">
         <v>1</v>
       </c>
-      <c r="D35" s="70">
+      <c r="D35" s="63">
         <f>VLOOKUP(A35,$M$1:$X$8,6,FALSE)</f>
         <v>2</v>
       </c>
@@ -4578,7 +5850,7 @@
         <f t="shared" si="23"/>
         <v>70</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="4">
         <f>60/E35*C35</f>
         <v>0.8571428571428571</v>
       </c>
@@ -4586,18 +5858,18 @@
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <f t="shared" si="26"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="P35" s="6"/>
-      <c r="T35" s="6"/>
+      <c r="P35" s="3"/>
+      <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="6"/>
-      <c r="T36" s="6"/>
+      <c r="A36" s="57"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="T36" s="3"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q44">
@@ -4606,470 +5878,478 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" s="98"/>
+      <c r="A53" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="88"/>
     </row>
     <row r="54" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>55</v>
+      <c r="A54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="42"/>
+      <c r="F54" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="38">
+      <c r="A55" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="34">
         <v>520</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="20">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A55)*3</f>
         <v>509.85855728429988</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="83">
         <f>1-B55/C55</f>
         <v>-1.9890698255055961E-2</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="42" t="str">
+      <c r="E55" s="21"/>
+      <c r="F55" s="38" t="str">
         <f>VLOOKUP(A55,Соответствие!A:B,2,FALSE)</f>
         <v>OpenLandingPage</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="17">
         <f>C55/3</f>
         <v>169.95285242809996</v>
       </c>
-      <c r="H55" s="81">
+      <c r="H55" s="74">
         <f>VLOOKUP(F55,SummaryReport!A:J,8,FALSE)</f>
-        <v>172</v>
-      </c>
-      <c r="I55" s="10">
+        <v>177</v>
+      </c>
+      <c r="I55" s="6">
         <f>1-G55/H55</f>
-        <v>1.1902020766860755E-2</v>
+        <v>3.9814393061582187E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="34">
         <v>422</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="20">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A56)*3</f>
         <v>409.85855728429988</v>
       </c>
-      <c r="D56" s="60">
+      <c r="D56" s="83">
         <f>1-B56/C56</f>
         <v>-2.9623494495634395E-2</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="42" t="str">
+      <c r="E56" s="21"/>
+      <c r="F56" s="38" t="str">
         <f>VLOOKUP(A56,Соответствие!A:B,2,FALSE)</f>
         <v>Login</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="17">
         <f t="shared" ref="G56:G66" si="29">C56/3</f>
         <v>136.61951909476662</v>
       </c>
-      <c r="H56" s="81">
+      <c r="H56" s="74">
         <f>VLOOKUP(F56,SummaryReport!A:J,8,FALSE)</f>
-        <v>138</v>
-      </c>
-      <c r="I56" s="10">
+        <v>144</v>
+      </c>
+      <c r="I56" s="6">
         <f t="shared" ref="I56:I66" si="30">1-G56/H56</f>
-        <v>1.0003484820531816E-2</v>
+        <v>5.1253339619676264E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="38">
+      <c r="A57" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="34">
         <v>305</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="20">
         <f t="shared" ref="C57:C66" si="31">GETPIVOTDATA("Итого",$I$1,"transaction rq",A57)*3</f>
         <v>289.85855728429988</v>
       </c>
-      <c r="D57" s="60">
+      <c r="D57" s="83">
         <f>1-B57/C57</f>
         <v>-5.2237349338798644E-2</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="42" t="str">
+      <c r="E57" s="21"/>
+      <c r="F57" s="38" t="str">
         <f>VLOOKUP(A57,Соответствие!A:B,2,FALSE)</f>
         <v>OpenPage_FindFlight</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G57" s="17">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H57" s="81">
+      <c r="H57" s="74">
         <f>VLOOKUP(F57,SummaryReport!A:J,8,FALSE)</f>
-        <v>99</v>
-      </c>
-      <c r="I57" s="10">
+        <v>102</v>
+      </c>
+      <c r="I57" s="6">
         <f t="shared" si="30"/>
-        <v>2.4045261669023987E-2</v>
+        <v>5.274981279640556E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="38">
+      <c r="A58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="34">
         <v>282</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="20">
         <f t="shared" si="31"/>
         <v>289.85855728429988</v>
       </c>
-      <c r="D58" s="60">
+      <c r="D58" s="83">
         <f t="shared" ref="D58:D67" si="32">1-B58/C58</f>
         <v>2.7111696676914154E-2</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="42" t="str">
+      <c r="E58" s="21"/>
+      <c r="F58" s="38" t="str">
         <f>VLOOKUP(A58,Соответствие!A:B,2,FALSE)</f>
         <v>SubmitFlight</v>
       </c>
-      <c r="G58" s="21">
+      <c r="G58" s="17">
         <f t="shared" si="29"/>
         <v>96.61951909476663</v>
       </c>
-      <c r="H58" s="81">
+      <c r="H58" s="74">
         <f>VLOOKUP(F58,SummaryReport!A:J,8,FALSE)</f>
-        <v>97</v>
-      </c>
-      <c r="I58" s="10">
+        <v>102</v>
+      </c>
+      <c r="I58" s="6">
         <f t="shared" si="30"/>
-        <v>3.9224835591068485E-3</v>
+        <v>5.274981279640556E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="38">
+      <c r="A59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="34">
         <v>270</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="20">
         <f t="shared" si="31"/>
         <v>264.14427157001415</v>
       </c>
-      <c r="D59" s="60">
+      <c r="D59" s="83">
         <f t="shared" si="32"/>
         <v>-2.2168674698795243E-2</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="42" t="str">
+      <c r="E59" s="21"/>
+      <c r="F59" s="38" t="str">
         <f>VLOOKUP(A59,Соответствие!A:B,2,FALSE)</f>
         <v>СhooseDepartureTime</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G59" s="17">
         <f t="shared" si="29"/>
         <v>88.048090523338047</v>
       </c>
-      <c r="H59" s="81">
+      <c r="H59" s="74">
         <f>VLOOKUP(F59,SummaryReport!A:J,8,FALSE)</f>
-        <v>88</v>
-      </c>
-      <c r="I59" s="10">
+        <v>94</v>
+      </c>
+      <c r="I59" s="6">
         <f t="shared" si="30"/>
-        <v>-5.4648321975059311E-4</v>
+        <v>6.3318185921935721E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="38">
+      <c r="A60" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="34">
         <v>175</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="20">
         <f t="shared" si="31"/>
         <v>174.14427157001415</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="83">
         <f t="shared" si="32"/>
         <v>-4.9139051332032224E-3</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="42" t="str">
+      <c r="E60" s="21"/>
+      <c r="F60" s="38" t="str">
         <f>VLOOKUP(A60,Соответствие!A:B,2,FALSE)</f>
         <v>BuyingTicket</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G60" s="17">
         <f t="shared" si="29"/>
         <v>58.048090523338054</v>
       </c>
-      <c r="H60" s="81">
+      <c r="H60" s="74">
         <f>VLOOKUP(F60,SummaryReport!A:J,8,FALSE)</f>
-        <v>58</v>
-      </c>
-      <c r="I60" s="10">
+        <v>60</v>
+      </c>
+      <c r="I60" s="6">
         <f t="shared" si="30"/>
-        <v>-8.2914695410440942E-4</v>
+        <v>3.2531824611032434E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="38">
+      <c r="A61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="34">
         <v>280</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="20">
         <f t="shared" si="31"/>
         <v>277.00141442715699</v>
       </c>
-      <c r="D61" s="60">
+      <c r="D61" s="83">
         <f t="shared" si="32"/>
         <v>-1.0825163398692883E-2</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="42" t="str">
+      <c r="E61" s="21"/>
+      <c r="F61" s="38" t="str">
         <f>VLOOKUP(A61,Соответствие!A:B,2,FALSE)</f>
         <v>ViewTicketList</v>
       </c>
-      <c r="G61" s="21">
-        <f>C61/3</f>
+      <c r="G61" s="17">
+        <f t="shared" si="29"/>
         <v>92.333804809052324</v>
       </c>
-      <c r="H61" s="81">
+      <c r="H61" s="74">
         <f>VLOOKUP(F61,SummaryReport!A:J,8,FALSE)</f>
-        <v>94</v>
-      </c>
-      <c r="I61" s="10">
+        <v>91</v>
+      </c>
+      <c r="I61" s="6">
         <f t="shared" si="30"/>
-        <v>1.7725480754762546E-2</v>
+        <v>-1.4657195703871695E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="38">
+      <c r="A62" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="34">
         <v>73</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="20">
         <f t="shared" si="31"/>
         <v>77.142857142857139</v>
       </c>
-      <c r="D62" s="60">
+      <c r="D62" s="83">
         <f t="shared" si="32"/>
         <v>5.3703703703703698E-2</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="42" t="str">
+      <c r="E62" s="21"/>
+      <c r="F62" s="38" t="str">
         <f>VLOOKUP(A62,Соответствие!A:B,2,FALSE)</f>
         <v>DeleteTicket</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G62" s="17">
         <f t="shared" si="29"/>
         <v>25.714285714285712</v>
       </c>
-      <c r="H62" s="81">
+      <c r="H62" s="74">
         <f>VLOOKUP(F62,SummaryReport!A:J,8,FALSE)</f>
-        <v>27</v>
-      </c>
-      <c r="I62" s="10">
+        <v>24</v>
+      </c>
+      <c r="I62" s="6">
         <f>1-G62/H62</f>
-        <v>4.7619047619047672E-2</v>
+        <v>-7.1428571428571397E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B63" s="38">
+      <c r="A63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="34">
         <v>326</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="20">
         <f t="shared" si="31"/>
         <v>310</v>
       </c>
-      <c r="D63" s="60">
+      <c r="D63" s="83">
         <f t="shared" si="32"/>
         <v>-5.1612903225806361E-2</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="42" t="str">
+      <c r="E63" s="21"/>
+      <c r="F63" s="38" t="str">
         <f>VLOOKUP(A63,Соответствие!A:B,2,FALSE)</f>
         <v>Logout</v>
       </c>
-      <c r="G63" s="21">
-        <f>C63/3</f>
+      <c r="G63" s="17">
+        <f t="shared" si="29"/>
         <v>103.33333333333333</v>
       </c>
-      <c r="H63" s="81">
+      <c r="H63" s="74">
         <f>VLOOKUP(F63,SummaryReport!A:J,8,FALSE)</f>
-        <v>102</v>
-      </c>
-      <c r="I63" s="10">
+        <v>106</v>
+      </c>
+      <c r="I63" s="6">
         <f t="shared" si="30"/>
-        <v>-1.3071895424836555E-2</v>
+        <v>2.515723270440251E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="38">
+      <c r="A64" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="34">
         <v>97</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="20">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D64" s="60">
+      <c r="D64" s="83">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="42" t="str">
+      <c r="E64" s="21"/>
+      <c r="F64" s="38" t="str">
         <f>VLOOKUP(A64,Соответствие!A:B,2,FALSE)</f>
         <v>OpenRegistrationPage</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G64" s="17">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H64" s="81">
+      <c r="H64" s="74">
         <f>VLOOKUP(F64,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
-      </c>
-      <c r="I64" s="10">
+        <v>33</v>
+      </c>
+      <c r="I64" s="6">
         <f t="shared" si="30"/>
-        <v>1.9607843137254832E-2</v>
+        <v>-1.0101010101010166E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="38">
+      <c r="A65" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="34">
         <v>97</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="20">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="83">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="42" t="str">
+      <c r="E65" s="21"/>
+      <c r="F65" s="38" t="str">
         <f>VLOOKUP(A65,Соответствие!A:B,2,FALSE)</f>
         <v>UserRegistered</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G65" s="17">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H65" s="81">
+      <c r="H65" s="74">
         <f>VLOOKUP(F65,SummaryReport!A:J,8,FALSE)</f>
-        <v>34</v>
-      </c>
-      <c r="I65" s="10">
+        <v>33</v>
+      </c>
+      <c r="I65" s="6">
         <f t="shared" si="30"/>
-        <v>1.9607843137254832E-2</v>
+        <v>-1.0101010101010166E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="38">
+      <c r="A66" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="34">
         <v>97</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="20">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
-      <c r="D66" s="60">
+      <c r="D66" s="83">
         <f t="shared" si="32"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="42" t="str">
+      <c r="E66" s="21"/>
+      <c r="F66" s="38" t="str">
         <f>VLOOKUP(A66,Соответствие!A:B,2,FALSE)</f>
         <v>press continue</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G66" s="17">
         <f t="shared" si="29"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="H66" s="81">
+      <c r="H66" s="74">
         <f>VLOOKUP(F66,SummaryReport!A:J,8,FALSE)</f>
         <v>33</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="6">
         <f t="shared" si="30"/>
         <v>-1.0101010101010166E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="39">
+      <c r="A67" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="35">
         <f>SUM(B55:B66)</f>
         <v>2944</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="36">
         <f>SUM(C55:C66)</f>
         <v>2901.8670438472423</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="84">
         <f t="shared" si="32"/>
         <v>-1.4519257952252174E-2</v>
       </c>
+      <c r="G67" s="3">
+        <f>SUM(G55:G66)</f>
+        <v>967.28901461574742</v>
+      </c>
+      <c r="H67" s="3">
+        <f>SUM(H55:H66)</f>
+        <v>999</v>
+      </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I68" s="12"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="20"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5087,7 +6367,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5097,119 +6377,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>68</v>
+      <c r="A1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="str">
+      <c r="A2" s="38" t="str">
         <f>'Автоматизированный расчет'!A55</f>
         <v>Главная Welcome страница</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>85</v>
+      <c r="B2" s="38" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="str">
+      <c r="A3" s="38" t="str">
         <f>'Автоматизированный расчет'!A56</f>
         <v>Вход в систему</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>83</v>
+      <c r="B3" s="38" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="str">
+      <c r="A4" s="38" t="str">
         <f>'Автоматизированный расчет'!A57</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>86</v>
+      <c r="B4" s="73" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="str">
+      <c r="A5" s="38" t="str">
         <f>'Автоматизированный расчет'!A58</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>89</v>
+      <c r="B5" s="38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="str">
+      <c r="A6" s="38" t="str">
         <f>'Автоматизированный расчет'!A59</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>96</v>
+      <c r="B6" s="38" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="str">
+      <c r="A7" s="38" t="str">
         <f>'Автоматизированный расчет'!A60</f>
         <v>Оплата билета</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>81</v>
+      <c r="B7" s="38" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="38" t="str">
         <f>'Автоматизированный расчет'!A61</f>
         <v>Просмотр квитанций</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>98</v>
+      <c r="B8" s="38" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="str">
+      <c r="A9" s="38" t="str">
         <f>'Автоматизированный расчет'!A62</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>82</v>
+      <c r="B9" s="38" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="str">
+      <c r="A10" s="38" t="str">
         <f>'Автоматизированный расчет'!A63</f>
         <v>Выход из системы</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>84</v>
+      <c r="B10" s="38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="str">
+      <c r="A11" s="38" t="str">
         <f>'Автоматизированный расчет'!A64</f>
         <v>Перход на страницу регистрации</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>87</v>
+      <c r="B11" s="38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="str">
+      <c r="A12" s="38" t="str">
         <f>'Автоматизированный расчет'!A65</f>
         <v>Заполнение полей регистарции</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>97</v>
+      <c r="B12" s="38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="str">
+      <c r="A13" s="38" t="str">
         <f>'Автоматизированный расчет'!A66</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>88</v>
+      <c r="B13" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5222,13 +6502,14 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J19" sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -5237,581 +6518,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="94" t="s">
+      <c r="A1" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.115</v>
+      </c>
+      <c r="F2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.03</v>
+      </c>
+      <c r="E3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>1E-3</v>
+      </c>
+      <c r="G3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.249</v>
+      </c>
+      <c r="E4">
+        <v>0.878</v>
+      </c>
+      <c r="F4">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.375</v>
+      </c>
+      <c r="H4">
+        <v>144</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="F5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.126</v>
+      </c>
+      <c r="H5">
+        <v>106</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="C6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.21</v>
+      </c>
+      <c r="E6">
+        <v>1.115</v>
+      </c>
+      <c r="F6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H6">
+        <v>177</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="C7">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.21</v>
+      </c>
+      <c r="E7">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.125</v>
+      </c>
+      <c r="G7">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H7">
+        <v>102</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="C8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="C9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.26</v>
+      </c>
+      <c r="F9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>33</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="94" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="94" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="C10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.18</v>
+      </c>
+      <c r="F10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>102</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E11">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H11">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="E12">
+        <v>1.821</v>
+      </c>
+      <c r="F12">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D13">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="E13">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="G13">
+        <v>1.081</v>
+      </c>
+      <c r="H13">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="D14">
+        <v>1.044</v>
+      </c>
+      <c r="E14">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G14">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="H14">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="E15">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>0.27</v>
+      </c>
+      <c r="D16">
+        <v>0.37</v>
+      </c>
+      <c r="E16">
+        <v>1.375</v>
+      </c>
+      <c r="F16">
+        <v>0.187</v>
+      </c>
+      <c r="G16">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H16">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="F18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H18">
+        <v>91</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D2" s="42">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E2" s="42">
-        <v>0.04</v>
-      </c>
-      <c r="F2" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" s="42">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H2" s="42">
-        <v>58</v>
-      </c>
-      <c r="I2" s="42">
+      <c r="C19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.09</v>
+      </c>
+      <c r="H19">
+        <v>94</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
-      <c r="J2" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D3" s="42">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="E3" s="42">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F3" s="42">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="H3" s="42">
-        <v>27</v>
-      </c>
-      <c r="I3" s="42">
-        <v>0</v>
-      </c>
-      <c r="J3" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D4" s="42">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="E4" s="42">
-        <v>0.126</v>
-      </c>
-      <c r="F4" s="42">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G4" s="42">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H4" s="42">
-        <v>138</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0</v>
-      </c>
-      <c r="J4" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="D5" s="42">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="E5" s="42">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F5" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="G5" s="42">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H5" s="42">
-        <v>102</v>
-      </c>
-      <c r="I5" s="42">
-        <v>0</v>
-      </c>
-      <c r="J5" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D6" s="42">
-        <v>0.106</v>
-      </c>
-      <c r="E6" s="42">
-        <v>0.216</v>
-      </c>
-      <c r="F6" s="42">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G6" s="42">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H6" s="42">
-        <v>172</v>
-      </c>
-      <c r="I6" s="42">
-        <v>1</v>
-      </c>
-      <c r="J6" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="D7" s="42">
-        <v>0.108</v>
-      </c>
-      <c r="E7" s="42">
-        <v>0.112</v>
-      </c>
-      <c r="F7" s="42">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G7" s="42">
-        <v>0.112</v>
-      </c>
-      <c r="H7" s="42">
-        <v>99</v>
-      </c>
-      <c r="I7" s="42">
-        <v>0</v>
-      </c>
-      <c r="J7" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="D8" s="42">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E8" s="42">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F8" s="42">
-        <v>0</v>
-      </c>
-      <c r="G8" s="42">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="H8" s="42">
-        <v>34</v>
-      </c>
-      <c r="I8" s="42">
-        <v>0</v>
-      </c>
-      <c r="J8" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D9" s="42">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="E9" s="42">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="F9" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="G9" s="42">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="H9" s="42">
-        <v>33</v>
-      </c>
-      <c r="I9" s="42">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D10" s="42">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E10" s="42">
-        <v>0.04</v>
-      </c>
-      <c r="F10" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="G10" s="42">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H10" s="42">
-        <v>97</v>
-      </c>
-      <c r="I10" s="42">
-        <v>0</v>
-      </c>
-      <c r="J10" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="D11" s="42">
-        <v>0.308</v>
-      </c>
-      <c r="E11" s="42">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="F11" s="42">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G11" s="42">
-        <v>0.315</v>
-      </c>
-      <c r="H11" s="42">
-        <v>39</v>
-      </c>
-      <c r="I11" s="42">
-        <v>1</v>
-      </c>
-      <c r="J11" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="D12" s="42">
-        <v>0.377</v>
-      </c>
-      <c r="E12" s="42">
-        <v>0.438</v>
-      </c>
-      <c r="F12" s="42">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G12" s="42">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="H12" s="42">
-        <v>30</v>
-      </c>
-      <c r="I12" s="42">
-        <v>0</v>
-      </c>
-      <c r="J12" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D13" s="42">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="E13" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="F13" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="G13" s="42">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="H13" s="42">
-        <v>24</v>
-      </c>
-      <c r="I13" s="42">
-        <v>0</v>
-      </c>
-      <c r="J13" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0.51</v>
-      </c>
-      <c r="F14" s="42">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G14" s="42">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H14" s="42">
-        <v>34</v>
-      </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="D15" s="42">
-        <v>2.5209999999999999</v>
-      </c>
-      <c r="E15" s="42">
-        <v>4.7480000000000002</v>
-      </c>
-      <c r="F15" s="42">
-        <v>1.153</v>
-      </c>
-      <c r="G15" s="42">
-        <v>4.7480000000000002</v>
-      </c>
-      <c r="H15" s="42">
-        <v>9</v>
-      </c>
-      <c r="I15" s="42">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42">
-        <v>0.36</v>
-      </c>
-      <c r="D16" s="42">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E16" s="42">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="F16" s="42">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="42">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H16" s="42">
-        <v>33</v>
-      </c>
-      <c r="I16" s="42">
-        <v>0</v>
-      </c>
-      <c r="J16" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42">
-        <v>0.03</v>
-      </c>
-      <c r="D17" s="42">
-        <v>3.1E-2</v>
-      </c>
-      <c r="E17" s="42">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F17" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="G17" s="42">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H17" s="42">
-        <v>34</v>
-      </c>
-      <c r="I17" s="42">
-        <v>0</v>
-      </c>
-      <c r="J17" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D18" s="42">
-        <v>0.155</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F18" s="42">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="G18" s="42">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="H18" s="42">
-        <v>94</v>
-      </c>
-      <c r="I18" s="42">
-        <v>0</v>
-      </c>
-      <c r="J18" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="D19" s="42">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0.04</v>
-      </c>
-      <c r="F19" s="42">
-        <v>1E-3</v>
-      </c>
-      <c r="G19" s="42">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H19" s="42">
-        <v>88</v>
-      </c>
-      <c r="I19" s="42">
-        <v>0</v>
-      </c>
-      <c r="J19" s="42">
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H20">
         <f>SUM(H2:H19)</f>
-        <v>1145</v>
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
@@ -5841,18 +7105,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C1:P54"/>
+  <dimension ref="C1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
@@ -5865,1084 +7129,2181 @@
     <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="L1" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-    </row>
-    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
+    <row r="1" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E1" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+    </row>
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E4" s="82" t="s">
+      <c r="J3" s="103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="95" t="str">
+        <f>VLOOKUP(E4,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G4" s="96">
+        <f>VLOOKUP(E4,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="H4" s="97">
+        <f>765*0.6</f>
+        <v>459</v>
+      </c>
+      <c r="I4" s="98">
+        <f>1-G4/H4</f>
+        <v>-0.13289760348583868</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="84">
+      <c r="F5" s="95" t="str">
+        <f>VLOOKUP(E5,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="G5" s="96">
+        <f>VLOOKUP(E5,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>422</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="99">
         <f>633*0.6</f>
         <v>379.8</v>
       </c>
-      <c r="I4" s="87">
-        <f>1-G4/H4</f>
+      <c r="I5" s="98">
+        <f t="shared" ref="I4:I6" si="0">1-G5/H5</f>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="84">
-        <f>422*4</f>
-        <v>1688</v>
-      </c>
-      <c r="O4" s="89">
-        <v>1658</v>
-      </c>
-      <c r="P4" s="85">
-        <f>1-N4/O4</f>
-        <v>-1.8094089264173663E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="84">
-        <f>282</f>
+      <c r="J5" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="95" t="str">
+        <f>VLOOKUP(E6,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenPage_FindFlight</v>
+      </c>
+      <c r="G6" s="96">
+        <f>VLOOKUP(E6,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>305</v>
+      </c>
+      <c r="H6" s="93">
+        <f>426*0.6</f>
+        <v>255.6</v>
+      </c>
+      <c r="I6" s="98">
+        <f t="shared" si="0"/>
+        <v>-0.19327073552425666</v>
+      </c>
+      <c r="J6" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="95" t="str">
+        <f>VLOOKUP(E7,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>SubmitFlight</v>
+      </c>
+      <c r="G7" s="96">
+        <f>VLOOKUP(E7,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>282</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="99">
         <f>424*0.6</f>
         <v>254.39999999999998</v>
       </c>
-      <c r="I5" s="87">
-        <f t="shared" ref="I5:I10" si="0">1-G5/H5</f>
+      <c r="I7" s="98">
+        <f>1-G7/H7</f>
         <v>-0.10849056603773599</v>
       </c>
-      <c r="L5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="84">
-        <f>282*4</f>
-        <v>1128</v>
-      </c>
-      <c r="O5" s="90">
-        <v>1170</v>
-      </c>
-      <c r="P5" s="85">
-        <f t="shared" ref="P5:P11" si="1">1-N5/O5</f>
-        <v>3.5897435897435881E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="84">
-        <f>270</f>
+      <c r="J7" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="101"/>
+    </row>
+    <row r="8" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="95" t="str">
+        <f>VLOOKUP(E8,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>СhooseDepartureTime</v>
+      </c>
+      <c r="G8" s="96">
+        <f>VLOOKUP(E8,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H8" s="99">
         <f>386*0.6</f>
         <v>231.6</v>
       </c>
-      <c r="I6" s="87">
-        <f t="shared" si="0"/>
+      <c r="I8" s="98">
+        <f t="shared" ref="I8:I15" si="1">1-G8/H8</f>
         <v>-0.16580310880829008</v>
       </c>
-      <c r="L6" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" s="84">
-        <f>270*4</f>
-        <v>1080</v>
-      </c>
-      <c r="O6" s="89">
-        <v>1058</v>
-      </c>
-      <c r="P6" s="85">
-        <f t="shared" si="1"/>
-        <v>-2.0793950850661602E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="84">
-        <f>175</f>
+      <c r="J8" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="101"/>
+    </row>
+    <row r="9" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="95" t="str">
+        <f>VLOOKUP(E9,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>BuyingTicket</v>
+      </c>
+      <c r="G9" s="96">
+        <f>VLOOKUP(E9,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>175</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="99">
         <f>258*0.6</f>
         <v>154.79999999999998</v>
       </c>
-      <c r="I7" s="87">
-        <f t="shared" si="0"/>
+      <c r="I9" s="98">
+        <f t="shared" si="1"/>
         <v>-0.1304909560723515</v>
       </c>
-      <c r="L7" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="84">
-        <f>175*4</f>
-        <v>700</v>
-      </c>
-      <c r="O7" s="89">
-        <v>698</v>
-      </c>
-      <c r="P7" s="86">
-        <f t="shared" si="1"/>
-        <v>-2.8653295128939771E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="84">
-        <f>280</f>
+      <c r="J9" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="101"/>
+    </row>
+    <row r="10" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="95" t="str">
+        <f>VLOOKUP(E10,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>ViewTicketList</v>
+      </c>
+      <c r="G10" s="96">
+        <f>VLOOKUP(E10,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>280</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H10" s="99">
         <f>420*0.6</f>
         <v>252</v>
       </c>
-      <c r="I8" s="87">
-        <f t="shared" si="0"/>
+      <c r="I10" s="98">
+        <f t="shared" si="1"/>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="L8" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="84">
-        <f>280*4</f>
-        <v>1120</v>
-      </c>
-      <c r="O8" s="89">
-        <v>1113</v>
-      </c>
-      <c r="P8" s="85">
-        <f t="shared" si="1"/>
-        <v>-6.2893081761006275E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="84">
-        <f>73</f>
+      <c r="J10" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="101"/>
+    </row>
+    <row r="11" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="95" t="str">
+        <f>VLOOKUP(E11,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>DeleteTicket</v>
+      </c>
+      <c r="G11" s="96">
+        <f>VLOOKUP(E11,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>73</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H11" s="99">
         <f>125*0.6</f>
         <v>75</v>
       </c>
-      <c r="I9" s="86">
-        <f t="shared" si="0"/>
+      <c r="I11" s="98">
+        <f t="shared" si="1"/>
         <v>2.6666666666666616E-2</v>
       </c>
-      <c r="L9" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="84">
-        <f>73*4</f>
-        <v>292</v>
-      </c>
-      <c r="O9" s="89">
-        <v>302</v>
-      </c>
-      <c r="P9" s="85">
-        <f t="shared" si="1"/>
-        <v>3.3112582781456901E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="84">
-        <f>326</f>
+      <c r="J11" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="95" t="str">
+        <f>VLOOKUP(E12,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="G12" s="96">
+        <f>VLOOKUP(E12,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>326</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H12" s="99">
         <f>437*0.6</f>
         <v>262.2</v>
       </c>
-      <c r="I10" s="87">
-        <f t="shared" si="0"/>
+      <c r="I12" s="98">
+        <f t="shared" si="1"/>
         <v>-0.24332570556826849</v>
       </c>
-      <c r="L10" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="84">
-        <f>326*4</f>
-        <v>1304</v>
-      </c>
-      <c r="O10" s="89">
-        <v>1320</v>
-      </c>
-      <c r="P10" s="85">
+      <c r="J12" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="95" t="str">
+        <f>VLOOKUP(E13,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G13" s="96">
+        <f>VLOOKUP(E13,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H13" s="93">
+        <f>125*0.6</f>
+        <v>75</v>
+      </c>
+      <c r="I13" s="98">
         <f t="shared" si="1"/>
-        <v>1.2121212121212088E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M11" s="91" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="92">
-        <f>SUM(N4:N10)</f>
-        <v>7312</v>
-      </c>
-      <c r="O11" s="92">
-        <f>SUM(O4:O10)</f>
-        <v>7319</v>
-      </c>
-      <c r="P11" s="93">
+        <v>-0.29333333333333322</v>
+      </c>
+      <c r="J13" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="95" t="str">
+        <f>VLOOKUP(E14,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G14" s="96">
+        <f>VLOOKUP(E14,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H14" s="93">
+        <f>125*0.6</f>
+        <v>75</v>
+      </c>
+      <c r="I14" s="98">
         <f t="shared" si="1"/>
-        <v>9.564148107664705E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-    </row>
-    <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="1" t="s">
+        <v>-0.29333333333333322</v>
+      </c>
+      <c r="J14" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="95" t="str">
+        <f>VLOOKUP(E15,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>press continue</v>
+      </c>
+      <c r="G15" s="96">
+        <f>VLOOKUP(E15,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H15" s="93">
+        <f>122*0.6</f>
+        <v>73.2</v>
+      </c>
+      <c r="I15" s="98">
+        <f t="shared" si="1"/>
+        <v>-0.32513661202185795</v>
+      </c>
+      <c r="J15" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+    </row>
+    <row r="17" spans="5:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="I19" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="5:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="82" t="s">
+      <c r="J19" s="103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="95" t="str">
+        <f>VLOOKUP(E20,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G20" s="96">
+        <f>VLOOKUP(E20,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="H20" s="97">
+        <f>(682/4)*3</f>
+        <v>511.5</v>
+      </c>
+      <c r="I20" s="98">
+        <f>1-G20/H20</f>
+        <v>-1.6617790811339184E-2</v>
+      </c>
+      <c r="J20" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="84">
+      <c r="F21" s="95" t="str">
+        <f>VLOOKUP(E21,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="G21" s="96">
+        <f>VLOOKUP(E21,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>422</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H21" s="99">
         <f>(543/4)*3</f>
         <v>407.25</v>
       </c>
-      <c r="I15" s="85">
-        <f t="shared" ref="I15:I21" si="2">1-G15/H15</f>
+      <c r="I21" s="98">
+        <f t="shared" ref="I21:I22" si="2">1-G21/H21</f>
         <v>-3.6218538980969939E-2</v>
       </c>
-    </row>
-    <row r="16" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="84">
-        <v>282</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="J21" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="101"/>
+      <c r="Q21" s="101"/>
+    </row>
+    <row r="22" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="95" t="str">
+        <f>VLOOKUP(E22,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenPage_FindFlight</v>
+      </c>
+      <c r="G22" s="96">
+        <f>VLOOKUP(E22,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>305</v>
+      </c>
+      <c r="H22" s="93">
         <f>(382/4)*3</f>
         <v>286.5</v>
       </c>
-      <c r="I16" s="85">
+      <c r="I22" s="98">
         <f t="shared" si="2"/>
+        <v>-6.4572425828970381E-2</v>
+      </c>
+      <c r="J22" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="101"/>
+      <c r="Q22" s="101"/>
+    </row>
+    <row r="23" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="95" t="str">
+        <f>VLOOKUP(E23,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>SubmitFlight</v>
+      </c>
+      <c r="G23" s="96">
+        <f>VLOOKUP(E23,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>282</v>
+      </c>
+      <c r="H23" s="99">
+        <f>(382/4)*3</f>
+        <v>286.5</v>
+      </c>
+      <c r="I23" s="98">
+        <f>1-G23/H23</f>
         <v>1.5706806282722474E-2</v>
       </c>
-    </row>
-    <row r="17" spans="5:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="84">
+      <c r="J23" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="101"/>
+      <c r="Q23" s="101"/>
+    </row>
+    <row r="24" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="95" t="str">
+        <f>VLOOKUP(E24,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>СhooseDepartureTime</v>
+      </c>
+      <c r="G24" s="96">
+        <f>VLOOKUP(E24,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H24" s="99">
         <f>(350/4)*3</f>
         <v>262.5</v>
       </c>
-      <c r="I17" s="85">
-        <f t="shared" si="2"/>
+      <c r="I24" s="98">
+        <f t="shared" ref="I24:I31" si="3">1-G24/H24</f>
         <v>-2.857142857142847E-2</v>
       </c>
-    </row>
-    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="84">
+      <c r="J24" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="101"/>
+      <c r="Q24" s="101"/>
+    </row>
+    <row r="25" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="95" t="str">
+        <f>VLOOKUP(E25,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>BuyingTicket</v>
+      </c>
+      <c r="G25" s="96">
+        <f>VLOOKUP(E25,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>175</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H25" s="99">
         <f>(230/4)*3</f>
         <v>172.5</v>
       </c>
-      <c r="I18" s="86">
-        <f t="shared" si="2"/>
+      <c r="I25" s="98">
+        <f t="shared" si="3"/>
         <v>-1.449275362318847E-2</v>
       </c>
-    </row>
-    <row r="19" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="84">
+      <c r="J25" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="95" t="str">
+        <f>VLOOKUP(E26,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>ViewTicketList</v>
+      </c>
+      <c r="G26" s="96">
+        <f>VLOOKUP(E26,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>280</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H26" s="99">
         <f>(366/4)*3</f>
         <v>274.5</v>
       </c>
-      <c r="I19" s="86">
-        <f t="shared" si="2"/>
+      <c r="I26" s="98">
+        <f t="shared" si="3"/>
         <v>-2.0036429872495543E-2</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="84">
+      <c r="J26" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="95" t="str">
+        <f>VLOOKUP(E27,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>DeleteTicket</v>
+      </c>
+      <c r="G27" s="96">
+        <f>VLOOKUP(E27,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>73</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H27" s="99">
         <f>(102/4)*3</f>
         <v>76.5</v>
       </c>
-      <c r="I20" s="86">
-        <f t="shared" si="2"/>
+      <c r="I27" s="98">
+        <f>1-G27/H27</f>
         <v>4.5751633986928053E-2</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="84">
+      <c r="J27" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="95" t="str">
+        <f>VLOOKUP(E28,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="G28" s="96">
+        <f>VLOOKUP(E28,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>326</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H28" s="99">
         <f>(413/4)*3</f>
         <v>309.75</v>
       </c>
-      <c r="I21" s="86">
-        <f t="shared" si="2"/>
+      <c r="I28" s="98">
+        <f>1-G28/H28</f>
         <v>-5.246166263115426E-2</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E25" s="1" t="s">
+      <c r="J28" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="95" t="str">
+        <f>VLOOKUP(E29,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G29" s="96">
+        <f>VLOOKUP(E29,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H29" s="93">
+        <f>(134/4)*3</f>
+        <v>100.5</v>
+      </c>
+      <c r="I29" s="98">
+        <f t="shared" si="3"/>
+        <v>3.4825870646766122E-2</v>
+      </c>
+      <c r="J29" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="95" t="str">
+        <f>VLOOKUP(E30,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G30" s="96">
+        <f>VLOOKUP(E30,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H30" s="93">
+        <f>(134/4)*3</f>
+        <v>100.5</v>
+      </c>
+      <c r="I30" s="98">
+        <f t="shared" si="3"/>
+        <v>3.4825870646766122E-2</v>
+      </c>
+      <c r="J30" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="95" t="str">
+        <f>VLOOKUP(E31,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>press continue</v>
+      </c>
+      <c r="G31" s="96">
+        <f>VLOOKUP(E31,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H31" s="93">
+        <f>(133/4)*3</f>
+        <v>99.75</v>
+      </c>
+      <c r="I31" s="98">
+        <f t="shared" si="3"/>
+        <v>2.7568922305764465E-2</v>
+      </c>
+      <c r="J31" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="101"/>
+      <c r="Q31" s="101"/>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="101"/>
+      <c r="Q32" s="101"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="I35" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E26" s="82" t="s">
+      <c r="J35" s="103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="95" t="str">
+        <f>VLOOKUP(E36,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G36" s="96">
+        <f>VLOOKUP(E36,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="H36" s="97">
+        <v>512</v>
+      </c>
+      <c r="I36" s="98">
+        <f>1-G36/H36</f>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="J36" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E37" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="84">
+      <c r="F37" s="95" t="str">
+        <f>VLOOKUP(E37,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="G37" s="96">
+        <f>VLOOKUP(E37,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>422</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H37" s="99">
         <v>407</v>
       </c>
-      <c r="I26" s="85">
-        <f>1-G26/H26</f>
+      <c r="I37" s="98">
+        <f t="shared" ref="I37:I38" si="4">1-G37/H37</f>
         <v>-3.6855036855036882E-2</v>
       </c>
-    </row>
-    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E27" s="82" t="s">
+      <c r="J37" s="102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E38" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="95" t="str">
+        <f>VLOOKUP(E38,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenPage_FindFlight</v>
+      </c>
+      <c r="G38" s="96">
+        <f>VLOOKUP(E38,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>305</v>
+      </c>
+      <c r="H38" s="93">
+        <v>290</v>
+      </c>
+      <c r="I38" s="98">
+        <f t="shared" si="4"/>
+        <v>-5.1724137931034475E-2</v>
+      </c>
+      <c r="J38" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="95" t="str">
+        <f>VLOOKUP(E39,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>SubmitFlight</v>
+      </c>
+      <c r="G39" s="96">
+        <f>VLOOKUP(E39,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>282</v>
+      </c>
+      <c r="H39" s="99">
+        <v>290</v>
+      </c>
+      <c r="I39" s="98">
+        <f>1-G39/H39</f>
+        <v>2.7586206896551779E-2</v>
+      </c>
+      <c r="J39" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="95" t="str">
+        <f>VLOOKUP(E40,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>СhooseDepartureTime</v>
+      </c>
+      <c r="G40" s="96">
+        <f>VLOOKUP(E40,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="H40" s="99">
+        <v>264</v>
+      </c>
+      <c r="I40" s="98">
+        <f>1-G40/H40</f>
+        <v>-2.2727272727272707E-2</v>
+      </c>
+      <c r="J40" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="101"/>
+      <c r="O40" s="101"/>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E41" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="83" t="s">
+      <c r="F41" s="95" t="str">
+        <f>VLOOKUP(E41,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>BuyingTicket</v>
+      </c>
+      <c r="G41" s="96">
+        <f>VLOOKUP(E41,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>175</v>
+      </c>
+      <c r="H41" s="99">
+        <v>174</v>
+      </c>
+      <c r="I41" s="98">
+        <f t="shared" ref="I40:I42" si="5">1-G41/H41</f>
+        <v>-5.7471264367816577E-3</v>
+      </c>
+      <c r="J41" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="95" t="str">
+        <f>VLOOKUP(E42,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>ViewTicketList</v>
+      </c>
+      <c r="G42" s="96">
+        <f>VLOOKUP(E42,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>280</v>
+      </c>
+      <c r="H42" s="99">
+        <v>278</v>
+      </c>
+      <c r="I42" s="98">
+        <f t="shared" si="5"/>
+        <v>-7.194244604316502E-3</v>
+      </c>
+      <c r="J42" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E43" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="95" t="str">
+        <f>VLOOKUP(E43,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>DeleteTicket</v>
+      </c>
+      <c r="G43" s="96">
+        <f>VLOOKUP(E43,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>73</v>
+      </c>
+      <c r="H43" s="99">
+        <v>78</v>
+      </c>
+      <c r="I43" s="98">
+        <f>1-G43/H43</f>
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="J43" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="95" t="str">
+        <f>VLOOKUP(E44,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="G44" s="96">
+        <f>VLOOKUP(E44,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>326</v>
+      </c>
+      <c r="H44" s="99">
+        <v>309</v>
+      </c>
+      <c r="I44" s="98">
+        <f>1-G44/H44</f>
+        <v>-5.5016181229773364E-2</v>
+      </c>
+      <c r="J44" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E45" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="95" t="str">
+        <f>VLOOKUP(E45,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G45" s="96">
+        <f>VLOOKUP(E45,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H45" s="93">
+        <v>100</v>
+      </c>
+      <c r="I45" s="98">
+        <f t="shared" ref="I45:I47" si="6">1-G45/H45</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J45" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E46" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="95" t="str">
+        <f>VLOOKUP(E46,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G46" s="96">
+        <f>VLOOKUP(E46,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H46" s="93">
+        <v>100</v>
+      </c>
+      <c r="I46" s="98">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J46" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="L46" s="101"/>
+      <c r="O46" s="101"/>
+    </row>
+    <row r="47" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E47" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="95" t="str">
+        <f>VLOOKUP(E47,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>press continue</v>
+      </c>
+      <c r="G47" s="96">
+        <f>VLOOKUP(E47,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H47" s="93">
+        <v>100</v>
+      </c>
+      <c r="I47" s="98">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J47" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E49" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="84">
-        <f>282</f>
-        <v>282</v>
-      </c>
-      <c r="H27" s="2">
-        <v>290</v>
-      </c>
-      <c r="I27" s="85">
-        <f t="shared" ref="I27:I32" si="3">1-G27/H27</f>
-        <v>2.7586206896551779E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E28" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="84">
-        <f>270</f>
-        <v>270</v>
-      </c>
-      <c r="H28" s="2">
-        <v>264</v>
-      </c>
-      <c r="I28" s="85">
-        <f t="shared" si="3"/>
-        <v>-2.2727272727272707E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="84">
-        <f>175</f>
-        <v>175</v>
-      </c>
-      <c r="H29" s="2">
-        <v>174</v>
-      </c>
-      <c r="I29" s="86">
-        <f t="shared" si="3"/>
-        <v>-5.7471264367816577E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="84">
-        <f>280</f>
-        <v>280</v>
-      </c>
-      <c r="H30" s="2">
-        <v>278</v>
-      </c>
-      <c r="I30" s="86">
-        <f t="shared" si="3"/>
-        <v>-7.194244604316502E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="84">
-        <f>73</f>
-        <v>73</v>
-      </c>
-      <c r="H31" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" s="87">
-        <f t="shared" si="3"/>
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="84">
-        <f>326</f>
-        <v>326</v>
-      </c>
-      <c r="H32" s="2">
-        <v>309</v>
-      </c>
-      <c r="I32" s="86">
-        <f t="shared" si="3"/>
-        <v>-5.5016181229773364E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-    </row>
-    <row r="36" spans="5:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E37" s="82" t="s">
+    </row>
+    <row r="52" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="95" t="str">
+        <f>VLOOKUP(E52,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G52" s="96">
+        <f>VLOOKUP(E52,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="H52" s="97">
+        <f>(340/2)*3</f>
+        <v>510</v>
+      </c>
+      <c r="I52" s="98">
+        <f>1-G52/H52</f>
+        <v>-1.9607843137254832E-2</v>
+      </c>
+      <c r="J52" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="84">
+      <c r="F53" s="95" t="str">
+        <f>VLOOKUP(E53,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="G53" s="96">
+        <f>VLOOKUP(E53,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>422</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H53" s="99">
         <f>(271/2)*3</f>
         <v>406.5</v>
       </c>
-      <c r="I37" s="85">
-        <f>1-G37/H37</f>
+      <c r="I53" s="98">
+        <f t="shared" ref="I53:I54" si="7">1-G53/H53</f>
         <v>-3.8130381303812966E-2</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E38" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="84">
-        <f>282</f>
+      <c r="J53" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E54" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="95" t="str">
+        <f>VLOOKUP(E54,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenPage_FindFlight</v>
+      </c>
+      <c r="G54" s="96">
+        <f>VLOOKUP(E54,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>305</v>
+      </c>
+      <c r="H54" s="93">
+        <f>(194/2)*3</f>
+        <v>291</v>
+      </c>
+      <c r="I54" s="98">
+        <f t="shared" si="7"/>
+        <v>-4.8109965635738883E-2</v>
+      </c>
+      <c r="J54" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E55" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="95" t="str">
+        <f>VLOOKUP(E55,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>SubmitFlight</v>
+      </c>
+      <c r="G55" s="96">
+        <f>VLOOKUP(E55,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>282</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H55" s="99">
         <f>(192/2)*3</f>
         <v>288</v>
       </c>
-      <c r="I38" s="85">
-        <f t="shared" ref="I38:I43" si="4">1-G38/H38</f>
+      <c r="I55" s="98">
+        <f>1-G55/H55</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="3">
-        <v>377</v>
-      </c>
-      <c r="N38" s="3">
-        <v>27</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E39" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="84">
-        <f>270</f>
+      <c r="J55" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E56" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="95" t="str">
+        <f>VLOOKUP(E56,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>СhooseDepartureTime</v>
+      </c>
+      <c r="G56" s="96">
+        <f>VLOOKUP(E56,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H56" s="99">
         <f>(175/2)*3</f>
         <v>262.5</v>
       </c>
-      <c r="I39" s="85">
-        <f t="shared" si="4"/>
+      <c r="I56" s="98">
+        <f>1-G56/H56</f>
         <v>-2.857142857142847E-2</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="3">
-        <v>998</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="J56" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="84">
-        <f>175</f>
+      <c r="F57" s="95" t="str">
+        <f>VLOOKUP(E57,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>BuyingTicket</v>
+      </c>
+      <c r="G57" s="96">
+        <f>VLOOKUP(E57,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>175</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H57" s="99">
         <f>(115/2)*3</f>
         <v>172.5</v>
       </c>
-      <c r="I40" s="86">
-        <f t="shared" si="4"/>
+      <c r="I57" s="98">
+        <f t="shared" ref="I57:I58" si="8">1-G57/H57</f>
         <v>-1.449275362318847E-2</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E41" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="84">
-        <f>280</f>
+      <c r="J57" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="95" t="str">
+        <f>VLOOKUP(E58,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>ViewTicketList</v>
+      </c>
+      <c r="G58" s="96">
+        <f>VLOOKUP(E58,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>280</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H58" s="99">
         <f>(183/2)*3</f>
         <v>274.5</v>
       </c>
-      <c r="I41" s="86">
-        <f t="shared" si="4"/>
+      <c r="I58" s="98">
+        <f t="shared" si="8"/>
         <v>-2.0036429872495543E-2</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N41" s="3">
-        <v>139</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E42" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="84">
-        <f>73</f>
+      <c r="J58" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E59" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="95" t="str">
+        <f>VLOOKUP(E59,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>DeleteTicket</v>
+      </c>
+      <c r="G59" s="96">
+        <f>VLOOKUP(E59,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>73</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H59" s="99">
         <f>(51/2)*3</f>
         <v>76.5</v>
       </c>
-      <c r="I42" s="86">
-        <f t="shared" si="4"/>
+      <c r="I59" s="98">
+        <f>1-G59/H59</f>
         <v>4.5751633986928053E-2</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="J59" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="95" t="str">
+        <f>VLOOKUP(E60,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="G60" s="96">
+        <f>VLOOKUP(E60,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>326</v>
+      </c>
+      <c r="H60" s="99">
+        <f>(206/2)*3</f>
+        <v>309</v>
+      </c>
+      <c r="I60" s="98">
+        <f>1-G60/H60</f>
+        <v>-5.5016181229773364E-2</v>
+      </c>
+      <c r="J60" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E61" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="95" t="str">
+        <f>VLOOKUP(E61,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G61" s="96">
+        <f>VLOOKUP(E61,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H61" s="93">
+        <f>(67/2)*3</f>
+        <v>100.5</v>
+      </c>
+      <c r="I61" s="98">
+        <f t="shared" ref="I61:I63" si="9">1-G61/H61</f>
+        <v>3.4825870646766122E-2</v>
+      </c>
+      <c r="J61" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="95" t="str">
+        <f>VLOOKUP(E62,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G62" s="96">
+        <f>VLOOKUP(E62,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H62" s="93">
+        <f>(67/2)*3</f>
+        <v>100.5</v>
+      </c>
+      <c r="I62" s="98">
+        <f t="shared" si="9"/>
+        <v>3.4825870646766122E-2</v>
+      </c>
+      <c r="J62" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E63" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="95" t="str">
+        <f>VLOOKUP(E63,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>press continue</v>
+      </c>
+      <c r="G63" s="96">
+        <f>VLOOKUP(E63,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H63" s="93">
+        <f>(67/2)*3</f>
+        <v>100.5</v>
+      </c>
+      <c r="I63" s="98">
+        <f t="shared" si="9"/>
+        <v>3.4825870646766122E-2</v>
+      </c>
+      <c r="J63" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E65" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E67" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="95" t="str">
+        <f>VLOOKUP(E68,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="G68" s="96">
+        <f>VLOOKUP(E68,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="H68" s="97">
+        <f>183*3</f>
+        <v>549</v>
+      </c>
+      <c r="I68" s="98">
+        <f>1-G68/H68</f>
+        <v>5.2823315118397107E-2</v>
+      </c>
+      <c r="J68" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="75" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E43" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="84">
-        <f>326</f>
-        <v>326</v>
-      </c>
-      <c r="H43" s="2">
-        <f>(205/2)*3</f>
-        <v>307.5</v>
-      </c>
-      <c r="I43" s="87">
-        <f t="shared" si="4"/>
-        <v>-6.0162601626016166E-2</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="3">
-        <v>924</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="L44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="99"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E48" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="G48" s="84">
+      <c r="F69" s="95" t="str">
+        <f>VLOOKUP(E69,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="G69" s="96">
+        <f>VLOOKUP(E69,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>422</v>
       </c>
-      <c r="H48" s="88">
+      <c r="H69" s="99">
         <f>146*3</f>
         <v>438</v>
       </c>
-      <c r="I48" s="85">
-        <f>1-G48/H48</f>
+      <c r="I69" s="98">
+        <f t="shared" ref="I69:I70" si="10">1-G69/H69</f>
         <v>3.6529680365296802E-2</v>
       </c>
-    </row>
-    <row r="49" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E49" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="84">
-        <f>282</f>
+      <c r="J69" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="95" t="str">
+        <f>VLOOKUP(E70,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenPage_FindFlight</v>
+      </c>
+      <c r="G70" s="96">
+        <f>VLOOKUP(E70,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>305</v>
+      </c>
+      <c r="H70" s="93">
+        <f>103*3</f>
+        <v>309</v>
+      </c>
+      <c r="I70" s="98">
+        <f t="shared" si="10"/>
+        <v>1.2944983818770184E-2</v>
+      </c>
+      <c r="J70" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E71" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="95" t="str">
+        <f>VLOOKUP(E71,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>SubmitFlight</v>
+      </c>
+      <c r="G71" s="96">
+        <f>VLOOKUP(E71,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>282</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H71" s="99">
         <f>101*3</f>
         <v>303</v>
       </c>
-      <c r="I49" s="87">
-        <f t="shared" ref="I49:I54" si="5">1-G49/H49</f>
+      <c r="I71" s="98">
+        <f>1-G71/H71</f>
         <v>6.9306930693069257E-2</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E50" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="84">
-        <f>270</f>
+      <c r="J71" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E72" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="95" t="str">
+        <f>VLOOKUP(E72,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>СhooseDepartureTime</v>
+      </c>
+      <c r="G72" s="96">
+        <f>VLOOKUP(E72,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="H50" s="88">
+      <c r="H72" s="99">
         <f>91*3</f>
         <v>273</v>
       </c>
-      <c r="I50" s="85">
-        <f t="shared" si="5"/>
+      <c r="I72" s="98">
+        <f>1-G72/H72</f>
         <v>1.098901098901095E-2</v>
       </c>
-    </row>
-    <row r="51" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E51" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="84">
-        <f>175</f>
+      <c r="J72" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E73" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="95" t="str">
+        <f>VLOOKUP(E73,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>BuyingTicket</v>
+      </c>
+      <c r="G73" s="96">
+        <f>VLOOKUP(E73,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>175</v>
       </c>
-      <c r="H51" s="88">
+      <c r="H73" s="99">
         <f>60*3</f>
         <v>180</v>
       </c>
-      <c r="I51" s="86">
-        <f t="shared" si="5"/>
+      <c r="I73" s="98">
+        <f t="shared" ref="I73:I74" si="11">1-G73/H73</f>
         <v>2.777777777777779E-2</v>
       </c>
-    </row>
-    <row r="52" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E52" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="84">
-        <f>280</f>
+      <c r="J73" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E74" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" s="95" t="str">
+        <f>VLOOKUP(E74,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>ViewTicketList</v>
+      </c>
+      <c r="G74" s="96">
+        <f>VLOOKUP(E74,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>280</v>
       </c>
-      <c r="H52" s="88">
+      <c r="H74" s="99">
         <f>102*3</f>
         <v>306</v>
       </c>
-      <c r="I52" s="87">
-        <f t="shared" si="5"/>
+      <c r="I74" s="98">
+        <f t="shared" si="11"/>
         <v>8.496732026143794E-2</v>
       </c>
-    </row>
-    <row r="53" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E53" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="84">
-        <f>73</f>
+      <c r="J74" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E75" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="95" t="str">
+        <f>VLOOKUP(E75,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>DeleteTicket</v>
+      </c>
+      <c r="G75" s="96">
+        <f>VLOOKUP(E75,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>73</v>
       </c>
-      <c r="H53" s="88">
+      <c r="H75" s="99">
         <f>30*3</f>
         <v>90</v>
       </c>
-      <c r="I53" s="87">
-        <f t="shared" si="5"/>
+      <c r="I75" s="98">
+        <f>1-G75/H75</f>
         <v>0.18888888888888888</v>
       </c>
-    </row>
-    <row r="54" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E54" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="G54" s="84">
-        <f>326</f>
+      <c r="J75" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E76" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="95" t="str">
+        <f>VLOOKUP(E76,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="G76" s="96">
+        <f>VLOOKUP(E76,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
         <v>326</v>
       </c>
-      <c r="H54" s="88">
+      <c r="H76" s="99">
         <f>108*3</f>
         <v>324</v>
       </c>
-      <c r="I54" s="86">
-        <f t="shared" si="5"/>
+      <c r="I76" s="98">
+        <f>1-G76/H76</f>
         <v>-6.1728395061728669E-3</v>
       </c>
+      <c r="J76" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E77" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="95" t="str">
+        <f>VLOOKUP(E77,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="G77" s="96">
+        <f>VLOOKUP(E77,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H77" s="93">
+        <f>36*3</f>
+        <v>108</v>
+      </c>
+      <c r="I77" s="98">
+        <f t="shared" ref="I77:I79" si="12">1-G77/H77</f>
+        <v>0.10185185185185186</v>
+      </c>
+      <c r="J77" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E78" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="95" t="str">
+        <f>VLOOKUP(E78,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="G78" s="96">
+        <f>VLOOKUP(E78,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H78" s="93">
+        <f t="shared" ref="H78:H80" si="13">36*3</f>
+        <v>108</v>
+      </c>
+      <c r="I78" s="98">
+        <f t="shared" si="12"/>
+        <v>0.10185185185185186</v>
+      </c>
+      <c r="J78" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E79" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="95" t="str">
+        <f>VLOOKUP(E79,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>press continue</v>
+      </c>
+      <c r="G79" s="96">
+        <f>VLOOKUP(E79,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)</f>
+        <v>97</v>
+      </c>
+      <c r="H79" s="93">
+        <f>35*3</f>
+        <v>105</v>
+      </c>
+      <c r="I79" s="98">
+        <f t="shared" si="12"/>
+        <v>7.6190476190476142E-2</v>
+      </c>
+      <c r="J79" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H80" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E34:I34"/>
+  <mergeCells count="5">
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="E17:J17"/>
   </mergeCells>
+  <conditionalFormatting sqref="L7:L10">
+    <cfRule type="cellIs" dxfId="124" priority="79" operator="lessThan">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I15">
+    <cfRule type="cellIs" dxfId="123" priority="76" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J7 J12 J15 J9:J10">
+    <cfRule type="containsText" dxfId="122" priority="74" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="containsText" dxfId="121" priority="73" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="containsText" dxfId="120" priority="72" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="containsText" dxfId="119" priority="71" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="containsText" dxfId="118" priority="70" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L24 L31:L32 Q21:Q24 Q31:Q32">
+    <cfRule type="cellIs" dxfId="117" priority="67" operator="lessThan">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40 L46 O40 O46">
+    <cfRule type="cellIs" dxfId="116" priority="60" operator="lessThan">
+      <formula>-5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J15">
+    <cfRule type="cellIs" dxfId="42" priority="29" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I31">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J23 J28 J31 J25:J26">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J31">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I47">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J39 J44 J47 J41:J42">
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J43">
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J47">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:I63">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J55 J60 J63 J57:J58">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J63">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I68:I79">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J71 J76 J79 J73:J74">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J75)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J78)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J72">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",J72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J79">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC37186-D6E2-4BF3-B195-7C599BE8A61C}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="95" t="str">
+        <f>VLOOKUP(A4,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenLandingPage</v>
+      </c>
+      <c r="C4" s="96">
+        <f>VLOOKUP(A4,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>1040</v>
+      </c>
+      <c r="D4" s="97">
+        <v>1054</v>
+      </c>
+      <c r="E4" s="98">
+        <f>1-C4/D4</f>
+        <v>1.3282732447817858E-2</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="95" t="str">
+        <f>VLOOKUP(A5,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Login</v>
+      </c>
+      <c r="C5" s="96">
+        <f>VLOOKUP(A5,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>844</v>
+      </c>
+      <c r="D5" s="99">
+        <v>852</v>
+      </c>
+      <c r="E5" s="98">
+        <f t="shared" ref="E5:E6" si="0">1-C5/D5</f>
+        <v>9.3896713615023719E-3</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="95" t="str">
+        <f>VLOOKUP(A6,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenPage_FindFlight</v>
+      </c>
+      <c r="C6" s="96">
+        <f>VLOOKUP(A6,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>610</v>
+      </c>
+      <c r="D6" s="93">
+        <v>602</v>
+      </c>
+      <c r="E6" s="98">
+        <f t="shared" si="0"/>
+        <v>-1.3289036544850585E-2</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="95" t="str">
+        <f>VLOOKUP(A7,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>SubmitFlight</v>
+      </c>
+      <c r="C7" s="96">
+        <f>VLOOKUP(A7,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>564</v>
+      </c>
+      <c r="D7" s="99">
+        <v>602</v>
+      </c>
+      <c r="E7" s="98">
+        <f>1-C7/D7</f>
+        <v>6.3122923588039836E-2</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="95" t="str">
+        <f>VLOOKUP(A8,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>СhooseDepartureTime</v>
+      </c>
+      <c r="C8" s="96">
+        <f>VLOOKUP(A8,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>540</v>
+      </c>
+      <c r="D8" s="99">
+        <v>552</v>
+      </c>
+      <c r="E8" s="98">
+        <f>1-C8/D8</f>
+        <v>2.1739130434782594E-2</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="95" t="str">
+        <f>VLOOKUP(A9,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>BuyingTicket</v>
+      </c>
+      <c r="C9" s="96">
+        <f>VLOOKUP(A9,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>350</v>
+      </c>
+      <c r="D9" s="99">
+        <v>360</v>
+      </c>
+      <c r="E9" s="98">
+        <f t="shared" ref="E9:E10" si="1">1-C9/D9</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="95" t="str">
+        <f>VLOOKUP(A10,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>ViewTicketList</v>
+      </c>
+      <c r="C10" s="96">
+        <f>VLOOKUP(A10,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>560</v>
+      </c>
+      <c r="D10" s="99">
+        <v>555</v>
+      </c>
+      <c r="E10" s="98">
+        <f t="shared" si="1"/>
+        <v>-9.009009009008917E-3</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="95" t="str">
+        <f>VLOOKUP(A11,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>DeleteTicket</v>
+      </c>
+      <c r="C11" s="96">
+        <f>VLOOKUP(A11,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>146</v>
+      </c>
+      <c r="D11" s="99">
+        <v>147</v>
+      </c>
+      <c r="E11" s="98">
+        <f>1-C11/D11</f>
+        <v>6.8027210884353817E-3</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="95" t="str">
+        <f>VLOOKUP(A12,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>Logout</v>
+      </c>
+      <c r="C12" s="96">
+        <f>VLOOKUP(A12,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>652</v>
+      </c>
+      <c r="D12" s="99">
+        <v>633</v>
+      </c>
+      <c r="E12" s="98">
+        <f>1-C12/D12</f>
+        <v>-3.0015797788309539E-2</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="95" t="str">
+        <f>VLOOKUP(A13,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>OpenRegistrationPage</v>
+      </c>
+      <c r="C13" s="96">
+        <f>VLOOKUP(A13,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>194</v>
+      </c>
+      <c r="D13" s="93">
+        <v>196</v>
+      </c>
+      <c r="E13" s="98">
+        <f t="shared" ref="E13:E15" si="2">1-C13/D13</f>
+        <v>1.0204081632653073E-2</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="95" t="str">
+        <f>VLOOKUP(A14,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>UserRegistered</v>
+      </c>
+      <c r="C14" s="96">
+        <f>VLOOKUP(A14,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>194</v>
+      </c>
+      <c r="D14" s="93">
+        <v>195</v>
+      </c>
+      <c r="E14" s="98">
+        <f t="shared" si="2"/>
+        <v>5.12820512820511E-3</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="95" t="str">
+        <f>VLOOKUP(A15,Соответствие!$A$2:$B$13,2,FALSE)</f>
+        <v>press continue</v>
+      </c>
+      <c r="C15" s="96">
+        <f>VLOOKUP(A15,'Автоматизированный расчет'!$A$55:$B$66,2,FALSE)*2</f>
+        <v>194</v>
+      </c>
+      <c r="D15" s="93">
+        <v>195</v>
+      </c>
+      <c r="E15" s="98">
+        <f t="shared" si="2"/>
+        <v>5.12820512820511E-3</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E15">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>-0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F7 F12 F15 F9:F10">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH("Failed",F8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>